--- a/BackTest/2020-01-21 BackTest BZNT.xlsx
+++ b/BackTest/2020-01-21 BackTest BZNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M175"/>
+  <dimension ref="A1:M176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>5.805</v>
       </c>
       <c r="F2" t="n">
-        <v>16282.0687</v>
+        <v>2801.8806</v>
       </c>
       <c r="G2" t="n">
-        <v>5.668183333333335</v>
+        <v>5.665950000000001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.82</v>
+        <v>5.805</v>
       </c>
       <c r="C3" t="n">
-        <v>5.77</v>
+        <v>5.805</v>
       </c>
       <c r="D3" t="n">
-        <v>5.82</v>
+        <v>5.805</v>
       </c>
       <c r="E3" t="n">
-        <v>5.77</v>
+        <v>5.805</v>
       </c>
       <c r="F3" t="n">
-        <v>107589.8111</v>
+        <v>16282.0687</v>
       </c>
       <c r="G3" t="n">
-        <v>5.673850000000002</v>
+        <v>5.668183333333335</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.76</v>
+        <v>5.82</v>
       </c>
       <c r="C4" t="n">
-        <v>5.7</v>
+        <v>5.77</v>
       </c>
       <c r="D4" t="n">
-        <v>5.76</v>
+        <v>5.82</v>
       </c>
       <c r="E4" t="n">
-        <v>5.7</v>
+        <v>5.77</v>
       </c>
       <c r="F4" t="n">
-        <v>162661.3558</v>
+        <v>107589.8111</v>
       </c>
       <c r="G4" t="n">
-        <v>5.678516666666668</v>
+        <v>5.673850000000002</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="C5" t="n">
         <v>5.7</v>
       </c>
-      <c r="C5" t="n">
-        <v>5.614</v>
-      </c>
       <c r="D5" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="E5" t="n">
         <v>5.7</v>
       </c>
-      <c r="E5" t="n">
-        <v>5.614</v>
-      </c>
       <c r="F5" t="n">
-        <v>92080.8921</v>
+        <v>162661.3558</v>
       </c>
       <c r="G5" t="n">
-        <v>5.679650000000001</v>
+        <v>5.678516666666668</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.677</v>
+        <v>5.7</v>
       </c>
       <c r="C6" t="n">
-        <v>5.677</v>
+        <v>5.614</v>
       </c>
       <c r="D6" t="n">
-        <v>5.677</v>
+        <v>5.7</v>
       </c>
       <c r="E6" t="n">
-        <v>5.676</v>
+        <v>5.614</v>
       </c>
       <c r="F6" t="n">
-        <v>93021.855</v>
+        <v>92080.8921</v>
       </c>
       <c r="G6" t="n">
-        <v>5.681666666666668</v>
+        <v>5.679650000000001</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5.73</v>
+        <v>5.677</v>
       </c>
       <c r="C7" t="n">
-        <v>5.73</v>
+        <v>5.677</v>
       </c>
       <c r="D7" t="n">
-        <v>5.73</v>
+        <v>5.677</v>
       </c>
       <c r="E7" t="n">
-        <v>5.73</v>
+        <v>5.676</v>
       </c>
       <c r="F7" t="n">
-        <v>90</v>
+        <v>93021.855</v>
       </c>
       <c r="G7" t="n">
-        <v>5.686333333333335</v>
+        <v>5.681666666666668</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -646,19 +646,19 @@
         <v>5.73</v>
       </c>
       <c r="C8" t="n">
-        <v>5.74</v>
+        <v>5.73</v>
       </c>
       <c r="D8" t="n">
-        <v>5.74</v>
+        <v>5.73</v>
       </c>
       <c r="E8" t="n">
         <v>5.73</v>
       </c>
       <c r="F8" t="n">
-        <v>100000</v>
+        <v>90</v>
       </c>
       <c r="G8" t="n">
-        <v>5.689683333333336</v>
+        <v>5.686333333333335</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.756</v>
+        <v>5.73</v>
       </c>
       <c r="C9" t="n">
-        <v>5.756</v>
+        <v>5.74</v>
       </c>
       <c r="D9" t="n">
-        <v>5.756</v>
+        <v>5.74</v>
       </c>
       <c r="E9" t="n">
-        <v>5.756</v>
+        <v>5.73</v>
       </c>
       <c r="F9" t="n">
-        <v>85</v>
+        <v>100000</v>
       </c>
       <c r="G9" t="n">
-        <v>5.69461666666667</v>
+        <v>5.689683333333336</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>5.756</v>
       </c>
       <c r="C10" t="n">
-        <v>5.8</v>
+        <v>5.756</v>
       </c>
       <c r="D10" t="n">
-        <v>5.8</v>
+        <v>5.756</v>
       </c>
       <c r="E10" t="n">
         <v>5.756</v>
       </c>
       <c r="F10" t="n">
-        <v>74669.26300000001</v>
+        <v>85</v>
       </c>
       <c r="G10" t="n">
-        <v>5.69866666666667</v>
+        <v>5.69461666666667</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
+        <v>5.756</v>
+      </c>
+      <c r="C11" t="n">
         <v>5.8</v>
       </c>
-      <c r="C11" t="n">
-        <v>5.899</v>
-      </c>
       <c r="D11" t="n">
-        <v>5.899</v>
+        <v>5.8</v>
       </c>
       <c r="E11" t="n">
-        <v>5.8</v>
+        <v>5.756</v>
       </c>
       <c r="F11" t="n">
-        <v>162954.1632206815</v>
+        <v>74669.26300000001</v>
       </c>
       <c r="G11" t="n">
-        <v>5.70436666666667</v>
+        <v>5.69866666666667</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="C12" t="n">
         <v>5.899</v>
       </c>
-      <c r="C12" t="n">
-        <v>5.929</v>
-      </c>
       <c r="D12" t="n">
-        <v>5.929</v>
+        <v>5.899</v>
       </c>
       <c r="E12" t="n">
-        <v>5.899</v>
+        <v>5.8</v>
       </c>
       <c r="F12" t="n">
-        <v>93077.84522694997</v>
+        <v>162954.1632206815</v>
       </c>
       <c r="G12" t="n">
-        <v>5.710566666666669</v>
+        <v>5.70436666666667</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
+        <v>5.899</v>
+      </c>
+      <c r="C13" t="n">
         <v>5.929</v>
       </c>
-      <c r="C13" t="n">
-        <v>5.94</v>
-      </c>
       <c r="D13" t="n">
-        <v>5.94</v>
+        <v>5.929</v>
       </c>
       <c r="E13" t="n">
-        <v>5.929</v>
+        <v>5.899</v>
       </c>
       <c r="F13" t="n">
-        <v>611157.2439472351</v>
+        <v>93077.84522694997</v>
       </c>
       <c r="G13" t="n">
-        <v>5.717900000000002</v>
+        <v>5.710566666666669</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,7 +853,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5.94</v>
+        <v>5.929</v>
       </c>
       <c r="C14" t="n">
         <v>5.94</v>
@@ -862,13 +862,13 @@
         <v>5.94</v>
       </c>
       <c r="E14" t="n">
-        <v>5.94</v>
+        <v>5.929</v>
       </c>
       <c r="F14" t="n">
-        <v>148716.5695</v>
+        <v>611157.2439472351</v>
       </c>
       <c r="G14" t="n">
-        <v>5.725366666666669</v>
+        <v>5.717900000000002</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>5.94</v>
       </c>
       <c r="F15" t="n">
-        <v>193997.8317</v>
+        <v>148716.5695</v>
       </c>
       <c r="G15" t="n">
-        <v>5.732983333333335</v>
+        <v>5.725366666666669</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>5.94</v>
       </c>
       <c r="F16" t="n">
-        <v>5.133532876373e-06</v>
+        <v>193997.8317</v>
       </c>
       <c r="G16" t="n">
-        <v>5.739833333333335</v>
+        <v>5.732983333333335</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5.946</v>
+        <v>5.94</v>
       </c>
       <c r="C17" t="n">
-        <v>5.946</v>
+        <v>5.94</v>
       </c>
       <c r="D17" t="n">
-        <v>5.946</v>
+        <v>5.94</v>
       </c>
       <c r="E17" t="n">
-        <v>5.946</v>
+        <v>5.94</v>
       </c>
       <c r="F17" t="n">
-        <v>100000</v>
+        <v>5.133532876373e-06</v>
       </c>
       <c r="G17" t="n">
-        <v>5.746783333333336</v>
+        <v>5.739833333333335</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5.947</v>
+        <v>5.946</v>
       </c>
       <c r="C18" t="n">
-        <v>5.947</v>
+        <v>5.946</v>
       </c>
       <c r="D18" t="n">
-        <v>5.947</v>
+        <v>5.946</v>
       </c>
       <c r="E18" t="n">
-        <v>5.947</v>
+        <v>5.946</v>
       </c>
       <c r="F18" t="n">
-        <v>24120.8966</v>
+        <v>100000</v>
       </c>
       <c r="G18" t="n">
-        <v>5.754650000000002</v>
+        <v>5.746783333333336</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>5.947</v>
       </c>
       <c r="C19" t="n">
-        <v>5.98</v>
+        <v>5.947</v>
       </c>
       <c r="D19" t="n">
-        <v>5.98</v>
+        <v>5.947</v>
       </c>
       <c r="E19" t="n">
         <v>5.947</v>
       </c>
       <c r="F19" t="n">
-        <v>11878</v>
+        <v>24120.8966</v>
       </c>
       <c r="G19" t="n">
-        <v>5.762166666666669</v>
+        <v>5.754650000000002</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5.98</v>
+        <v>5.947</v>
       </c>
       <c r="C20" t="n">
         <v>5.98</v>
@@ -1072,13 +1072,13 @@
         <v>5.98</v>
       </c>
       <c r="E20" t="n">
-        <v>5.98</v>
+        <v>5.947</v>
       </c>
       <c r="F20" t="n">
-        <v>90733.70419999999</v>
+        <v>11878</v>
       </c>
       <c r="G20" t="n">
-        <v>5.769683333333336</v>
+        <v>5.762166666666669</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6.037</v>
+        <v>5.98</v>
       </c>
       <c r="C21" t="n">
-        <v>6.037</v>
+        <v>5.98</v>
       </c>
       <c r="D21" t="n">
-        <v>6.037</v>
+        <v>5.98</v>
       </c>
       <c r="E21" t="n">
-        <v>6.037</v>
+        <v>5.98</v>
       </c>
       <c r="F21" t="n">
-        <v>83</v>
+        <v>90733.70419999999</v>
       </c>
       <c r="G21" t="n">
-        <v>5.779050000000002</v>
+        <v>5.769683333333336</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1136,19 +1136,19 @@
         <v>6.037</v>
       </c>
       <c r="C22" t="n">
-        <v>6.043</v>
+        <v>6.037</v>
       </c>
       <c r="D22" t="n">
-        <v>6.043</v>
+        <v>6.037</v>
       </c>
       <c r="E22" t="n">
         <v>6.037</v>
       </c>
       <c r="F22" t="n">
-        <v>10542.9504</v>
+        <v>83</v>
       </c>
       <c r="G22" t="n">
-        <v>5.788566666666669</v>
+        <v>5.779050000000002</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
+        <v>6.037</v>
+      </c>
+      <c r="C23" t="n">
         <v>6.043</v>
       </c>
-      <c r="C23" t="n">
-        <v>6.251</v>
-      </c>
       <c r="D23" t="n">
-        <v>6.251</v>
+        <v>6.043</v>
       </c>
       <c r="E23" t="n">
-        <v>6.043</v>
+        <v>6.037</v>
       </c>
       <c r="F23" t="n">
-        <v>994129.2731</v>
+        <v>10542.9504</v>
       </c>
       <c r="G23" t="n">
-        <v>5.800100000000001</v>
+        <v>5.788566666666669</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
+        <v>6.043</v>
+      </c>
+      <c r="C24" t="n">
         <v>6.251</v>
       </c>
-      <c r="C24" t="n">
-        <v>6.6</v>
-      </c>
       <c r="D24" t="n">
-        <v>6.6</v>
+        <v>6.251</v>
       </c>
       <c r="E24" t="n">
-        <v>6.251</v>
+        <v>6.043</v>
       </c>
       <c r="F24" t="n">
-        <v>1983261.3161</v>
+        <v>994129.2731</v>
       </c>
       <c r="G24" t="n">
-        <v>5.818900000000002</v>
+        <v>5.800100000000001</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
+        <v>6.251</v>
+      </c>
+      <c r="C25" t="n">
         <v>6.6</v>
       </c>
-      <c r="C25" t="n">
-        <v>6.999</v>
-      </c>
       <c r="D25" t="n">
-        <v>7.051</v>
+        <v>6.6</v>
       </c>
       <c r="E25" t="n">
-        <v>6.6</v>
+        <v>6.251</v>
       </c>
       <c r="F25" t="n">
-        <v>3592434.228481663</v>
+        <v>1983261.3161</v>
       </c>
       <c r="G25" t="n">
-        <v>5.843233333333336</v>
+        <v>5.818900000000002</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>6.85</v>
+        <v>6.6</v>
       </c>
       <c r="C26" t="n">
-        <v>6.938</v>
+        <v>6.999</v>
       </c>
       <c r="D26" t="n">
-        <v>6.938</v>
+        <v>7.051</v>
       </c>
       <c r="E26" t="n">
-        <v>6.08</v>
+        <v>6.6</v>
       </c>
       <c r="F26" t="n">
-        <v>226147.2055</v>
+        <v>3592434.228481663</v>
       </c>
       <c r="G26" t="n">
-        <v>5.867250000000002</v>
+        <v>5.843233333333336</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>6.281</v>
+        <v>6.85</v>
       </c>
       <c r="C27" t="n">
-        <v>6.777</v>
+        <v>6.938</v>
       </c>
       <c r="D27" t="n">
-        <v>6.777</v>
+        <v>6.938</v>
       </c>
       <c r="E27" t="n">
-        <v>6.281</v>
+        <v>6.08</v>
       </c>
       <c r="F27" t="n">
-        <v>28114.3264</v>
+        <v>226147.2055</v>
       </c>
       <c r="G27" t="n">
-        <v>5.887383333333335</v>
+        <v>5.867250000000002</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,28 +1343,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>6.37</v>
+        <v>6.281</v>
       </c>
       <c r="C28" t="n">
-        <v>6.37</v>
+        <v>6.777</v>
       </c>
       <c r="D28" t="n">
-        <v>6.37</v>
+        <v>6.777</v>
       </c>
       <c r="E28" t="n">
-        <v>6.37</v>
+        <v>6.281</v>
       </c>
       <c r="F28" t="n">
-        <v>88</v>
+        <v>28114.3264</v>
       </c>
       <c r="G28" t="n">
-        <v>5.897716666666668</v>
+        <v>5.887383333333335</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>6.9</v>
+        <v>6.37</v>
       </c>
       <c r="C29" t="n">
-        <v>7</v>
+        <v>6.37</v>
       </c>
       <c r="D29" t="n">
-        <v>7.103</v>
+        <v>6.37</v>
       </c>
       <c r="E29" t="n">
-        <v>6.9</v>
+        <v>6.37</v>
       </c>
       <c r="F29" t="n">
-        <v>1670302.4699</v>
+        <v>88</v>
       </c>
       <c r="G29" t="n">
-        <v>5.918550000000002</v>
+        <v>5.897716666666668</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C30" t="n">
         <v>7</v>
       </c>
-      <c r="C30" t="n">
-        <v>7.099</v>
-      </c>
       <c r="D30" t="n">
-        <v>7.113</v>
+        <v>7.103</v>
       </c>
       <c r="E30" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="F30" t="n">
-        <v>211151.0984</v>
+        <v>1670302.4699</v>
       </c>
       <c r="G30" t="n">
-        <v>5.940366666666668</v>
+        <v>5.918550000000002</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1451,19 +1451,19 @@
         <v>7</v>
       </c>
       <c r="C31" t="n">
+        <v>7.099</v>
+      </c>
+      <c r="D31" t="n">
+        <v>7.113</v>
+      </c>
+      <c r="E31" t="n">
         <v>7</v>
       </c>
-      <c r="D31" t="n">
-        <v>7.01</v>
-      </c>
-      <c r="E31" t="n">
-        <v>6.97</v>
-      </c>
       <c r="F31" t="n">
-        <v>520388.9861</v>
+        <v>211151.0984</v>
       </c>
       <c r="G31" t="n">
-        <v>5.960666666666668</v>
+        <v>5.940366666666668</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>7.06</v>
+        <v>7</v>
       </c>
       <c r="C32" t="n">
-        <v>6.916</v>
+        <v>7</v>
       </c>
       <c r="D32" t="n">
-        <v>7.06</v>
+        <v>7.01</v>
       </c>
       <c r="E32" t="n">
-        <v>6.916</v>
+        <v>6.97</v>
       </c>
       <c r="F32" t="n">
-        <v>146887.8625</v>
+        <v>520388.9861</v>
       </c>
       <c r="G32" t="n">
-        <v>5.976266666666668</v>
+        <v>5.960666666666668</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>6.999</v>
+        <v>7.06</v>
       </c>
       <c r="C33" t="n">
-        <v>6.999</v>
+        <v>6.916</v>
       </c>
       <c r="D33" t="n">
-        <v>6.999</v>
+        <v>7.06</v>
       </c>
       <c r="E33" t="n">
-        <v>6.999</v>
+        <v>6.916</v>
       </c>
       <c r="F33" t="n">
-        <v>72</v>
+        <v>146887.8625</v>
       </c>
       <c r="G33" t="n">
-        <v>5.996250000000002</v>
+        <v>5.976266666666668</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>7.01</v>
+        <v>6.999</v>
       </c>
       <c r="C34" t="n">
-        <v>6.741</v>
+        <v>6.999</v>
       </c>
       <c r="D34" t="n">
-        <v>7.01</v>
+        <v>6.999</v>
       </c>
       <c r="E34" t="n">
-        <v>6.741</v>
+        <v>6.999</v>
       </c>
       <c r="F34" t="n">
-        <v>178876.2566</v>
+        <v>72</v>
       </c>
       <c r="G34" t="n">
-        <v>6.012600000000002</v>
+        <v>5.996250000000002</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>6.713</v>
+        <v>7.01</v>
       </c>
       <c r="C35" t="n">
-        <v>6.787</v>
+        <v>6.741</v>
       </c>
       <c r="D35" t="n">
-        <v>6.787</v>
+        <v>7.01</v>
       </c>
       <c r="E35" t="n">
-        <v>6.664</v>
+        <v>6.741</v>
       </c>
       <c r="F35" t="n">
-        <v>269021.8493</v>
+        <v>178876.2566</v>
       </c>
       <c r="G35" t="n">
-        <v>6.029050000000001</v>
+        <v>6.012600000000002</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>6.68</v>
+        <v>6.713</v>
       </c>
       <c r="C36" t="n">
-        <v>6.561</v>
+        <v>6.787</v>
       </c>
       <c r="D36" t="n">
-        <v>6.68</v>
+        <v>6.787</v>
       </c>
       <c r="E36" t="n">
-        <v>6.461</v>
+        <v>6.664</v>
       </c>
       <c r="F36" t="n">
-        <v>236675</v>
+        <v>269021.8493</v>
       </c>
       <c r="G36" t="n">
-        <v>6.043066666666666</v>
+        <v>6.029050000000001</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>6.565</v>
+        <v>6.68</v>
       </c>
       <c r="C37" t="n">
-        <v>6.472</v>
+        <v>6.561</v>
       </c>
       <c r="D37" t="n">
-        <v>6.565</v>
+        <v>6.68</v>
       </c>
       <c r="E37" t="n">
-        <v>6.472</v>
+        <v>6.461</v>
       </c>
       <c r="F37" t="n">
-        <v>367685.6492</v>
+        <v>236675</v>
       </c>
       <c r="G37" t="n">
-        <v>6.056266666666667</v>
+        <v>6.043066666666666</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1696,19 +1696,19 @@
         <v>6.565</v>
       </c>
       <c r="C38" t="n">
-        <v>6.565</v>
+        <v>6.472</v>
       </c>
       <c r="D38" t="n">
         <v>6.565</v>
       </c>
       <c r="E38" t="n">
-        <v>6.565</v>
+        <v>6.472</v>
       </c>
       <c r="F38" t="n">
-        <v>35781.0301</v>
+        <v>367685.6492</v>
       </c>
       <c r="G38" t="n">
-        <v>6.069183333333332</v>
+        <v>6.056266666666667</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>6.475</v>
+        <v>6.565</v>
       </c>
       <c r="C39" t="n">
-        <v>6.475</v>
+        <v>6.565</v>
       </c>
       <c r="D39" t="n">
-        <v>6.48</v>
+        <v>6.565</v>
       </c>
       <c r="E39" t="n">
-        <v>6.461</v>
+        <v>6.565</v>
       </c>
       <c r="F39" t="n">
-        <v>205182.036</v>
+        <v>35781.0301</v>
       </c>
       <c r="G39" t="n">
-        <v>6.0821</v>
+        <v>6.069183333333332</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>6.41</v>
+        <v>6.475</v>
       </c>
       <c r="C40" t="n">
-        <v>6.324</v>
+        <v>6.475</v>
       </c>
       <c r="D40" t="n">
-        <v>6.41</v>
+        <v>6.48</v>
       </c>
       <c r="E40" t="n">
-        <v>6.324</v>
+        <v>6.461</v>
       </c>
       <c r="F40" t="n">
-        <v>197555.7679</v>
+        <v>205182.036</v>
       </c>
       <c r="G40" t="n">
-        <v>6.092666666666667</v>
+        <v>6.0821</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>6.308</v>
+        <v>6.41</v>
       </c>
       <c r="C41" t="n">
-        <v>6.5</v>
+        <v>6.324</v>
       </c>
       <c r="D41" t="n">
-        <v>6.5</v>
+        <v>6.41</v>
       </c>
       <c r="E41" t="n">
-        <v>6.258</v>
+        <v>6.324</v>
       </c>
       <c r="F41" t="n">
-        <v>38633.2177</v>
+        <v>197555.7679</v>
       </c>
       <c r="G41" t="n">
-        <v>6.106333333333334</v>
+        <v>6.092666666666667</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>6.5</v>
+        <v>6.308</v>
       </c>
       <c r="C42" t="n">
         <v>6.5</v>
@@ -1842,13 +1842,13 @@
         <v>6.5</v>
       </c>
       <c r="E42" t="n">
-        <v>6.5</v>
+        <v>6.258</v>
       </c>
       <c r="F42" t="n">
-        <v>312281.9704</v>
+        <v>38633.2177</v>
       </c>
       <c r="G42" t="n">
-        <v>6.1185</v>
+        <v>6.106333333333334</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,7 +1868,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>6.314</v>
+        <v>6.5</v>
       </c>
       <c r="C43" t="n">
         <v>6.5</v>
@@ -1877,13 +1877,13 @@
         <v>6.5</v>
       </c>
       <c r="E43" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="F43" t="n">
-        <v>630431.3940139846</v>
+        <v>312281.9704</v>
       </c>
       <c r="G43" t="n">
-        <v>6.132933333333333</v>
+        <v>6.1185</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>6.485</v>
+        <v>6.314</v>
       </c>
       <c r="C44" t="n">
-        <v>6.529</v>
+        <v>6.5</v>
       </c>
       <c r="D44" t="n">
-        <v>6.529</v>
+        <v>6.5</v>
       </c>
       <c r="E44" t="n">
-        <v>6.485</v>
+        <v>6.3</v>
       </c>
       <c r="F44" t="n">
-        <v>180408.5341350734</v>
+        <v>630431.3940139846</v>
       </c>
       <c r="G44" t="n">
-        <v>6.146933333333333</v>
+        <v>6.132933333333333</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>6.366</v>
+        <v>6.485</v>
       </c>
       <c r="C45" t="n">
-        <v>6.366</v>
+        <v>6.529</v>
       </c>
       <c r="D45" t="n">
-        <v>6.366</v>
+        <v>6.529</v>
       </c>
       <c r="E45" t="n">
-        <v>6.366</v>
+        <v>6.485</v>
       </c>
       <c r="F45" t="n">
-        <v>180</v>
+        <v>180408.5341350734</v>
       </c>
       <c r="G45" t="n">
-        <v>6.15755</v>
+        <v>6.146933333333333</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>6.377</v>
+        <v>6.366</v>
       </c>
       <c r="C46" t="n">
-        <v>6.377</v>
+        <v>6.366</v>
       </c>
       <c r="D46" t="n">
-        <v>6.377</v>
+        <v>6.366</v>
       </c>
       <c r="E46" t="n">
-        <v>6.377</v>
+        <v>6.366</v>
       </c>
       <c r="F46" t="n">
-        <v>11362.496</v>
+        <v>180</v>
       </c>
       <c r="G46" t="n">
-        <v>6.1705</v>
+        <v>6.15755</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>6.381</v>
+        <v>6.377</v>
       </c>
       <c r="C47" t="n">
-        <v>6.381</v>
+        <v>6.377</v>
       </c>
       <c r="D47" t="n">
-        <v>6.381</v>
+        <v>6.377</v>
       </c>
       <c r="E47" t="n">
-        <v>6.381</v>
+        <v>6.377</v>
       </c>
       <c r="F47" t="n">
-        <v>30716.188</v>
+        <v>11362.496</v>
       </c>
       <c r="G47" t="n">
-        <v>6.181366666666666</v>
+        <v>6.1705</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>6.495</v>
+        <v>6.381</v>
       </c>
       <c r="C48" t="n">
-        <v>6.495</v>
+        <v>6.381</v>
       </c>
       <c r="D48" t="n">
-        <v>6.495</v>
+        <v>6.381</v>
       </c>
       <c r="E48" t="n">
-        <v>6.495</v>
+        <v>6.381</v>
       </c>
       <c r="F48" t="n">
-        <v>100</v>
+        <v>30716.188</v>
       </c>
       <c r="G48" t="n">
-        <v>6.194133333333334</v>
+        <v>6.181366666666666</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>6.378</v>
+        <v>6.495</v>
       </c>
       <c r="C49" t="n">
-        <v>6.342</v>
+        <v>6.495</v>
       </c>
       <c r="D49" t="n">
-        <v>6.378</v>
+        <v>6.495</v>
       </c>
       <c r="E49" t="n">
-        <v>6.342</v>
+        <v>6.495</v>
       </c>
       <c r="F49" t="n">
-        <v>171277.5409</v>
+        <v>100</v>
       </c>
       <c r="G49" t="n">
-        <v>6.204366666666667</v>
+        <v>6.194133333333334</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>6.275</v>
+        <v>6.378</v>
       </c>
       <c r="C50" t="n">
-        <v>6.275</v>
+        <v>6.342</v>
       </c>
       <c r="D50" t="n">
-        <v>6.275</v>
+        <v>6.378</v>
       </c>
       <c r="E50" t="n">
-        <v>6.275</v>
+        <v>6.342</v>
       </c>
       <c r="F50" t="n">
-        <v>275.3209</v>
+        <v>171277.5409</v>
       </c>
       <c r="G50" t="n">
-        <v>6.21335</v>
+        <v>6.204366666666667</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2151,19 +2151,19 @@
         <v>6.275</v>
       </c>
       <c r="C51" t="n">
-        <v>6.334</v>
+        <v>6.275</v>
       </c>
       <c r="D51" t="n">
-        <v>6.334</v>
+        <v>6.275</v>
       </c>
       <c r="E51" t="n">
-        <v>6.265</v>
+        <v>6.275</v>
       </c>
       <c r="F51" t="n">
-        <v>99046.3265</v>
+        <v>275.3209</v>
       </c>
       <c r="G51" t="n">
-        <v>6.223316666666666</v>
+        <v>6.21335</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>6.335</v>
+        <v>6.275</v>
       </c>
       <c r="C52" t="n">
-        <v>6.267</v>
+        <v>6.334</v>
       </c>
       <c r="D52" t="n">
-        <v>6.335</v>
+        <v>6.334</v>
       </c>
       <c r="E52" t="n">
-        <v>6.267</v>
+        <v>6.265</v>
       </c>
       <c r="F52" t="n">
-        <v>67062.9232</v>
+        <v>99046.3265</v>
       </c>
       <c r="G52" t="n">
-        <v>6.231266666666667</v>
+        <v>6.223316666666666</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>6.264</v>
+        <v>6.335</v>
       </c>
       <c r="C53" t="n">
-        <v>6.264</v>
+        <v>6.267</v>
       </c>
       <c r="D53" t="n">
-        <v>6.264</v>
+        <v>6.335</v>
       </c>
       <c r="E53" t="n">
-        <v>6.264</v>
+        <v>6.267</v>
       </c>
       <c r="F53" t="n">
-        <v>3472.2327</v>
+        <v>67062.9232</v>
       </c>
       <c r="G53" t="n">
-        <v>6.237666666666667</v>
+        <v>6.231266666666667</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2256,19 +2256,19 @@
         <v>6.264</v>
       </c>
       <c r="C54" t="n">
-        <v>6.1</v>
+        <v>6.264</v>
       </c>
       <c r="D54" t="n">
         <v>6.264</v>
       </c>
       <c r="E54" t="n">
-        <v>6.1</v>
+        <v>6.264</v>
       </c>
       <c r="F54" t="n">
-        <v>700000</v>
+        <v>3472.2327</v>
       </c>
       <c r="G54" t="n">
-        <v>6.240216666666667</v>
+        <v>6.237666666666667</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>6.11</v>
+        <v>6.264</v>
       </c>
       <c r="C55" t="n">
-        <v>6.325</v>
+        <v>6.1</v>
       </c>
       <c r="D55" t="n">
-        <v>6.325</v>
+        <v>6.264</v>
       </c>
       <c r="E55" t="n">
-        <v>5.935</v>
+        <v>6.1</v>
       </c>
       <c r="F55" t="n">
-        <v>800080</v>
+        <v>700000</v>
       </c>
       <c r="G55" t="n">
-        <v>6.246533333333333</v>
+        <v>6.240216666666667</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>5.936</v>
+        <v>6.11</v>
       </c>
       <c r="C56" t="n">
-        <v>5.936</v>
+        <v>6.325</v>
       </c>
       <c r="D56" t="n">
-        <v>5.936</v>
+        <v>6.325</v>
       </c>
       <c r="E56" t="n">
-        <v>5.936</v>
+        <v>5.935</v>
       </c>
       <c r="F56" t="n">
-        <v>20000</v>
+        <v>800080</v>
       </c>
       <c r="G56" t="n">
-        <v>6.246349999999999</v>
+        <v>6.246533333333333</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>5.949</v>
+        <v>5.936</v>
       </c>
       <c r="C57" t="n">
-        <v>5.949</v>
+        <v>5.936</v>
       </c>
       <c r="D57" t="n">
-        <v>5.949</v>
+        <v>5.936</v>
       </c>
       <c r="E57" t="n">
-        <v>5.949</v>
+        <v>5.936</v>
       </c>
       <c r="F57" t="n">
-        <v>18571.0025</v>
+        <v>20000</v>
       </c>
       <c r="G57" t="n">
-        <v>6.247583333333333</v>
+        <v>6.246349999999999</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2396,28 +2396,32 @@
         <v>5.949</v>
       </c>
       <c r="C58" t="n">
-        <v>5.935</v>
+        <v>5.949</v>
       </c>
       <c r="D58" t="n">
         <v>5.949</v>
       </c>
       <c r="E58" t="n">
-        <v>5.935</v>
+        <v>5.949</v>
       </c>
       <c r="F58" t="n">
-        <v>170852.5421</v>
+        <v>18571.0025</v>
       </c>
       <c r="G58" t="n">
-        <v>6.248583333333332</v>
+        <v>6.247583333333333</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>5.936</v>
+      </c>
+      <c r="K58" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
@@ -2428,32 +2432,40 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
+        <v>5.949</v>
+      </c>
+      <c r="C59" t="n">
         <v>5.935</v>
       </c>
-      <c r="C59" t="n">
-        <v>5.868</v>
-      </c>
       <c r="D59" t="n">
+        <v>5.949</v>
+      </c>
+      <c r="E59" t="n">
         <v>5.935</v>
       </c>
-      <c r="E59" t="n">
-        <v>5.868</v>
-      </c>
       <c r="F59" t="n">
-        <v>49488.3008</v>
+        <v>170852.5421</v>
       </c>
       <c r="G59" t="n">
-        <v>6.248499999999999</v>
+        <v>6.248583333333332</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>5.949</v>
+      </c>
+      <c r="K59" t="n">
+        <v>5.936</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2463,32 +2475,40 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
+        <v>5.935</v>
+      </c>
+      <c r="C60" t="n">
         <v>5.868</v>
       </c>
-      <c r="C60" t="n">
-        <v>5.822</v>
-      </c>
       <c r="D60" t="n">
-        <v>5.958</v>
+        <v>5.935</v>
       </c>
       <c r="E60" t="n">
-        <v>5.822</v>
+        <v>5.868</v>
       </c>
       <c r="F60" t="n">
-        <v>9336.788200000001</v>
+        <v>49488.3008</v>
       </c>
       <c r="G60" t="n">
-        <v>6.247616666666667</v>
+        <v>6.248499999999999</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>5.935</v>
+      </c>
+      <c r="K60" t="n">
+        <v>5.936</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2498,22 +2518,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>5.958</v>
+        <v>5.868</v>
       </c>
       <c r="C61" t="n">
-        <v>5.958</v>
+        <v>5.822</v>
       </c>
       <c r="D61" t="n">
         <v>5.958</v>
       </c>
       <c r="E61" t="n">
-        <v>5.958</v>
+        <v>5.822</v>
       </c>
       <c r="F61" t="n">
-        <v>88</v>
+        <v>9336.788200000001</v>
       </c>
       <c r="G61" t="n">
-        <v>6.250166666666667</v>
+        <v>6.247616666666667</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2522,8 +2542,14 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>5.936</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2533,32 +2559,40 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>5.887</v>
+        <v>5.958</v>
       </c>
       <c r="C62" t="n">
-        <v>5.89</v>
+        <v>5.958</v>
       </c>
       <c r="D62" t="n">
-        <v>5.89</v>
+        <v>5.958</v>
       </c>
       <c r="E62" t="n">
-        <v>5.887</v>
+        <v>5.958</v>
       </c>
       <c r="F62" t="n">
-        <v>73841.2041</v>
+        <v>88</v>
       </c>
       <c r="G62" t="n">
-        <v>6.251583333333333</v>
+        <v>6.250166666666667</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>5.822</v>
+      </c>
+      <c r="K62" t="n">
+        <v>5.936</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2568,22 +2602,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>5.958</v>
+        <v>5.887</v>
       </c>
       <c r="C63" t="n">
-        <v>5.958</v>
+        <v>5.89</v>
       </c>
       <c r="D63" t="n">
-        <v>5.958</v>
+        <v>5.89</v>
       </c>
       <c r="E63" t="n">
-        <v>5.958</v>
+        <v>5.887</v>
       </c>
       <c r="F63" t="n">
-        <v>100000</v>
+        <v>73841.2041</v>
       </c>
       <c r="G63" t="n">
-        <v>6.254716666666667</v>
+        <v>6.251583333333333</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2592,8 +2626,14 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>5.936</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2603,22 +2643,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>5.971</v>
+        <v>5.958</v>
       </c>
       <c r="C64" t="n">
-        <v>5.971</v>
+        <v>5.958</v>
       </c>
       <c r="D64" t="n">
-        <v>5.971</v>
+        <v>5.958</v>
       </c>
       <c r="E64" t="n">
-        <v>5.971</v>
+        <v>5.958</v>
       </c>
       <c r="F64" t="n">
-        <v>10675.2509</v>
+        <v>100000</v>
       </c>
       <c r="G64" t="n">
-        <v>6.259233333333333</v>
+        <v>6.254716666666667</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2627,8 +2667,14 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>5.936</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2638,22 +2684,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>5.95</v>
+        <v>5.971</v>
       </c>
       <c r="C65" t="n">
-        <v>5.91</v>
+        <v>5.971</v>
       </c>
       <c r="D65" t="n">
-        <v>5.95</v>
+        <v>5.971</v>
       </c>
       <c r="E65" t="n">
-        <v>5.91</v>
+        <v>5.971</v>
       </c>
       <c r="F65" t="n">
-        <v>282634.9813</v>
+        <v>10675.2509</v>
       </c>
       <c r="G65" t="n">
-        <v>6.264166666666668</v>
+        <v>6.259233333333333</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2662,8 +2708,14 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>5.936</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2673,22 +2725,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>5.91</v>
+        <v>5.95</v>
       </c>
       <c r="C66" t="n">
         <v>5.91</v>
       </c>
       <c r="D66" t="n">
-        <v>5.91</v>
+        <v>5.95</v>
       </c>
       <c r="E66" t="n">
         <v>5.91</v>
       </c>
       <c r="F66" t="n">
-        <v>17905.0496</v>
+        <v>282634.9813</v>
       </c>
       <c r="G66" t="n">
-        <v>6.268050000000001</v>
+        <v>6.264166666666668</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2697,8 +2749,14 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>5.936</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2708,22 +2766,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>5.901</v>
+        <v>5.91</v>
       </c>
       <c r="C67" t="n">
-        <v>5.822</v>
+        <v>5.91</v>
       </c>
       <c r="D67" t="n">
-        <v>5.901</v>
+        <v>5.91</v>
       </c>
       <c r="E67" t="n">
-        <v>5.822</v>
+        <v>5.91</v>
       </c>
       <c r="F67" t="n">
-        <v>453704.6145</v>
+        <v>17905.0496</v>
       </c>
       <c r="G67" t="n">
-        <v>6.269583333333334</v>
+        <v>6.268050000000001</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2732,8 +2790,14 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>5.936</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2743,22 +2807,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
+        <v>5.901</v>
+      </c>
+      <c r="C68" t="n">
         <v>5.822</v>
       </c>
-      <c r="C68" t="n">
-        <v>5.77</v>
-      </c>
       <c r="D68" t="n">
+        <v>5.901</v>
+      </c>
+      <c r="E68" t="n">
         <v>5.822</v>
       </c>
-      <c r="E68" t="n">
-        <v>5.77</v>
-      </c>
       <c r="F68" t="n">
-        <v>104671.5793</v>
+        <v>453704.6145</v>
       </c>
       <c r="G68" t="n">
-        <v>6.270083333333334</v>
+        <v>6.269583333333334</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2767,8 +2831,14 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>5.936</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2778,22 +2848,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
+        <v>5.822</v>
+      </c>
+      <c r="C69" t="n">
         <v>5.77</v>
       </c>
-      <c r="C69" t="n">
-        <v>5.73</v>
-      </c>
       <c r="D69" t="n">
+        <v>5.822</v>
+      </c>
+      <c r="E69" t="n">
         <v>5.77</v>
       </c>
-      <c r="E69" t="n">
-        <v>5.73</v>
-      </c>
       <c r="F69" t="n">
-        <v>238745.6546</v>
+        <v>104671.5793</v>
       </c>
       <c r="G69" t="n">
-        <v>6.269650000000001</v>
+        <v>6.270083333333334</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2802,8 +2872,14 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>5.936</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2813,22 +2889,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>5.722</v>
+        <v>5.77</v>
       </c>
       <c r="C70" t="n">
-        <v>5.722</v>
+        <v>5.73</v>
       </c>
       <c r="D70" t="n">
-        <v>5.722</v>
+        <v>5.77</v>
       </c>
       <c r="E70" t="n">
-        <v>5.722</v>
+        <v>5.73</v>
       </c>
       <c r="F70" t="n">
-        <v>43321.3506</v>
+        <v>238745.6546</v>
       </c>
       <c r="G70" t="n">
-        <v>6.268350000000001</v>
+        <v>6.269650000000001</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2837,8 +2913,14 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>5.936</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2848,22 +2930,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>5.849</v>
+        <v>5.722</v>
       </c>
       <c r="C71" t="n">
-        <v>5.849</v>
+        <v>5.722</v>
       </c>
       <c r="D71" t="n">
-        <v>5.849</v>
+        <v>5.722</v>
       </c>
       <c r="E71" t="n">
-        <v>5.849</v>
+        <v>5.722</v>
       </c>
       <c r="F71" t="n">
-        <v>32599.563</v>
+        <v>43321.3506</v>
       </c>
       <c r="G71" t="n">
-        <v>6.267516666666667</v>
+        <v>6.268350000000001</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2872,8 +2954,14 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>5.936</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2883,36 +2971,36 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>5.765</v>
+        <v>5.849</v>
       </c>
       <c r="C72" t="n">
-        <v>5.761</v>
+        <v>5.849</v>
       </c>
       <c r="D72" t="n">
-        <v>5.765</v>
+        <v>5.849</v>
       </c>
       <c r="E72" t="n">
-        <v>5.761</v>
+        <v>5.849</v>
       </c>
       <c r="F72" t="n">
-        <v>136941.9883</v>
+        <v>32599.563</v>
       </c>
       <c r="G72" t="n">
-        <v>6.264716666666668</v>
+        <v>6.267516666666667</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>5.849</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M72" t="n">
@@ -2924,33 +3012,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>5.879</v>
+        <v>5.765</v>
       </c>
       <c r="C73" t="n">
-        <v>5.879</v>
+        <v>5.761</v>
       </c>
       <c r="D73" t="n">
-        <v>5.879</v>
+        <v>5.765</v>
       </c>
       <c r="E73" t="n">
-        <v>5.879</v>
+        <v>5.761</v>
       </c>
       <c r="F73" t="n">
-        <v>134389.1258</v>
+        <v>136941.9883</v>
       </c>
       <c r="G73" t="n">
-        <v>6.263700000000002</v>
+        <v>6.264716666666668</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>5.761</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2977,10 +3065,10 @@
         <v>5.879</v>
       </c>
       <c r="F74" t="n">
-        <v>18478.2015</v>
+        <v>134389.1258</v>
       </c>
       <c r="G74" t="n">
-        <v>6.262683333333336</v>
+        <v>6.263700000000002</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2989,7 +3077,9 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3004,22 +3094,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>5.878</v>
+        <v>5.879</v>
       </c>
       <c r="C75" t="n">
-        <v>5.78</v>
+        <v>5.879</v>
       </c>
       <c r="D75" t="n">
-        <v>5.878</v>
+        <v>5.879</v>
       </c>
       <c r="E75" t="n">
-        <v>5.78</v>
+        <v>5.879</v>
       </c>
       <c r="F75" t="n">
-        <v>90914.182</v>
+        <v>18478.2015</v>
       </c>
       <c r="G75" t="n">
-        <v>6.260016666666669</v>
+        <v>6.262683333333336</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3028,7 +3118,9 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3043,22 +3135,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>5.789</v>
+        <v>5.878</v>
       </c>
       <c r="C76" t="n">
-        <v>5.789</v>
+        <v>5.78</v>
       </c>
       <c r="D76" t="n">
-        <v>5.789</v>
+        <v>5.878</v>
       </c>
       <c r="E76" t="n">
-        <v>5.789</v>
+        <v>5.78</v>
       </c>
       <c r="F76" t="n">
-        <v>5962.8542</v>
+        <v>90914.182</v>
       </c>
       <c r="G76" t="n">
-        <v>6.257500000000002</v>
+        <v>6.260016666666669</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3067,7 +3159,9 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3082,31 +3176,35 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>5.802</v>
+        <v>5.789</v>
       </c>
       <c r="C77" t="n">
-        <v>5.802</v>
+        <v>5.789</v>
       </c>
       <c r="D77" t="n">
-        <v>5.802</v>
+        <v>5.789</v>
       </c>
       <c r="E77" t="n">
-        <v>5.802</v>
+        <v>5.789</v>
       </c>
       <c r="F77" t="n">
-        <v>456.2226</v>
+        <v>5962.8542</v>
       </c>
       <c r="G77" t="n">
-        <v>6.255100000000001</v>
+        <v>6.257500000000002</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="K77" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3121,22 +3219,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>5.899</v>
+        <v>5.802</v>
       </c>
       <c r="C78" t="n">
-        <v>5.97</v>
+        <v>5.802</v>
       </c>
       <c r="D78" t="n">
-        <v>5.97</v>
+        <v>5.802</v>
       </c>
       <c r="E78" t="n">
-        <v>5.899</v>
+        <v>5.802</v>
       </c>
       <c r="F78" t="n">
-        <v>13317.2655</v>
+        <v>456.2226</v>
       </c>
       <c r="G78" t="n">
-        <v>6.255483333333335</v>
+        <v>6.255100000000001</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3145,7 +3243,9 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3160,7 +3260,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>5.97</v>
+        <v>5.899</v>
       </c>
       <c r="C79" t="n">
         <v>5.97</v>
@@ -3169,13 +3269,13 @@
         <v>5.97</v>
       </c>
       <c r="E79" t="n">
-        <v>5.97</v>
+        <v>5.899</v>
       </c>
       <c r="F79" t="n">
-        <v>8547.799999999999</v>
+        <v>13317.2655</v>
       </c>
       <c r="G79" t="n">
-        <v>6.255316666666669</v>
+        <v>6.255483333333335</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3184,7 +3284,9 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3199,22 +3301,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>5.922</v>
+        <v>5.97</v>
       </c>
       <c r="C80" t="n">
-        <v>5.922</v>
+        <v>5.97</v>
       </c>
       <c r="D80" t="n">
-        <v>5.99</v>
+        <v>5.97</v>
       </c>
       <c r="E80" t="n">
-        <v>5.922</v>
+        <v>5.97</v>
       </c>
       <c r="F80" t="n">
-        <v>2982.4013</v>
+        <v>8547.799999999999</v>
       </c>
       <c r="G80" t="n">
-        <v>6.254350000000002</v>
+        <v>6.255316666666669</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3223,7 +3325,9 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3241,7 +3345,7 @@
         <v>5.922</v>
       </c>
       <c r="C81" t="n">
-        <v>5.99</v>
+        <v>5.922</v>
       </c>
       <c r="D81" t="n">
         <v>5.99</v>
@@ -3250,10 +3354,10 @@
         <v>5.922</v>
       </c>
       <c r="F81" t="n">
-        <v>68718.35400000001</v>
+        <v>2982.4013</v>
       </c>
       <c r="G81" t="n">
-        <v>6.25356666666667</v>
+        <v>6.254350000000002</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3262,7 +3366,9 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3277,22 +3383,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>6.008</v>
+        <v>5.922</v>
       </c>
       <c r="C82" t="n">
-        <v>6.008</v>
+        <v>5.99</v>
       </c>
       <c r="D82" t="n">
-        <v>6.008</v>
+        <v>5.99</v>
       </c>
       <c r="E82" t="n">
-        <v>6.008</v>
+        <v>5.922</v>
       </c>
       <c r="F82" t="n">
-        <v>29211.45</v>
+        <v>68718.35400000001</v>
       </c>
       <c r="G82" t="n">
-        <v>6.252983333333336</v>
+        <v>6.25356666666667</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3301,7 +3407,9 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3316,22 +3424,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>6.009</v>
+        <v>6.008</v>
       </c>
       <c r="C83" t="n">
-        <v>6.009</v>
+        <v>6.008</v>
       </c>
       <c r="D83" t="n">
-        <v>6.009</v>
+        <v>6.008</v>
       </c>
       <c r="E83" t="n">
-        <v>6.009</v>
+        <v>6.008</v>
       </c>
       <c r="F83" t="n">
-        <v>3328.527</v>
+        <v>29211.45</v>
       </c>
       <c r="G83" t="n">
-        <v>6.248950000000003</v>
+        <v>6.252983333333336</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3340,7 +3448,9 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3355,22 +3465,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>6.01</v>
+        <v>6.009</v>
       </c>
       <c r="C84" t="n">
-        <v>6.01</v>
+        <v>6.009</v>
       </c>
       <c r="D84" t="n">
-        <v>6.01</v>
+        <v>6.009</v>
       </c>
       <c r="E84" t="n">
-        <v>6.01</v>
+        <v>6.009</v>
       </c>
       <c r="F84" t="n">
-        <v>70243.2399</v>
+        <v>3328.527</v>
       </c>
       <c r="G84" t="n">
-        <v>6.23911666666667</v>
+        <v>6.248950000000003</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3379,7 +3489,9 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3394,22 +3506,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>6.016</v>
+        <v>6.01</v>
       </c>
       <c r="C85" t="n">
-        <v>6.016</v>
+        <v>6.01</v>
       </c>
       <c r="D85" t="n">
-        <v>6.016</v>
+        <v>6.01</v>
       </c>
       <c r="E85" t="n">
-        <v>6.016</v>
+        <v>6.01</v>
       </c>
       <c r="F85" t="n">
-        <v>1764.9045</v>
+        <v>70243.2399</v>
       </c>
       <c r="G85" t="n">
-        <v>6.222733333333336</v>
+        <v>6.23911666666667</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3418,7 +3530,9 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3433,22 +3547,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>6.007</v>
+        <v>6.016</v>
       </c>
       <c r="C86" t="n">
-        <v>6</v>
+        <v>6.016</v>
       </c>
       <c r="D86" t="n">
-        <v>6.007</v>
+        <v>6.016</v>
       </c>
       <c r="E86" t="n">
-        <v>6</v>
+        <v>6.016</v>
       </c>
       <c r="F86" t="n">
-        <v>22286.7153</v>
+        <v>1764.9045</v>
       </c>
       <c r="G86" t="n">
-        <v>6.207100000000002</v>
+        <v>6.222733333333336</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3457,7 +3571,9 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3472,22 +3588,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>5.947</v>
+        <v>6.007</v>
       </c>
       <c r="C87" t="n">
-        <v>6.016</v>
+        <v>6</v>
       </c>
       <c r="D87" t="n">
-        <v>6.016</v>
+        <v>6.007</v>
       </c>
       <c r="E87" t="n">
-        <v>5.947</v>
+        <v>6</v>
       </c>
       <c r="F87" t="n">
-        <v>169.0319</v>
+        <v>22286.7153</v>
       </c>
       <c r="G87" t="n">
-        <v>6.19441666666667</v>
+        <v>6.207100000000002</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3496,7 +3612,9 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3514,19 +3632,19 @@
         <v>5.947</v>
       </c>
       <c r="C88" t="n">
-        <v>5.921</v>
+        <v>6.016</v>
       </c>
       <c r="D88" t="n">
+        <v>6.016</v>
+      </c>
+      <c r="E88" t="n">
         <v>5.947</v>
       </c>
-      <c r="E88" t="n">
-        <v>5.921</v>
-      </c>
       <c r="F88" t="n">
-        <v>74669.26300000001</v>
+        <v>169.0319</v>
       </c>
       <c r="G88" t="n">
-        <v>6.186933333333337</v>
+        <v>6.19441666666667</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3535,7 +3653,9 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3550,22 +3670,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>5.921</v>
+        <v>5.947</v>
       </c>
       <c r="C89" t="n">
         <v>5.921</v>
       </c>
       <c r="D89" t="n">
-        <v>5.921</v>
+        <v>5.947</v>
       </c>
       <c r="E89" t="n">
         <v>5.921</v>
       </c>
       <c r="F89" t="n">
-        <v>51957.9365</v>
+        <v>74669.26300000001</v>
       </c>
       <c r="G89" t="n">
-        <v>6.168950000000003</v>
+        <v>6.186933333333337</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3574,7 +3694,9 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3589,22 +3711,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>5.9</v>
+        <v>5.921</v>
       </c>
       <c r="C90" t="n">
-        <v>6.4</v>
+        <v>5.921</v>
       </c>
       <c r="D90" t="n">
-        <v>6.4</v>
+        <v>5.921</v>
       </c>
       <c r="E90" t="n">
-        <v>5.9</v>
+        <v>5.921</v>
       </c>
       <c r="F90" t="n">
-        <v>553382.8219450156</v>
+        <v>51957.9365</v>
       </c>
       <c r="G90" t="n">
-        <v>6.157300000000003</v>
+        <v>6.168950000000003</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3613,7 +3735,9 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3628,22 +3752,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>6.234</v>
+        <v>5.9</v>
       </c>
       <c r="C91" t="n">
-        <v>6.234</v>
+        <v>6.4</v>
       </c>
       <c r="D91" t="n">
-        <v>6.234</v>
+        <v>6.4</v>
       </c>
       <c r="E91" t="n">
-        <v>6.234</v>
+        <v>5.9</v>
       </c>
       <c r="F91" t="n">
-        <v>3529.034327879371</v>
+        <v>553382.8219450156</v>
       </c>
       <c r="G91" t="n">
-        <v>6.144533333333336</v>
+        <v>6.157300000000003</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3652,7 +3776,9 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3667,22 +3793,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>6.04</v>
+        <v>6.234</v>
       </c>
       <c r="C92" t="n">
-        <v>6.1</v>
+        <v>6.234</v>
       </c>
       <c r="D92" t="n">
-        <v>6.1</v>
+        <v>6.234</v>
       </c>
       <c r="E92" t="n">
-        <v>6.04</v>
+        <v>6.234</v>
       </c>
       <c r="F92" t="n">
-        <v>164090.9878</v>
+        <v>3529.034327879371</v>
       </c>
       <c r="G92" t="n">
-        <v>6.130933333333336</v>
+        <v>6.144533333333336</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3691,7 +3817,9 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3706,22 +3834,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>6.1</v>
+        <v>6.04</v>
       </c>
       <c r="C93" t="n">
         <v>6.1</v>
       </c>
       <c r="D93" t="n">
-        <v>6.11</v>
+        <v>6.1</v>
       </c>
       <c r="E93" t="n">
-        <v>6.1</v>
+        <v>6.04</v>
       </c>
       <c r="F93" t="n">
-        <v>11607.30303502455</v>
+        <v>164090.9878</v>
       </c>
       <c r="G93" t="n">
-        <v>6.115950000000002</v>
+        <v>6.130933333333336</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3730,7 +3858,9 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3745,22 +3875,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>6.031</v>
+        <v>6.1</v>
       </c>
       <c r="C94" t="n">
-        <v>6.03</v>
+        <v>6.1</v>
       </c>
       <c r="D94" t="n">
-        <v>6.031</v>
+        <v>6.11</v>
       </c>
       <c r="E94" t="n">
-        <v>6.03</v>
+        <v>6.1</v>
       </c>
       <c r="F94" t="n">
-        <v>36521.4226</v>
+        <v>11607.30303502455</v>
       </c>
       <c r="G94" t="n">
-        <v>6.104100000000003</v>
+        <v>6.115950000000002</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3769,7 +3899,9 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3784,22 +3916,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>6.013</v>
+        <v>6.031</v>
       </c>
       <c r="C95" t="n">
-        <v>6.013</v>
+        <v>6.03</v>
       </c>
       <c r="D95" t="n">
-        <v>6.013</v>
+        <v>6.031</v>
       </c>
       <c r="E95" t="n">
-        <v>6.013</v>
+        <v>6.03</v>
       </c>
       <c r="F95" t="n">
-        <v>5576.7151</v>
+        <v>36521.4226</v>
       </c>
       <c r="G95" t="n">
-        <v>6.091200000000002</v>
+        <v>6.104100000000003</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3808,7 +3940,9 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3823,22 +3957,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>5.964</v>
+        <v>6.013</v>
       </c>
       <c r="C96" t="n">
-        <v>5.901</v>
+        <v>6.013</v>
       </c>
       <c r="D96" t="n">
-        <v>5.964</v>
+        <v>6.013</v>
       </c>
       <c r="E96" t="n">
-        <v>5.901</v>
+        <v>6.013</v>
       </c>
       <c r="F96" t="n">
-        <v>111728.5831</v>
+        <v>5576.7151</v>
       </c>
       <c r="G96" t="n">
-        <v>6.080200000000003</v>
+        <v>6.091200000000002</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3847,7 +3981,9 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3862,22 +3998,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>5.922</v>
+        <v>5.964</v>
       </c>
       <c r="C97" t="n">
-        <v>5.922</v>
+        <v>5.901</v>
       </c>
       <c r="D97" t="n">
-        <v>5.922</v>
+        <v>5.964</v>
       </c>
       <c r="E97" t="n">
-        <v>5.922</v>
+        <v>5.901</v>
       </c>
       <c r="F97" t="n">
-        <v>864.3609</v>
+        <v>111728.5831</v>
       </c>
       <c r="G97" t="n">
-        <v>6.071033333333337</v>
+        <v>6.080200000000003</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3886,7 +4022,9 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3913,10 +4051,10 @@
         <v>5.922</v>
       </c>
       <c r="F98" t="n">
-        <v>11607.303</v>
+        <v>864.3609</v>
       </c>
       <c r="G98" t="n">
-        <v>6.060316666666671</v>
+        <v>6.071033333333337</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3925,7 +4063,9 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3940,22 +4080,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>5.933</v>
+        <v>5.922</v>
       </c>
       <c r="C99" t="n">
-        <v>5.923</v>
+        <v>5.922</v>
       </c>
       <c r="D99" t="n">
-        <v>5.933</v>
+        <v>5.922</v>
       </c>
       <c r="E99" t="n">
-        <v>5.923</v>
+        <v>5.922</v>
       </c>
       <c r="F99" t="n">
-        <v>9771.2701</v>
+        <v>11607.303</v>
       </c>
       <c r="G99" t="n">
-        <v>6.051116666666671</v>
+        <v>6.060316666666671</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3964,7 +4104,9 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3979,22 +4121,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>5.901</v>
+        <v>5.933</v>
       </c>
       <c r="C100" t="n">
-        <v>5.9</v>
+        <v>5.923</v>
       </c>
       <c r="D100" t="n">
-        <v>5.901</v>
+        <v>5.933</v>
       </c>
       <c r="E100" t="n">
-        <v>5.9</v>
+        <v>5.923</v>
       </c>
       <c r="F100" t="n">
-        <v>70701.7099</v>
+        <v>9771.2701</v>
       </c>
       <c r="G100" t="n">
-        <v>6.044050000000003</v>
+        <v>6.051116666666671</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4003,7 +4145,9 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4018,22 +4162,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>5.909</v>
+        <v>5.901</v>
       </c>
       <c r="C101" t="n">
-        <v>5.922</v>
+        <v>5.9</v>
       </c>
       <c r="D101" t="n">
-        <v>5.922</v>
+        <v>5.901</v>
       </c>
       <c r="E101" t="n">
-        <v>5.909</v>
+        <v>5.9</v>
       </c>
       <c r="F101" t="n">
-        <v>217976.8276</v>
+        <v>70701.7099</v>
       </c>
       <c r="G101" t="n">
-        <v>6.034416666666671</v>
+        <v>6.044050000000003</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4042,7 +4186,9 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4057,22 +4203,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>5.93</v>
+        <v>5.909</v>
       </c>
       <c r="C102" t="n">
-        <v>5.93</v>
+        <v>5.922</v>
       </c>
       <c r="D102" t="n">
-        <v>5.93</v>
+        <v>5.922</v>
       </c>
       <c r="E102" t="n">
-        <v>5.93</v>
+        <v>5.909</v>
       </c>
       <c r="F102" t="n">
-        <v>3529.0344</v>
+        <v>217976.8276</v>
       </c>
       <c r="G102" t="n">
-        <v>6.02491666666667</v>
+        <v>6.034416666666671</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4081,7 +4227,9 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4096,22 +4244,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>6.048</v>
+        <v>5.93</v>
       </c>
       <c r="C103" t="n">
-        <v>6.048</v>
+        <v>5.93</v>
       </c>
       <c r="D103" t="n">
-        <v>6.048</v>
+        <v>5.93</v>
       </c>
       <c r="E103" t="n">
-        <v>6.048</v>
+        <v>5.93</v>
       </c>
       <c r="F103" t="n">
-        <v>83</v>
+        <v>3529.0344</v>
       </c>
       <c r="G103" t="n">
-        <v>6.017383333333338</v>
+        <v>6.02491666666667</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4120,7 +4268,9 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4138,19 +4288,19 @@
         <v>6.048</v>
       </c>
       <c r="C104" t="n">
-        <v>6.1</v>
+        <v>6.048</v>
       </c>
       <c r="D104" t="n">
-        <v>6.1</v>
+        <v>6.048</v>
       </c>
       <c r="E104" t="n">
         <v>6.048</v>
       </c>
       <c r="F104" t="n">
-        <v>427877.2004</v>
+        <v>83</v>
       </c>
       <c r="G104" t="n">
-        <v>6.010233333333337</v>
+        <v>6.017383333333338</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4159,7 +4309,9 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4174,22 +4326,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>6.09</v>
+        <v>6.048</v>
       </c>
       <c r="C105" t="n">
-        <v>6.09</v>
+        <v>6.1</v>
       </c>
       <c r="D105" t="n">
-        <v>6.09</v>
+        <v>6.1</v>
       </c>
       <c r="E105" t="n">
-        <v>6.09</v>
+        <v>6.048</v>
       </c>
       <c r="F105" t="n">
-        <v>3359.4266</v>
+        <v>427877.2004</v>
       </c>
       <c r="G105" t="n">
-        <v>6.005633333333337</v>
+        <v>6.010233333333337</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4198,7 +4350,9 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4213,22 +4367,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>6.1</v>
+        <v>6.09</v>
       </c>
       <c r="C106" t="n">
-        <v>6.12</v>
+        <v>6.09</v>
       </c>
       <c r="D106" t="n">
-        <v>6.12</v>
+        <v>6.09</v>
       </c>
       <c r="E106" t="n">
-        <v>6.1</v>
+        <v>6.09</v>
       </c>
       <c r="F106" t="n">
-        <v>32345.0294</v>
+        <v>3359.4266</v>
       </c>
       <c r="G106" t="n">
-        <v>6.001350000000004</v>
+        <v>6.005633333333337</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4237,7 +4391,9 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4252,7 +4408,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>6.12</v>
+        <v>6.1</v>
       </c>
       <c r="C107" t="n">
         <v>6.12</v>
@@ -4261,13 +4417,13 @@
         <v>6.12</v>
       </c>
       <c r="E107" t="n">
-        <v>6.12</v>
+        <v>6.1</v>
       </c>
       <c r="F107" t="n">
-        <v>20001</v>
+        <v>32345.0294</v>
       </c>
       <c r="G107" t="n">
-        <v>5.997000000000004</v>
+        <v>6.001350000000004</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4276,7 +4432,9 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4291,22 +4449,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>6.135</v>
+        <v>6.12</v>
       </c>
       <c r="C108" t="n">
-        <v>6.135</v>
+        <v>6.12</v>
       </c>
       <c r="D108" t="n">
-        <v>6.135</v>
+        <v>6.12</v>
       </c>
       <c r="E108" t="n">
-        <v>6.135</v>
+        <v>6.12</v>
       </c>
       <c r="F108" t="n">
-        <v>8274.558000000001</v>
+        <v>20001</v>
       </c>
       <c r="G108" t="n">
-        <v>5.991000000000004</v>
+        <v>5.997000000000004</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4315,7 +4473,9 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4330,22 +4490,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>6.349</v>
+        <v>6.135</v>
       </c>
       <c r="C109" t="n">
-        <v>6.349</v>
+        <v>6.135</v>
       </c>
       <c r="D109" t="n">
-        <v>6.349</v>
+        <v>6.135</v>
       </c>
       <c r="E109" t="n">
-        <v>6.349</v>
+        <v>6.135</v>
       </c>
       <c r="F109" t="n">
-        <v>100</v>
+        <v>8274.558000000001</v>
       </c>
       <c r="G109" t="n">
-        <v>5.991116666666671</v>
+        <v>5.991000000000004</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4354,7 +4514,9 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4369,22 +4531,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>6.111</v>
+        <v>6.349</v>
       </c>
       <c r="C110" t="n">
-        <v>6.269</v>
+        <v>6.349</v>
       </c>
       <c r="D110" t="n">
-        <v>6.269</v>
+        <v>6.349</v>
       </c>
       <c r="E110" t="n">
-        <v>6.1</v>
+        <v>6.349</v>
       </c>
       <c r="F110" t="n">
-        <v>127423.7481</v>
+        <v>100</v>
       </c>
       <c r="G110" t="n">
-        <v>5.991016666666671</v>
+        <v>5.991116666666671</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4393,7 +4555,9 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4408,22 +4572,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>6.11</v>
+        <v>6.111</v>
       </c>
       <c r="C111" t="n">
-        <v>6.101</v>
+        <v>6.269</v>
       </c>
       <c r="D111" t="n">
-        <v>6.11</v>
+        <v>6.269</v>
       </c>
       <c r="E111" t="n">
-        <v>6.101</v>
+        <v>6.1</v>
       </c>
       <c r="F111" t="n">
-        <v>93930.5241</v>
+        <v>127423.7481</v>
       </c>
       <c r="G111" t="n">
-        <v>5.987133333333338</v>
+        <v>5.991016666666671</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4432,7 +4596,9 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4447,22 +4613,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>6.22</v>
+        <v>6.11</v>
       </c>
       <c r="C112" t="n">
-        <v>6.076</v>
+        <v>6.101</v>
       </c>
       <c r="D112" t="n">
-        <v>6.22</v>
+        <v>6.11</v>
       </c>
       <c r="E112" t="n">
-        <v>6.076</v>
+        <v>6.101</v>
       </c>
       <c r="F112" t="n">
-        <v>63590.9562</v>
+        <v>93930.5241</v>
       </c>
       <c r="G112" t="n">
-        <v>5.983950000000005</v>
+        <v>5.987133333333338</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4471,7 +4637,9 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4486,22 +4654,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>6.219</v>
+        <v>6.22</v>
       </c>
       <c r="C113" t="n">
-        <v>6.219</v>
+        <v>6.076</v>
       </c>
       <c r="D113" t="n">
-        <v>6.219</v>
+        <v>6.22</v>
       </c>
       <c r="E113" t="n">
-        <v>6.219</v>
+        <v>6.076</v>
       </c>
       <c r="F113" t="n">
-        <v>400.211</v>
+        <v>63590.9562</v>
       </c>
       <c r="G113" t="n">
-        <v>5.983200000000005</v>
+        <v>5.983950000000005</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4510,7 +4678,9 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4525,22 +4695,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>6.149</v>
+        <v>6.219</v>
       </c>
       <c r="C114" t="n">
-        <v>6.149</v>
+        <v>6.219</v>
       </c>
       <c r="D114" t="n">
-        <v>6.149</v>
+        <v>6.219</v>
       </c>
       <c r="E114" t="n">
-        <v>6.149</v>
+        <v>6.219</v>
       </c>
       <c r="F114" t="n">
-        <v>267.672</v>
+        <v>400.211</v>
       </c>
       <c r="G114" t="n">
-        <v>5.984016666666672</v>
+        <v>5.983200000000005</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4549,7 +4719,9 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4564,22 +4736,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>6.11</v>
+        <v>6.149</v>
       </c>
       <c r="C115" t="n">
-        <v>6.11</v>
+        <v>6.149</v>
       </c>
       <c r="D115" t="n">
-        <v>6.11</v>
+        <v>6.149</v>
       </c>
       <c r="E115" t="n">
-        <v>6.11</v>
+        <v>6.149</v>
       </c>
       <c r="F115" t="n">
-        <v>5811.053</v>
+        <v>267.672</v>
       </c>
       <c r="G115" t="n">
-        <v>5.980433333333338</v>
+        <v>5.984016666666672</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4588,7 +4760,9 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4603,22 +4777,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>6.075</v>
+        <v>6.11</v>
       </c>
       <c r="C116" t="n">
-        <v>6.075</v>
+        <v>6.11</v>
       </c>
       <c r="D116" t="n">
-        <v>6.075</v>
+        <v>6.11</v>
       </c>
       <c r="E116" t="n">
-        <v>6.075</v>
+        <v>6.11</v>
       </c>
       <c r="F116" t="n">
-        <v>5493.4505</v>
+        <v>5811.053</v>
       </c>
       <c r="G116" t="n">
-        <v>5.982750000000006</v>
+        <v>5.980433333333338</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4627,7 +4801,9 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4642,22 +4818,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>5.991</v>
+        <v>6.075</v>
       </c>
       <c r="C117" t="n">
-        <v>5.801</v>
+        <v>6.075</v>
       </c>
       <c r="D117" t="n">
-        <v>5.991</v>
+        <v>6.075</v>
       </c>
       <c r="E117" t="n">
-        <v>5.801</v>
+        <v>6.075</v>
       </c>
       <c r="F117" t="n">
-        <v>199094.1889</v>
+        <v>5493.4505</v>
       </c>
       <c r="G117" t="n">
-        <v>5.980283333333338</v>
+        <v>5.982750000000006</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4666,7 +4842,9 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4681,22 +4859,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>5.803</v>
+        <v>5.991</v>
       </c>
       <c r="C118" t="n">
-        <v>5.811</v>
+        <v>5.801</v>
       </c>
       <c r="D118" t="n">
-        <v>5.811</v>
+        <v>5.991</v>
       </c>
       <c r="E118" t="n">
-        <v>5.8</v>
+        <v>5.801</v>
       </c>
       <c r="F118" t="n">
-        <v>488279.5468</v>
+        <v>199094.1889</v>
       </c>
       <c r="G118" t="n">
-        <v>5.978216666666671</v>
+        <v>5.980283333333338</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4705,7 +4883,9 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4720,22 +4900,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>5.928</v>
+        <v>5.803</v>
       </c>
       <c r="C119" t="n">
-        <v>5.928</v>
+        <v>5.811</v>
       </c>
       <c r="D119" t="n">
-        <v>5.928</v>
+        <v>5.811</v>
       </c>
       <c r="E119" t="n">
-        <v>5.928</v>
+        <v>5.8</v>
       </c>
       <c r="F119" t="n">
-        <v>3990.157</v>
+        <v>488279.5468</v>
       </c>
       <c r="G119" t="n">
-        <v>5.979216666666671</v>
+        <v>5.978216666666671</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4744,7 +4924,9 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4759,22 +4941,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>5.894</v>
+        <v>5.928</v>
       </c>
       <c r="C120" t="n">
-        <v>5.894</v>
+        <v>5.928</v>
       </c>
       <c r="D120" t="n">
-        <v>5.894</v>
+        <v>5.928</v>
       </c>
       <c r="E120" t="n">
-        <v>5.894</v>
+        <v>5.928</v>
       </c>
       <c r="F120" t="n">
-        <v>85393.9176</v>
+        <v>3990.157</v>
       </c>
       <c r="G120" t="n">
-        <v>5.980416666666671</v>
+        <v>5.979216666666671</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4783,7 +4965,9 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4798,22 +4982,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>5.96</v>
+        <v>5.894</v>
       </c>
       <c r="C121" t="n">
-        <v>5.96</v>
+        <v>5.894</v>
       </c>
       <c r="D121" t="n">
-        <v>5.96</v>
+        <v>5.894</v>
       </c>
       <c r="E121" t="n">
-        <v>5.96</v>
+        <v>5.894</v>
       </c>
       <c r="F121" t="n">
-        <v>100</v>
+        <v>85393.9176</v>
       </c>
       <c r="G121" t="n">
-        <v>5.980450000000004</v>
+        <v>5.980416666666671</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4822,7 +5006,9 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4843,16 +5029,16 @@
         <v>5.96</v>
       </c>
       <c r="D122" t="n">
-        <v>5.961</v>
+        <v>5.96</v>
       </c>
       <c r="E122" t="n">
         <v>5.96</v>
       </c>
       <c r="F122" t="n">
-        <v>270468.787</v>
+        <v>100</v>
       </c>
       <c r="G122" t="n">
-        <v>5.98161666666667</v>
+        <v>5.980450000000004</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4861,7 +5047,9 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4876,22 +5064,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.961</v>
+        <v>5.96</v>
       </c>
       <c r="C123" t="n">
-        <v>5.961</v>
+        <v>5.96</v>
       </c>
       <c r="D123" t="n">
         <v>5.961</v>
       </c>
       <c r="E123" t="n">
-        <v>5.961</v>
+        <v>5.96</v>
       </c>
       <c r="F123" t="n">
-        <v>0.0004</v>
+        <v>270468.787</v>
       </c>
       <c r="G123" t="n">
-        <v>5.98166666666667</v>
+        <v>5.98161666666667</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4900,7 +5088,9 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4915,22 +5105,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.981</v>
+        <v>5.961</v>
       </c>
       <c r="C124" t="n">
-        <v>5.981</v>
+        <v>5.961</v>
       </c>
       <c r="D124" t="n">
-        <v>5.981</v>
+        <v>5.961</v>
       </c>
       <c r="E124" t="n">
-        <v>5.981</v>
+        <v>5.961</v>
       </c>
       <c r="F124" t="n">
-        <v>90</v>
+        <v>0.0004</v>
       </c>
       <c r="G124" t="n">
-        <v>5.981833333333337</v>
+        <v>5.98166666666667</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4939,7 +5129,9 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4966,10 +5158,10 @@
         <v>5.981</v>
       </c>
       <c r="F125" t="n">
-        <v>15126.8154</v>
+        <v>90</v>
       </c>
       <c r="G125" t="n">
-        <v>5.98301666666667</v>
+        <v>5.981833333333337</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4978,7 +5170,9 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4993,22 +5187,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.982</v>
+        <v>5.981</v>
       </c>
       <c r="C126" t="n">
-        <v>5.982</v>
+        <v>5.981</v>
       </c>
       <c r="D126" t="n">
-        <v>5.982</v>
+        <v>5.981</v>
       </c>
       <c r="E126" t="n">
-        <v>5.982</v>
+        <v>5.981</v>
       </c>
       <c r="F126" t="n">
-        <v>90</v>
+        <v>15126.8154</v>
       </c>
       <c r="G126" t="n">
-        <v>5.984216666666669</v>
+        <v>5.98301666666667</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5017,7 +5211,9 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5032,22 +5228,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.99</v>
+        <v>5.982</v>
       </c>
       <c r="C127" t="n">
-        <v>5.99</v>
+        <v>5.982</v>
       </c>
       <c r="D127" t="n">
-        <v>5.99</v>
+        <v>5.982</v>
       </c>
       <c r="E127" t="n">
-        <v>5.99</v>
+        <v>5.982</v>
       </c>
       <c r="F127" t="n">
-        <v>2900</v>
+        <v>90</v>
       </c>
       <c r="G127" t="n">
-        <v>5.98701666666667</v>
+        <v>5.984216666666669</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5056,7 +5252,9 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5083,10 +5281,10 @@
         <v>5.99</v>
       </c>
       <c r="F128" t="n">
-        <v>90</v>
+        <v>2900</v>
       </c>
       <c r="G128" t="n">
-        <v>5.990683333333337</v>
+        <v>5.98701666666667</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5095,7 +5293,9 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5110,22 +5310,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>6.078</v>
+        <v>5.99</v>
       </c>
       <c r="C129" t="n">
-        <v>6.078</v>
+        <v>5.99</v>
       </c>
       <c r="D129" t="n">
-        <v>6.078</v>
+        <v>5.99</v>
       </c>
       <c r="E129" t="n">
-        <v>6.078</v>
+        <v>5.99</v>
       </c>
       <c r="F129" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G129" t="n">
-        <v>5.996483333333336</v>
+        <v>5.990683333333337</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5134,7 +5334,9 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5149,22 +5351,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5.991</v>
+        <v>6.078</v>
       </c>
       <c r="C130" t="n">
-        <v>5.991</v>
+        <v>6.078</v>
       </c>
       <c r="D130" t="n">
-        <v>5.991</v>
+        <v>6.078</v>
       </c>
       <c r="E130" t="n">
-        <v>5.991</v>
+        <v>6.078</v>
       </c>
       <c r="F130" t="n">
-        <v>3944.8356</v>
+        <v>100</v>
       </c>
       <c r="G130" t="n">
-        <v>6.000966666666669</v>
+        <v>5.996483333333336</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5173,7 +5375,9 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5188,22 +5392,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>6.069</v>
+        <v>5.991</v>
       </c>
       <c r="C131" t="n">
-        <v>6.069</v>
+        <v>5.991</v>
       </c>
       <c r="D131" t="n">
-        <v>6.069</v>
+        <v>5.991</v>
       </c>
       <c r="E131" t="n">
-        <v>6.069</v>
+        <v>5.991</v>
       </c>
       <c r="F131" t="n">
-        <v>37632.0811</v>
+        <v>3944.8356</v>
       </c>
       <c r="G131" t="n">
-        <v>6.004633333333336</v>
+        <v>6.000966666666669</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5212,7 +5416,9 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5227,22 +5433,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>6.017</v>
+        <v>6.069</v>
       </c>
       <c r="C132" t="n">
-        <v>6.017</v>
+        <v>6.069</v>
       </c>
       <c r="D132" t="n">
-        <v>6.017</v>
+        <v>6.069</v>
       </c>
       <c r="E132" t="n">
-        <v>6.017</v>
+        <v>6.069</v>
       </c>
       <c r="F132" t="n">
-        <v>4510</v>
+        <v>37632.0811</v>
       </c>
       <c r="G132" t="n">
-        <v>6.008900000000002</v>
+        <v>6.004633333333336</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5251,7 +5457,9 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5266,22 +5474,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>6.02</v>
+        <v>6.017</v>
       </c>
       <c r="C133" t="n">
-        <v>6.02</v>
+        <v>6.017</v>
       </c>
       <c r="D133" t="n">
-        <v>6.02</v>
+        <v>6.017</v>
       </c>
       <c r="E133" t="n">
-        <v>6.02</v>
+        <v>6.017</v>
       </c>
       <c r="F133" t="n">
-        <v>22070.4729</v>
+        <v>4510</v>
       </c>
       <c r="G133" t="n">
-        <v>6.011250000000002</v>
+        <v>6.008900000000002</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5290,7 +5498,9 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5305,22 +5515,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>6.006</v>
+        <v>6.02</v>
       </c>
       <c r="C134" t="n">
-        <v>6.006</v>
+        <v>6.02</v>
       </c>
       <c r="D134" t="n">
-        <v>6.006</v>
+        <v>6.02</v>
       </c>
       <c r="E134" t="n">
-        <v>6.006</v>
+        <v>6.02</v>
       </c>
       <c r="F134" t="n">
-        <v>100000</v>
+        <v>22070.4729</v>
       </c>
       <c r="G134" t="n">
-        <v>6.013366666666669</v>
+        <v>6.011250000000002</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5329,7 +5539,9 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5356,10 +5568,10 @@
         <v>6.006</v>
       </c>
       <c r="F135" t="n">
-        <v>40164.043</v>
+        <v>100000</v>
       </c>
       <c r="G135" t="n">
-        <v>6.017133333333335</v>
+        <v>6.013366666666669</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5368,7 +5580,9 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5383,22 +5597,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>6.07</v>
+        <v>6.006</v>
       </c>
       <c r="C136" t="n">
-        <v>6.07</v>
+        <v>6.006</v>
       </c>
       <c r="D136" t="n">
-        <v>6.07</v>
+        <v>6.006</v>
       </c>
       <c r="E136" t="n">
-        <v>6.07</v>
+        <v>6.006</v>
       </c>
       <c r="F136" t="n">
-        <v>83</v>
+        <v>40164.043</v>
       </c>
       <c r="G136" t="n">
-        <v>6.021816666666669</v>
+        <v>6.017133333333335</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5407,7 +5621,9 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5422,22 +5638,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5.992</v>
+        <v>6.07</v>
       </c>
       <c r="C137" t="n">
-        <v>5.98</v>
+        <v>6.07</v>
       </c>
       <c r="D137" t="n">
-        <v>5.992</v>
+        <v>6.07</v>
       </c>
       <c r="E137" t="n">
-        <v>5.98</v>
+        <v>6.07</v>
       </c>
       <c r="F137" t="n">
-        <v>40072.2516</v>
+        <v>83</v>
       </c>
       <c r="G137" t="n">
-        <v>6.024783333333335</v>
+        <v>6.021816666666669</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5446,7 +5662,9 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5461,22 +5679,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
+        <v>5.992</v>
+      </c>
+      <c r="C138" t="n">
         <v>5.98</v>
       </c>
-      <c r="C138" t="n">
-        <v>5.822</v>
-      </c>
       <c r="D138" t="n">
+        <v>5.992</v>
+      </c>
+      <c r="E138" t="n">
         <v>5.98</v>
       </c>
-      <c r="E138" t="n">
-        <v>5.822</v>
-      </c>
       <c r="F138" t="n">
-        <v>369516.0811</v>
+        <v>40072.2516</v>
       </c>
       <c r="G138" t="n">
-        <v>6.022316666666669</v>
+        <v>6.024783333333335</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5485,7 +5703,9 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5500,22 +5720,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5.798</v>
+        <v>5.98</v>
       </c>
       <c r="C139" t="n">
-        <v>5.798</v>
+        <v>5.822</v>
       </c>
       <c r="D139" t="n">
-        <v>5.798</v>
+        <v>5.98</v>
       </c>
       <c r="E139" t="n">
-        <v>5.798</v>
+        <v>5.822</v>
       </c>
       <c r="F139" t="n">
-        <v>600</v>
+        <v>369516.0811</v>
       </c>
       <c r="G139" t="n">
-        <v>6.019450000000002</v>
+        <v>6.022316666666669</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5524,7 +5744,9 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5551,10 +5773,10 @@
         <v>5.798</v>
       </c>
       <c r="F140" t="n">
-        <v>330</v>
+        <v>600</v>
       </c>
       <c r="G140" t="n">
-        <v>6.017383333333334</v>
+        <v>6.019450000000002</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5563,7 +5785,9 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5578,22 +5802,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5.898</v>
+        <v>5.798</v>
       </c>
       <c r="C141" t="n">
-        <v>5.898</v>
+        <v>5.798</v>
       </c>
       <c r="D141" t="n">
-        <v>5.898</v>
+        <v>5.798</v>
       </c>
       <c r="E141" t="n">
-        <v>5.898</v>
+        <v>5.798</v>
       </c>
       <c r="F141" t="n">
-        <v>100</v>
+        <v>330</v>
       </c>
       <c r="G141" t="n">
-        <v>6.015850000000001</v>
+        <v>6.017383333333334</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5602,7 +5826,9 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5617,22 +5843,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>5.8</v>
+        <v>5.898</v>
       </c>
       <c r="C142" t="n">
-        <v>5.8</v>
+        <v>5.898</v>
       </c>
       <c r="D142" t="n">
-        <v>5.8</v>
+        <v>5.898</v>
       </c>
       <c r="E142" t="n">
-        <v>5.8</v>
+        <v>5.898</v>
       </c>
       <c r="F142" t="n">
         <v>100</v>
       </c>
       <c r="G142" t="n">
-        <v>6.012383333333335</v>
+        <v>6.015850000000001</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5641,7 +5867,9 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5656,22 +5884,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>5.919</v>
+        <v>5.8</v>
       </c>
       <c r="C143" t="n">
-        <v>5.919</v>
+        <v>5.8</v>
       </c>
       <c r="D143" t="n">
-        <v>5.919</v>
+        <v>5.8</v>
       </c>
       <c r="E143" t="n">
-        <v>5.919</v>
+        <v>5.8</v>
       </c>
       <c r="F143" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G143" t="n">
-        <v>6.010883333333335</v>
+        <v>6.012383333333335</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5680,7 +5908,9 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5695,22 +5925,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>5.889</v>
+        <v>5.919</v>
       </c>
       <c r="C144" t="n">
-        <v>5.889</v>
+        <v>5.919</v>
       </c>
       <c r="D144" t="n">
-        <v>5.889</v>
+        <v>5.919</v>
       </c>
       <c r="E144" t="n">
-        <v>5.889</v>
+        <v>5.919</v>
       </c>
       <c r="F144" t="n">
-        <v>4016.7521</v>
+        <v>200</v>
       </c>
       <c r="G144" t="n">
-        <v>6.008866666666668</v>
+        <v>6.010883333333335</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5719,7 +5949,9 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5734,22 +5966,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>5.804</v>
+        <v>5.889</v>
       </c>
       <c r="C145" t="n">
-        <v>5.804</v>
+        <v>5.889</v>
       </c>
       <c r="D145" t="n">
-        <v>5.804</v>
+        <v>5.889</v>
       </c>
       <c r="E145" t="n">
-        <v>5.804</v>
+        <v>5.889</v>
       </c>
       <c r="F145" t="n">
-        <v>3059.122</v>
+        <v>4016.7521</v>
       </c>
       <c r="G145" t="n">
-        <v>6.005333333333335</v>
+        <v>6.008866666666668</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5758,7 +5990,9 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5773,22 +6007,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5.806</v>
+        <v>5.804</v>
       </c>
       <c r="C146" t="n">
-        <v>5.849</v>
+        <v>5.804</v>
       </c>
       <c r="D146" t="n">
-        <v>5.849</v>
+        <v>5.804</v>
       </c>
       <c r="E146" t="n">
-        <v>5.801</v>
+        <v>5.804</v>
       </c>
       <c r="F146" t="n">
-        <v>44978.2322</v>
+        <v>3059.122</v>
       </c>
       <c r="G146" t="n">
-        <v>6.002816666666667</v>
+        <v>6.005333333333335</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5797,7 +6031,9 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5812,22 +6048,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5.801</v>
+        <v>5.806</v>
       </c>
       <c r="C147" t="n">
-        <v>5.801</v>
+        <v>5.849</v>
       </c>
       <c r="D147" t="n">
-        <v>5.801</v>
+        <v>5.849</v>
       </c>
       <c r="E147" t="n">
         <v>5.801</v>
       </c>
       <c r="F147" t="n">
-        <v>48650.0729</v>
+        <v>44978.2322</v>
       </c>
       <c r="G147" t="n">
-        <v>5.999233333333334</v>
+        <v>6.002816666666667</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5836,7 +6072,9 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5851,22 +6089,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5.84</v>
+        <v>5.801</v>
       </c>
       <c r="C148" t="n">
-        <v>5.84</v>
+        <v>5.801</v>
       </c>
       <c r="D148" t="n">
-        <v>5.84</v>
+        <v>5.801</v>
       </c>
       <c r="E148" t="n">
-        <v>5.84</v>
+        <v>5.801</v>
       </c>
       <c r="F148" t="n">
-        <v>100</v>
+        <v>48650.0729</v>
       </c>
       <c r="G148" t="n">
-        <v>5.997883333333333</v>
+        <v>5.999233333333334</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5875,7 +6113,9 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5890,22 +6130,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5.82</v>
+        <v>5.84</v>
       </c>
       <c r="C149" t="n">
-        <v>5.82</v>
+        <v>5.84</v>
       </c>
       <c r="D149" t="n">
-        <v>5.82</v>
+        <v>5.84</v>
       </c>
       <c r="E149" t="n">
-        <v>5.82</v>
+        <v>5.84</v>
       </c>
       <c r="F149" t="n">
-        <v>11149</v>
+        <v>100</v>
       </c>
       <c r="G149" t="n">
-        <v>5.9962</v>
+        <v>5.997883333333333</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5914,7 +6154,9 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5932,19 +6174,19 @@
         <v>5.82</v>
       </c>
       <c r="C150" t="n">
-        <v>5.806</v>
+        <v>5.82</v>
       </c>
       <c r="D150" t="n">
         <v>5.82</v>
       </c>
       <c r="E150" t="n">
-        <v>5.806</v>
+        <v>5.82</v>
       </c>
       <c r="F150" t="n">
-        <v>401</v>
+        <v>11149</v>
       </c>
       <c r="G150" t="n">
-        <v>5.9863</v>
+        <v>5.9962</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5953,7 +6195,9 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5968,22 +6212,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="C151" t="n">
         <v>5.806</v>
       </c>
-      <c r="C151" t="n">
-        <v>5.805</v>
-      </c>
       <c r="D151" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="E151" t="n">
         <v>5.806</v>
       </c>
-      <c r="E151" t="n">
-        <v>5.805</v>
-      </c>
       <c r="F151" t="n">
-        <v>34250.0908</v>
+        <v>401</v>
       </c>
       <c r="G151" t="n">
-        <v>5.979150000000001</v>
+        <v>5.9863</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5992,7 +6236,9 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6007,22 +6253,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5.804</v>
+        <v>5.806</v>
       </c>
       <c r="C152" t="n">
-        <v>5.817</v>
+        <v>5.805</v>
       </c>
       <c r="D152" t="n">
-        <v>5.817</v>
+        <v>5.806</v>
       </c>
       <c r="E152" t="n">
-        <v>5.802</v>
+        <v>5.805</v>
       </c>
       <c r="F152" t="n">
-        <v>130067.6995</v>
+        <v>34250.0908</v>
       </c>
       <c r="G152" t="n">
-        <v>5.974433333333334</v>
+        <v>5.979150000000001</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6031,7 +6277,9 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6046,22 +6294,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
+        <v>5.804</v>
+      </c>
+      <c r="C153" t="n">
+        <v>5.817</v>
+      </c>
+      <c r="D153" t="n">
+        <v>5.817</v>
+      </c>
+      <c r="E153" t="n">
         <v>5.802</v>
       </c>
-      <c r="C153" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="D153" t="n">
-        <v>5.802</v>
-      </c>
-      <c r="E153" t="n">
-        <v>5.8</v>
-      </c>
       <c r="F153" t="n">
-        <v>40365.2864</v>
+        <v>130067.6995</v>
       </c>
       <c r="G153" t="n">
-        <v>5.969433333333333</v>
+        <v>5.974433333333334</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6070,7 +6318,9 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6085,22 +6335,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5.8</v>
+        <v>5.802</v>
       </c>
       <c r="C154" t="n">
         <v>5.8</v>
       </c>
       <c r="D154" t="n">
-        <v>5.8</v>
+        <v>5.802</v>
       </c>
       <c r="E154" t="n">
         <v>5.8</v>
       </c>
       <c r="F154" t="n">
-        <v>51142.9379</v>
+        <v>40365.2864</v>
       </c>
       <c r="G154" t="n">
-        <v>5.9656</v>
+        <v>5.969433333333333</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6109,7 +6359,9 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6136,10 +6388,10 @@
         <v>5.8</v>
       </c>
       <c r="F155" t="n">
-        <v>18857.062</v>
+        <v>51142.9379</v>
       </c>
       <c r="G155" t="n">
-        <v>5.962050000000001</v>
+        <v>5.9656</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6148,7 +6400,9 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6163,22 +6417,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>5.797</v>
+        <v>5.8</v>
       </c>
       <c r="C156" t="n">
-        <v>5.75</v>
+        <v>5.8</v>
       </c>
       <c r="D156" t="n">
-        <v>5.797</v>
+        <v>5.8</v>
       </c>
       <c r="E156" t="n">
-        <v>5.75</v>
+        <v>5.8</v>
       </c>
       <c r="F156" t="n">
-        <v>14697.5075</v>
+        <v>18857.062</v>
       </c>
       <c r="G156" t="n">
-        <v>5.959533333333335</v>
+        <v>5.962050000000001</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6187,7 +6441,9 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6202,22 +6458,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5.75</v>
+        <v>5.797</v>
       </c>
       <c r="C157" t="n">
         <v>5.75</v>
       </c>
       <c r="D157" t="n">
-        <v>5.75</v>
+        <v>5.797</v>
       </c>
       <c r="E157" t="n">
         <v>5.75</v>
       </c>
       <c r="F157" t="n">
-        <v>8583.603300000001</v>
+        <v>14697.5075</v>
       </c>
       <c r="G157" t="n">
-        <v>5.956666666666667</v>
+        <v>5.959533333333335</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6226,7 +6482,9 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6241,22 +6499,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5.721</v>
+        <v>5.75</v>
       </c>
       <c r="C158" t="n">
-        <v>5.69</v>
+        <v>5.75</v>
       </c>
       <c r="D158" t="n">
-        <v>5.721</v>
+        <v>5.75</v>
       </c>
       <c r="E158" t="n">
-        <v>5.69</v>
+        <v>5.75</v>
       </c>
       <c r="F158" t="n">
-        <v>6462.478</v>
+        <v>8583.603300000001</v>
       </c>
       <c r="G158" t="n">
-        <v>5.9528</v>
+        <v>5.956666666666667</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6265,7 +6523,9 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6280,22 +6540,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5.69</v>
+        <v>5.721</v>
       </c>
       <c r="C159" t="n">
         <v>5.69</v>
       </c>
       <c r="D159" t="n">
-        <v>5.69</v>
+        <v>5.721</v>
       </c>
       <c r="E159" t="n">
         <v>5.69</v>
       </c>
       <c r="F159" t="n">
-        <v>8224.9722</v>
+        <v>6462.478</v>
       </c>
       <c r="G159" t="n">
-        <v>5.948916666666666</v>
+        <v>5.9528</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6304,7 +6564,9 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6322,19 +6584,19 @@
         <v>5.69</v>
       </c>
       <c r="C160" t="n">
-        <v>5.61</v>
+        <v>5.69</v>
       </c>
       <c r="D160" t="n">
         <v>5.69</v>
       </c>
       <c r="E160" t="n">
-        <v>5.61</v>
+        <v>5.69</v>
       </c>
       <c r="F160" t="n">
-        <v>23271.0536</v>
+        <v>8224.9722</v>
       </c>
       <c r="G160" t="n">
-        <v>5.944083333333334</v>
+        <v>5.948916666666666</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6343,7 +6605,9 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6358,33 +6622,33 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5.626</v>
+        <v>5.69</v>
       </c>
       <c r="C161" t="n">
-        <v>5.625</v>
+        <v>5.61</v>
       </c>
       <c r="D161" t="n">
-        <v>5.626</v>
+        <v>5.69</v>
       </c>
       <c r="E161" t="n">
-        <v>5.625</v>
+        <v>5.61</v>
       </c>
       <c r="F161" t="n">
-        <v>59787.9385</v>
+        <v>23271.0536</v>
       </c>
       <c r="G161" t="n">
-        <v>5.939133333333333</v>
+        <v>5.944083333333334</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6399,33 +6663,33 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>5.749</v>
+        <v>5.626</v>
       </c>
       <c r="C162" t="n">
-        <v>5.749</v>
+        <v>5.625</v>
       </c>
       <c r="D162" t="n">
-        <v>5.749</v>
+        <v>5.626</v>
       </c>
       <c r="E162" t="n">
-        <v>5.749</v>
+        <v>5.625</v>
       </c>
       <c r="F162" t="n">
-        <v>100</v>
+        <v>59787.9385</v>
       </c>
       <c r="G162" t="n">
-        <v>5.936116666666667</v>
+        <v>5.939133333333333</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>5.625</v>
-      </c>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6440,33 +6704,33 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>5.651</v>
+        <v>5.749</v>
       </c>
       <c r="C163" t="n">
-        <v>5.625</v>
+        <v>5.749</v>
       </c>
       <c r="D163" t="n">
-        <v>5.651</v>
+        <v>5.749</v>
       </c>
       <c r="E163" t="n">
-        <v>5.625</v>
+        <v>5.749</v>
       </c>
       <c r="F163" t="n">
-        <v>40365.2864</v>
+        <v>100</v>
       </c>
       <c r="G163" t="n">
-        <v>5.929066666666667</v>
+        <v>5.936116666666667</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>5.749</v>
-      </c>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6481,33 +6745,33 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>5.729</v>
+        <v>5.651</v>
       </c>
       <c r="C164" t="n">
-        <v>5.73</v>
+        <v>5.625</v>
       </c>
       <c r="D164" t="n">
-        <v>5.73</v>
+        <v>5.651</v>
       </c>
       <c r="E164" t="n">
-        <v>5.729</v>
+        <v>5.625</v>
       </c>
       <c r="F164" t="n">
-        <v>126029.1617</v>
+        <v>40365.2864</v>
       </c>
       <c r="G164" t="n">
-        <v>5.9229</v>
+        <v>5.929066666666667</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>5.625</v>
-      </c>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6522,22 +6786,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>5.738</v>
+        <v>5.729</v>
       </c>
       <c r="C165" t="n">
-        <v>5.738</v>
+        <v>5.73</v>
       </c>
       <c r="D165" t="n">
-        <v>5.738</v>
+        <v>5.73</v>
       </c>
       <c r="E165" t="n">
-        <v>5.738</v>
+        <v>5.729</v>
       </c>
       <c r="F165" t="n">
-        <v>41868</v>
+        <v>126029.1617</v>
       </c>
       <c r="G165" t="n">
-        <v>5.917033333333334</v>
+        <v>5.9229</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6546,7 +6810,9 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6561,22 +6827,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5.766</v>
+        <v>5.738</v>
       </c>
       <c r="C166" t="n">
-        <v>5.766</v>
+        <v>5.738</v>
       </c>
       <c r="D166" t="n">
-        <v>5.766</v>
+        <v>5.738</v>
       </c>
       <c r="E166" t="n">
-        <v>5.766</v>
+        <v>5.738</v>
       </c>
       <c r="F166" t="n">
-        <v>23492.7067</v>
+        <v>41868</v>
       </c>
       <c r="G166" t="n">
-        <v>5.911133333333335</v>
+        <v>5.917033333333334</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6585,7 +6851,9 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6600,22 +6868,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>5.79</v>
+        <v>5.766</v>
       </c>
       <c r="C167" t="n">
-        <v>5.79</v>
+        <v>5.766</v>
       </c>
       <c r="D167" t="n">
-        <v>5.79</v>
+        <v>5.766</v>
       </c>
       <c r="E167" t="n">
-        <v>5.79</v>
+        <v>5.766</v>
       </c>
       <c r="F167" t="n">
-        <v>1758.0872</v>
+        <v>23492.7067</v>
       </c>
       <c r="G167" t="n">
-        <v>5.905633333333335</v>
+        <v>5.911133333333335</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6624,7 +6892,9 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6639,33 +6909,33 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>5.889</v>
+        <v>5.79</v>
       </c>
       <c r="C168" t="n">
-        <v>5.889</v>
+        <v>5.79</v>
       </c>
       <c r="D168" t="n">
-        <v>5.889</v>
+        <v>5.79</v>
       </c>
       <c r="E168" t="n">
-        <v>5.889</v>
+        <v>5.79</v>
       </c>
       <c r="F168" t="n">
-        <v>27973.3825</v>
+        <v>1758.0872</v>
       </c>
       <c r="G168" t="n">
-        <v>5.901533333333335</v>
+        <v>5.905633333333335</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6692,10 +6962,10 @@
         <v>5.889</v>
       </c>
       <c r="F169" t="n">
-        <v>72026.61749999999</v>
+        <v>27973.3825</v>
       </c>
       <c r="G169" t="n">
-        <v>5.893866666666669</v>
+        <v>5.901533333333335</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6704,7 +6974,9 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6719,22 +6991,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>5.906</v>
+        <v>5.889</v>
       </c>
       <c r="C170" t="n">
-        <v>5.906</v>
+        <v>5.889</v>
       </c>
       <c r="D170" t="n">
-        <v>5.906</v>
+        <v>5.889</v>
       </c>
       <c r="E170" t="n">
-        <v>5.906</v>
+        <v>5.889</v>
       </c>
       <c r="F170" t="n">
-        <v>85</v>
+        <v>72026.61749999999</v>
       </c>
       <c r="G170" t="n">
-        <v>5.887816666666668</v>
+        <v>5.893866666666669</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6743,7 +7015,9 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6758,22 +7032,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>5.804</v>
+        <v>5.906</v>
       </c>
       <c r="C171" t="n">
-        <v>5.804</v>
+        <v>5.906</v>
       </c>
       <c r="D171" t="n">
-        <v>5.804</v>
+        <v>5.906</v>
       </c>
       <c r="E171" t="n">
-        <v>5.804</v>
+        <v>5.906</v>
       </c>
       <c r="F171" t="n">
-        <v>25068.917</v>
+        <v>85</v>
       </c>
       <c r="G171" t="n">
-        <v>5.882866666666668</v>
+        <v>5.887816666666668</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6782,7 +7056,9 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6797,22 +7073,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>5.904</v>
+        <v>5.804</v>
       </c>
       <c r="C172" t="n">
-        <v>5.904</v>
+        <v>5.804</v>
       </c>
       <c r="D172" t="n">
-        <v>5.904</v>
+        <v>5.804</v>
       </c>
       <c r="E172" t="n">
-        <v>5.904</v>
+        <v>5.804</v>
       </c>
       <c r="F172" t="n">
-        <v>85</v>
+        <v>25068.917</v>
       </c>
       <c r="G172" t="n">
-        <v>5.880000000000001</v>
+        <v>5.882866666666668</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6821,7 +7097,9 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6848,10 +7126,10 @@
         <v>5.904</v>
       </c>
       <c r="F173" t="n">
-        <v>24983.917</v>
+        <v>85</v>
       </c>
       <c r="G173" t="n">
-        <v>5.874750000000001</v>
+        <v>5.880000000000001</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6860,7 +7138,9 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6878,19 +7158,19 @@
         <v>5.904</v>
       </c>
       <c r="C174" t="n">
-        <v>5.906</v>
+        <v>5.904</v>
       </c>
       <c r="D174" t="n">
-        <v>5.906</v>
+        <v>5.904</v>
       </c>
       <c r="E174" t="n">
         <v>5.904</v>
       </c>
       <c r="F174" t="n">
-        <v>194025.7021</v>
+        <v>24983.917</v>
       </c>
       <c r="G174" t="n">
-        <v>5.870700000000001</v>
+        <v>5.874750000000001</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6899,7 +7179,9 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>5.936</v>
+      </c>
       <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6914,37 +7196,80 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
+        <v>5.904</v>
+      </c>
+      <c r="C175" t="n">
         <v>5.906</v>
       </c>
-      <c r="C175" t="n">
+      <c r="D175" t="n">
+        <v>5.906</v>
+      </c>
+      <c r="E175" t="n">
+        <v>5.904</v>
+      </c>
+      <c r="F175" t="n">
+        <v>194025.7021</v>
+      </c>
+      <c r="G175" t="n">
+        <v>5.870700000000001</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>5.936</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>5.906</v>
+      </c>
+      <c r="C176" t="n">
         <v>5.98</v>
       </c>
-      <c r="D175" t="n">
+      <c r="D176" t="n">
         <v>5.98</v>
       </c>
-      <c r="E175" t="n">
+      <c r="E176" t="n">
         <v>5.906</v>
       </c>
-      <c r="F175" t="n">
+      <c r="F176" t="n">
         <v>28942.7114</v>
       </c>
-      <c r="G175" t="n">
+      <c r="G176" t="n">
         <v>5.868533333333334</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>5.936</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-21 BackTest BZNT.xlsx
+++ b/BackTest/2020-01-21 BackTest BZNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M176"/>
+  <dimension ref="A1:N186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>2801.8806</v>
       </c>
       <c r="G2" t="n">
+        <v>5.8314</v>
+      </c>
+      <c r="H2" t="n">
         <v>5.665950000000001</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>16282.0687</v>
       </c>
       <c r="G3" t="n">
+        <v>5.836466666666667</v>
+      </c>
+      <c r="H3" t="n">
         <v>5.668183333333335</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>107589.8111</v>
       </c>
       <c r="G4" t="n">
+        <v>5.839200000000001</v>
+      </c>
+      <c r="H4" t="n">
         <v>5.673850000000002</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,27 @@
         <v>162661.3558</v>
       </c>
       <c r="G5" t="n">
+        <v>5.837333333333334</v>
+      </c>
+      <c r="H5" t="n">
         <v>5.678516666666668</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>5.77</v>
+      </c>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +611,27 @@
         <v>92080.8921</v>
       </c>
       <c r="G6" t="n">
+        <v>5.829200000000001</v>
+      </c>
+      <c r="H6" t="n">
         <v>5.679650000000001</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5.7</v>
+      </c>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +655,27 @@
         <v>93021.855</v>
       </c>
       <c r="G7" t="n">
+        <v>5.825266666666667</v>
+      </c>
+      <c r="H7" t="n">
         <v>5.681666666666668</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5.614</v>
+      </c>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +699,27 @@
         <v>90</v>
       </c>
       <c r="G8" t="n">
+        <v>5.821266666666667</v>
+      </c>
+      <c r="H8" t="n">
         <v>5.686333333333335</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>5.677</v>
+      </c>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +743,27 @@
         <v>100000</v>
       </c>
       <c r="G9" t="n">
+        <v>5.811933333333333</v>
+      </c>
+      <c r="H9" t="n">
         <v>5.689683333333336</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>5.73</v>
+      </c>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +787,27 @@
         <v>85</v>
       </c>
       <c r="G10" t="n">
+        <v>5.7992</v>
+      </c>
+      <c r="H10" t="n">
         <v>5.69461666666667</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>5.74</v>
+      </c>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +831,27 @@
         <v>74669.26300000001</v>
       </c>
       <c r="G11" t="n">
+        <v>5.789466666666667</v>
+      </c>
+      <c r="H11" t="n">
         <v>5.69866666666667</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>5.756</v>
+      </c>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +875,27 @@
         <v>162954.1632206815</v>
       </c>
       <c r="G12" t="n">
+        <v>5.786266666666666</v>
+      </c>
+      <c r="H12" t="n">
         <v>5.70436666666667</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>5.8</v>
+      </c>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +919,27 @@
         <v>93077.84522694997</v>
       </c>
       <c r="G13" t="n">
+        <v>5.789866666666667</v>
+      </c>
+      <c r="H13" t="n">
         <v>5.710566666666669</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>5.899</v>
+      </c>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +963,25 @@
         <v>611157.2439472351</v>
       </c>
       <c r="G14" t="n">
+        <v>5.7942</v>
+      </c>
+      <c r="H14" t="n">
         <v>5.717900000000002</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +1005,25 @@
         <v>148716.5695</v>
       </c>
       <c r="G15" t="n">
+        <v>5.798666666666666</v>
+      </c>
+      <c r="H15" t="n">
         <v>5.725366666666669</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1047,25 @@
         <v>193997.8317</v>
       </c>
       <c r="G16" t="n">
+        <v>5.802999999999999</v>
+      </c>
+      <c r="H16" t="n">
         <v>5.732983333333335</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1089,25 @@
         <v>5.133532876373e-06</v>
       </c>
       <c r="G17" t="n">
+        <v>5.811999999999999</v>
+      </c>
+      <c r="H17" t="n">
         <v>5.739833333333335</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1131,25 @@
         <v>100000</v>
       </c>
       <c r="G18" t="n">
+        <v>5.821399999999998</v>
+      </c>
+      <c r="H18" t="n">
         <v>5.746783333333336</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1173,25 @@
         <v>24120.8966</v>
       </c>
       <c r="G19" t="n">
+        <v>5.833199999999999</v>
+      </c>
+      <c r="H19" t="n">
         <v>5.754650000000002</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1215,25 @@
         <v>11878</v>
       </c>
       <c r="G20" t="n">
+        <v>5.851866666666665</v>
+      </c>
+      <c r="H20" t="n">
         <v>5.762166666666669</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1257,25 @@
         <v>90733.70419999999</v>
       </c>
       <c r="G21" t="n">
+        <v>5.876266666666665</v>
+      </c>
+      <c r="H21" t="n">
         <v>5.769683333333336</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1299,25 @@
         <v>83</v>
       </c>
       <c r="G22" t="n">
+        <v>5.900266666666666</v>
+      </c>
+      <c r="H22" t="n">
         <v>5.779050000000002</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1341,25 @@
         <v>10542.9504</v>
       </c>
       <c r="G23" t="n">
+        <v>5.921133333333333</v>
+      </c>
+      <c r="H23" t="n">
         <v>5.788566666666669</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1383,25 @@
         <v>994129.2731</v>
       </c>
       <c r="G24" t="n">
+        <v>5.9552</v>
+      </c>
+      <c r="H24" t="n">
         <v>5.800100000000001</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1425,25 @@
         <v>1983261.3161</v>
       </c>
       <c r="G25" t="n">
+        <v>6.011466666666666</v>
+      </c>
+      <c r="H25" t="n">
         <v>5.818900000000002</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1467,25 @@
         <v>3592434.228481663</v>
       </c>
       <c r="G26" t="n">
+        <v>6.091399999999999</v>
+      </c>
+      <c r="H26" t="n">
         <v>5.843233333333336</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1509,25 @@
         <v>226147.2055</v>
       </c>
       <c r="G27" t="n">
+        <v>6.160666666666667</v>
+      </c>
+      <c r="H27" t="n">
         <v>5.867250000000002</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1551,25 @@
         <v>28114.3264</v>
       </c>
       <c r="G28" t="n">
+        <v>6.2172</v>
+      </c>
+      <c r="H28" t="n">
         <v>5.887383333333335</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1593,25 @@
         <v>88</v>
       </c>
       <c r="G29" t="n">
+        <v>6.245866666666667</v>
+      </c>
+      <c r="H29" t="n">
         <v>5.897716666666668</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1635,25 @@
         <v>1670302.4699</v>
       </c>
       <c r="G30" t="n">
+        <v>6.316533333333334</v>
+      </c>
+      <c r="H30" t="n">
         <v>5.918550000000002</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1677,25 @@
         <v>211151.0984</v>
       </c>
       <c r="G31" t="n">
+        <v>6.393800000000001</v>
+      </c>
+      <c r="H31" t="n">
         <v>5.940366666666668</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,20 +1719,25 @@
         <v>520388.9861</v>
       </c>
       <c r="G32" t="n">
+        <v>6.464466666666667</v>
+      </c>
+      <c r="H32" t="n">
         <v>5.960666666666668</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>1</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1533,18 +1759,21 @@
         <v>146887.8625</v>
       </c>
       <c r="G33" t="n">
+        <v>6.529133333333334</v>
+      </c>
+      <c r="H33" t="n">
         <v>5.976266666666668</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1797,21 @@
         <v>72</v>
       </c>
       <c r="G34" t="n">
+        <v>6.599266666666667</v>
+      </c>
+      <c r="H34" t="n">
         <v>5.996250000000002</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1835,21 @@
         <v>178876.2566</v>
       </c>
       <c r="G35" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="H35" t="n">
         <v>6.012600000000002</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1873,21 @@
         <v>269021.8493</v>
       </c>
       <c r="G36" t="n">
+        <v>6.7038</v>
+      </c>
+      <c r="H36" t="n">
         <v>6.029050000000001</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1911,21 @@
         <v>236675</v>
       </c>
       <c r="G37" t="n">
+        <v>6.738733333333332</v>
+      </c>
+      <c r="H37" t="n">
         <v>6.043066666666666</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1949,21 @@
         <v>367685.6492</v>
       </c>
       <c r="G38" t="n">
+        <v>6.767333333333331</v>
+      </c>
+      <c r="H38" t="n">
         <v>6.056266666666667</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1987,21 @@
         <v>35781.0301</v>
       </c>
       <c r="G39" t="n">
+        <v>6.788266666666664</v>
+      </c>
+      <c r="H39" t="n">
         <v>6.069183333333332</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +2025,21 @@
         <v>205182.036</v>
       </c>
       <c r="G40" t="n">
+        <v>6.779933333333331</v>
+      </c>
+      <c r="H40" t="n">
         <v>6.0821</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +2063,21 @@
         <v>197555.7679</v>
       </c>
       <c r="G41" t="n">
+        <v>6.734933333333331</v>
+      </c>
+      <c r="H41" t="n">
         <v>6.092666666666667</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2101,21 @@
         <v>38633.2177</v>
       </c>
       <c r="G42" t="n">
+        <v>6.705733333333331</v>
+      </c>
+      <c r="H42" t="n">
         <v>6.106333333333334</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2139,21 @@
         <v>312281.9704</v>
       </c>
       <c r="G43" t="n">
+        <v>6.687266666666664</v>
+      </c>
+      <c r="H43" t="n">
         <v>6.1185</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2177,21 @@
         <v>630431.3940139846</v>
       </c>
       <c r="G44" t="n">
+        <v>6.695933333333331</v>
+      </c>
+      <c r="H44" t="n">
         <v>6.132933333333333</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2215,21 @@
         <v>180408.5341350734</v>
       </c>
       <c r="G45" t="n">
+        <v>6.66453333333333</v>
+      </c>
+      <c r="H45" t="n">
         <v>6.146933333333333</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2253,21 @@
         <v>180</v>
       </c>
       <c r="G46" t="n">
+        <v>6.615666666666664</v>
+      </c>
+      <c r="H46" t="n">
         <v>6.15755</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2291,21 @@
         <v>11362.496</v>
       </c>
       <c r="G47" t="n">
+        <v>6.57413333333333</v>
+      </c>
+      <c r="H47" t="n">
         <v>6.1705</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2329,21 @@
         <v>30716.188</v>
       </c>
       <c r="G48" t="n">
+        <v>6.538466666666664</v>
+      </c>
+      <c r="H48" t="n">
         <v>6.181366666666666</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2367,21 @@
         <v>100</v>
       </c>
       <c r="G49" t="n">
+        <v>6.504866666666664</v>
+      </c>
+      <c r="H49" t="n">
         <v>6.194133333333334</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2405,21 @@
         <v>171277.5409</v>
       </c>
       <c r="G50" t="n">
+        <v>6.478266666666665</v>
+      </c>
+      <c r="H50" t="n">
         <v>6.204366666666667</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2443,21 @@
         <v>275.3209</v>
       </c>
       <c r="G51" t="n">
+        <v>6.444133333333331</v>
+      </c>
+      <c r="H51" t="n">
         <v>6.21335</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2481,21 @@
         <v>99046.3265</v>
       </c>
       <c r="G52" t="n">
+        <v>6.428999999999998</v>
+      </c>
+      <c r="H52" t="n">
         <v>6.223316666666666</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>1</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2519,21 @@
         <v>67062.9232</v>
       </c>
       <c r="G53" t="n">
+        <v>6.415333333333332</v>
+      </c>
+      <c r="H53" t="n">
         <v>6.231266666666667</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2557,21 @@
         <v>3472.2327</v>
       </c>
       <c r="G54" t="n">
+        <v>6.395266666666665</v>
+      </c>
+      <c r="H54" t="n">
         <v>6.237666666666667</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2595,21 @@
         <v>700000</v>
       </c>
       <c r="G55" t="n">
+        <v>6.370266666666665</v>
+      </c>
+      <c r="H55" t="n">
         <v>6.240216666666667</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2633,21 @@
         <v>800080</v>
       </c>
       <c r="G56" t="n">
+        <v>6.370333333333332</v>
+      </c>
+      <c r="H56" t="n">
         <v>6.246533333333333</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2671,21 @@
         <v>20000</v>
       </c>
       <c r="G57" t="n">
+        <v>6.332733333333333</v>
+      </c>
+      <c r="H57" t="n">
         <v>6.246349999999999</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,22 +2709,21 @@
         <v>18571.0025</v>
       </c>
       <c r="G58" t="n">
+        <v>6.295999999999998</v>
+      </c>
+      <c r="H58" t="n">
         <v>6.247583333333333</v>
       </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="K58" t="n">
-        <v>5.936</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2447,26 +2747,21 @@
         <v>170852.5421</v>
       </c>
       <c r="G59" t="n">
+        <v>6.258333333333332</v>
+      </c>
+      <c r="H59" t="n">
         <v>6.248583333333332</v>
       </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>5.949</v>
-      </c>
-      <c r="K59" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,26 +2785,21 @@
         <v>49488.3008</v>
       </c>
       <c r="G60" t="n">
+        <v>6.214266666666665</v>
+      </c>
+      <c r="H60" t="n">
         <v>6.248499999999999</v>
       </c>
-      <c r="H60" t="n">
-        <v>1</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>5.935</v>
-      </c>
-      <c r="K60" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2533,24 +2823,21 @@
         <v>9336.788200000001</v>
       </c>
       <c r="G61" t="n">
+        <v>6.177999999999999</v>
+      </c>
+      <c r="H61" t="n">
         <v>6.247616666666667</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2574,26 +2861,21 @@
         <v>88</v>
       </c>
       <c r="G62" t="n">
+        <v>6.150066666666666</v>
+      </c>
+      <c r="H62" t="n">
         <v>6.250166666666667</v>
       </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>5.822</v>
-      </c>
-      <c r="K62" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2617,24 +2899,21 @@
         <v>73841.2041</v>
       </c>
       <c r="G63" t="n">
+        <v>6.117333333333333</v>
+      </c>
+      <c r="H63" t="n">
         <v>6.251583333333333</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2658,24 +2937,21 @@
         <v>100000</v>
       </c>
       <c r="G64" t="n">
+        <v>6.081533333333332</v>
+      </c>
+      <c r="H64" t="n">
         <v>6.254716666666667</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2699,24 +2975,21 @@
         <v>10675.2509</v>
       </c>
       <c r="G65" t="n">
+        <v>6.056799999999999</v>
+      </c>
+      <c r="H65" t="n">
         <v>6.259233333333333</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2740,24 +3013,21 @@
         <v>282634.9813</v>
       </c>
       <c r="G66" t="n">
+        <v>6.032466666666665</v>
+      </c>
+      <c r="H66" t="n">
         <v>6.264166666666668</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2781,24 +3051,21 @@
         <v>17905.0496</v>
       </c>
       <c r="G67" t="n">
+        <v>6.004199999999998</v>
+      </c>
+      <c r="H67" t="n">
         <v>6.268050000000001</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2822,24 +3089,21 @@
         <v>453704.6145</v>
       </c>
       <c r="G68" t="n">
+        <v>5.974533333333332</v>
+      </c>
+      <c r="H68" t="n">
         <v>6.269583333333334</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,24 +3127,21 @@
         <v>104671.5793</v>
       </c>
       <c r="G69" t="n">
+        <v>5.941599999999998</v>
+      </c>
+      <c r="H69" t="n">
         <v>6.270083333333334</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2904,24 +3165,21 @@
         <v>238745.6546</v>
       </c>
       <c r="G70" t="n">
+        <v>5.916933333333333</v>
+      </c>
+      <c r="H70" t="n">
         <v>6.269650000000001</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2945,24 +3203,21 @@
         <v>43321.3506</v>
       </c>
       <c r="G71" t="n">
+        <v>5.876733333333332</v>
+      </c>
+      <c r="H71" t="n">
         <v>6.268350000000001</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2986,24 +3241,21 @@
         <v>32599.563</v>
       </c>
       <c r="G72" t="n">
+        <v>5.870933333333332</v>
+      </c>
+      <c r="H72" t="n">
         <v>6.267516666666667</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3027,24 +3279,21 @@
         <v>136941.9883</v>
       </c>
       <c r="G73" t="n">
+        <v>5.8584</v>
+      </c>
+      <c r="H73" t="n">
         <v>6.264716666666668</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3068,24 +3317,21 @@
         <v>134389.1258</v>
       </c>
       <c r="G74" t="n">
+        <v>5.854666666666666</v>
+      </c>
+      <c r="H74" t="n">
         <v>6.263700000000002</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3109,24 +3355,21 @@
         <v>18478.2015</v>
       </c>
       <c r="G75" t="n">
+        <v>5.8554</v>
+      </c>
+      <c r="H75" t="n">
         <v>6.262683333333336</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3150,24 +3393,21 @@
         <v>90914.182</v>
       </c>
       <c r="G76" t="n">
+        <v>5.8526</v>
+      </c>
+      <c r="H76" t="n">
         <v>6.260016666666669</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3191,26 +3431,21 @@
         <v>5962.8542</v>
       </c>
       <c r="G77" t="n">
+        <v>5.841333333333334</v>
+      </c>
+      <c r="H77" t="n">
         <v>6.257500000000002</v>
       </c>
-      <c r="H77" t="n">
-        <v>1</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>5.78</v>
-      </c>
-      <c r="K77" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3234,24 +3469,21 @@
         <v>456.2226</v>
       </c>
       <c r="G78" t="n">
+        <v>5.835466666666666</v>
+      </c>
+      <c r="H78" t="n">
         <v>6.255100000000001</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3275,24 +3507,21 @@
         <v>13317.2655</v>
       </c>
       <c r="G79" t="n">
+        <v>5.836266666666666</v>
+      </c>
+      <c r="H79" t="n">
         <v>6.255483333333335</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3316,24 +3545,21 @@
         <v>8547.799999999999</v>
       </c>
       <c r="G80" t="n">
+        <v>5.8362</v>
+      </c>
+      <c r="H80" t="n">
         <v>6.255316666666669</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3357,24 +3583,21 @@
         <v>2982.4013</v>
       </c>
       <c r="G81" t="n">
+        <v>5.837</v>
+      </c>
+      <c r="H81" t="n">
         <v>6.254350000000002</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3398,24 +3621,21 @@
         <v>68718.35400000001</v>
       </c>
       <c r="G82" t="n">
+        <v>5.842333333333332</v>
+      </c>
+      <c r="H82" t="n">
         <v>6.25356666666667</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3439,24 +3659,21 @@
         <v>29211.45</v>
       </c>
       <c r="G83" t="n">
+        <v>5.854733333333332</v>
+      </c>
+      <c r="H83" t="n">
         <v>6.252983333333336</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3480,24 +3697,21 @@
         <v>3328.527</v>
       </c>
       <c r="G84" t="n">
+        <v>5.870666666666666</v>
+      </c>
+      <c r="H84" t="n">
         <v>6.248950000000003</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3521,24 +3735,21 @@
         <v>70243.2399</v>
       </c>
       <c r="G85" t="n">
+        <v>5.889333333333332</v>
+      </c>
+      <c r="H85" t="n">
         <v>6.23911666666667</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3562,24 +3773,21 @@
         <v>1764.9045</v>
       </c>
       <c r="G86" t="n">
+        <v>5.908933333333334</v>
+      </c>
+      <c r="H86" t="n">
         <v>6.222733333333336</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3603,24 +3811,21 @@
         <v>22286.7153</v>
       </c>
       <c r="G87" t="n">
+        <v>5.919</v>
+      </c>
+      <c r="H87" t="n">
         <v>6.207100000000002</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3644,24 +3849,21 @@
         <v>169.0319</v>
       </c>
       <c r="G88" t="n">
+        <v>5.936000000000001</v>
+      </c>
+      <c r="H88" t="n">
         <v>6.19441666666667</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3685,24 +3887,21 @@
         <v>74669.26300000001</v>
       </c>
       <c r="G89" t="n">
+        <v>5.938800000000001</v>
+      </c>
+      <c r="H89" t="n">
         <v>6.186933333333337</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3726,24 +3925,21 @@
         <v>51957.9365</v>
       </c>
       <c r="G90" t="n">
+        <v>5.9416</v>
+      </c>
+      <c r="H90" t="n">
         <v>6.168950000000003</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3767,24 +3963,21 @@
         <v>553382.8219450156</v>
       </c>
       <c r="G91" t="n">
+        <v>5.982933333333334</v>
+      </c>
+      <c r="H91" t="n">
         <v>6.157300000000003</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,24 +4001,21 @@
         <v>3529.034327879371</v>
       </c>
       <c r="G92" t="n">
+        <v>6.012600000000001</v>
+      </c>
+      <c r="H92" t="n">
         <v>6.144533333333336</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3849,24 +4039,21 @@
         <v>164090.9878</v>
       </c>
       <c r="G93" t="n">
+        <v>6.032466666666666</v>
+      </c>
+      <c r="H93" t="n">
         <v>6.130933333333336</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3890,24 +4077,21 @@
         <v>11607.30303502455</v>
       </c>
       <c r="G94" t="n">
+        <v>6.041133333333333</v>
+      </c>
+      <c r="H94" t="n">
         <v>6.115950000000002</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3931,24 +4115,21 @@
         <v>36521.4226</v>
       </c>
       <c r="G95" t="n">
+        <v>6.045133333333333</v>
+      </c>
+      <c r="H95" t="n">
         <v>6.104100000000003</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3972,24 +4153,21 @@
         <v>5576.7151</v>
       </c>
       <c r="G96" t="n">
+        <v>6.0512</v>
+      </c>
+      <c r="H96" t="n">
         <v>6.091200000000002</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4013,24 +4191,21 @@
         <v>111728.5831</v>
       </c>
       <c r="G97" t="n">
+        <v>6.045266666666667</v>
+      </c>
+      <c r="H97" t="n">
         <v>6.080200000000003</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4054,24 +4229,21 @@
         <v>864.3609</v>
       </c>
       <c r="G98" t="n">
+        <v>6.039533333333334</v>
+      </c>
+      <c r="H98" t="n">
         <v>6.071033333333337</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4095,24 +4267,21 @@
         <v>11607.303</v>
       </c>
       <c r="G99" t="n">
+        <v>6.033733333333333</v>
+      </c>
+      <c r="H99" t="n">
         <v>6.060316666666671</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4136,24 +4305,21 @@
         <v>9771.2701</v>
       </c>
       <c r="G100" t="n">
+        <v>6.027933333333333</v>
+      </c>
+      <c r="H100" t="n">
         <v>6.051116666666671</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4177,24 +4343,21 @@
         <v>70701.7099</v>
       </c>
       <c r="G101" t="n">
+        <v>6.0202</v>
+      </c>
+      <c r="H101" t="n">
         <v>6.044050000000003</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4218,24 +4381,21 @@
         <v>217976.8276</v>
       </c>
       <c r="G102" t="n">
+        <v>6.015</v>
+      </c>
+      <c r="H102" t="n">
         <v>6.034416666666671</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4259,24 +4419,21 @@
         <v>3529.0344</v>
       </c>
       <c r="G103" t="n">
+        <v>6.009266666666666</v>
+      </c>
+      <c r="H103" t="n">
         <v>6.02491666666667</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4300,24 +4457,21 @@
         <v>83</v>
       </c>
       <c r="G104" t="n">
+        <v>6.017733333333333</v>
+      </c>
+      <c r="H104" t="n">
         <v>6.017383333333338</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4341,24 +4495,21 @@
         <v>427877.2004</v>
       </c>
       <c r="G105" t="n">
+        <v>6.029666666666666</v>
+      </c>
+      <c r="H105" t="n">
         <v>6.010233333333337</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4382,24 +4533,21 @@
         <v>3359.4266</v>
       </c>
       <c r="G106" t="n">
+        <v>6.008999999999999</v>
+      </c>
+      <c r="H106" t="n">
         <v>6.005633333333337</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4423,24 +4571,21 @@
         <v>32345.0294</v>
       </c>
       <c r="G107" t="n">
+        <v>6.001399999999999</v>
+      </c>
+      <c r="H107" t="n">
         <v>6.001350000000004</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4464,24 +4609,21 @@
         <v>20001</v>
       </c>
       <c r="G108" t="n">
+        <v>6.002733333333333</v>
+      </c>
+      <c r="H108" t="n">
         <v>5.997000000000004</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4505,24 +4647,21 @@
         <v>8274.558000000001</v>
       </c>
       <c r="G109" t="n">
+        <v>6.005066666666667</v>
+      </c>
+      <c r="H109" t="n">
         <v>5.991000000000004</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4546,24 +4685,21 @@
         <v>100</v>
       </c>
       <c r="G110" t="n">
+        <v>6.026333333333334</v>
+      </c>
+      <c r="H110" t="n">
         <v>5.991116666666671</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4587,24 +4723,21 @@
         <v>127423.7481</v>
       </c>
       <c r="G111" t="n">
+        <v>6.043400000000001</v>
+      </c>
+      <c r="H111" t="n">
         <v>5.991016666666671</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4628,24 +4761,21 @@
         <v>93930.5241</v>
       </c>
       <c r="G112" t="n">
+        <v>6.056733333333335</v>
+      </c>
+      <c r="H112" t="n">
         <v>5.987133333333338</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4669,24 +4799,21 @@
         <v>63590.9562</v>
       </c>
       <c r="G113" t="n">
+        <v>6.067000000000001</v>
+      </c>
+      <c r="H113" t="n">
         <v>5.983950000000005</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4710,24 +4837,21 @@
         <v>400.211</v>
       </c>
       <c r="G114" t="n">
+        <v>6.0868</v>
+      </c>
+      <c r="H114" t="n">
         <v>5.983200000000005</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4751,24 +4875,21 @@
         <v>267.672</v>
       </c>
       <c r="G115" t="n">
+        <v>6.101866666666667</v>
+      </c>
+      <c r="H115" t="n">
         <v>5.984016666666672</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4792,24 +4913,21 @@
         <v>5811.053</v>
       </c>
       <c r="G116" t="n">
+        <v>6.115866666666666</v>
+      </c>
+      <c r="H116" t="n">
         <v>5.980433333333338</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4833,24 +4951,21 @@
         <v>5493.4505</v>
       </c>
       <c r="G117" t="n">
+        <v>6.126066666666667</v>
+      </c>
+      <c r="H117" t="n">
         <v>5.982750000000006</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4874,24 +4989,21 @@
         <v>199094.1889</v>
       </c>
       <c r="G118" t="n">
+        <v>6.117466666666667</v>
+      </c>
+      <c r="H118" t="n">
         <v>5.980283333333338</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4915,24 +5027,21 @@
         <v>488279.5468</v>
       </c>
       <c r="G119" t="n">
+        <v>6.101666666666667</v>
+      </c>
+      <c r="H119" t="n">
         <v>5.978216666666671</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4956,24 +5065,21 @@
         <v>3990.157</v>
       </c>
       <c r="G120" t="n">
+        <v>6.0902</v>
+      </c>
+      <c r="H120" t="n">
         <v>5.979216666666671</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4997,24 +5103,21 @@
         <v>85393.9176</v>
       </c>
       <c r="G121" t="n">
+        <v>6.077133333333334</v>
+      </c>
+      <c r="H121" t="n">
         <v>5.980416666666671</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5038,24 +5141,21 @@
         <v>100</v>
       </c>
       <c r="G122" t="n">
+        <v>6.066466666666667</v>
+      </c>
+      <c r="H122" t="n">
         <v>5.980450000000004</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5079,24 +5179,21 @@
         <v>270468.787</v>
       </c>
       <c r="G123" t="n">
+        <v>6.0558</v>
+      </c>
+      <c r="H123" t="n">
         <v>5.98161666666667</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5120,24 +5217,21 @@
         <v>0.0004</v>
       </c>
       <c r="G124" t="n">
+        <v>6.044199999999999</v>
+      </c>
+      <c r="H124" t="n">
         <v>5.98166666666667</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5161,24 +5255,21 @@
         <v>90</v>
       </c>
       <c r="G125" t="n">
+        <v>6.019666666666665</v>
+      </c>
+      <c r="H125" t="n">
         <v>5.981833333333337</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5202,24 +5293,21 @@
         <v>15126.8154</v>
       </c>
       <c r="G126" t="n">
+        <v>6.000466666666664</v>
+      </c>
+      <c r="H126" t="n">
         <v>5.98301666666667</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5243,24 +5331,21 @@
         <v>90</v>
       </c>
       <c r="G127" t="n">
+        <v>5.992533333333331</v>
+      </c>
+      <c r="H127" t="n">
         <v>5.984216666666669</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5284,24 +5369,21 @@
         <v>2900</v>
       </c>
       <c r="G128" t="n">
+        <v>5.986799999999998</v>
+      </c>
+      <c r="H128" t="n">
         <v>5.98701666666667</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5325,24 +5407,21 @@
         <v>90</v>
       </c>
       <c r="G129" t="n">
+        <v>5.971533333333331</v>
+      </c>
+      <c r="H129" t="n">
         <v>5.990683333333337</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5366,24 +5445,21 @@
         <v>100</v>
       </c>
       <c r="G130" t="n">
+        <v>5.966799999999997</v>
+      </c>
+      <c r="H130" t="n">
         <v>5.996483333333336</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5407,24 +5483,21 @@
         <v>3944.8356</v>
       </c>
       <c r="G131" t="n">
+        <v>5.958866666666665</v>
+      </c>
+      <c r="H131" t="n">
         <v>6.000966666666669</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5448,24 +5521,21 @@
         <v>37632.0811</v>
       </c>
       <c r="G132" t="n">
+        <v>5.958466666666665</v>
+      </c>
+      <c r="H132" t="n">
         <v>6.004633333333336</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5489,24 +5559,21 @@
         <v>4510</v>
       </c>
       <c r="G133" t="n">
+        <v>5.972866666666664</v>
+      </c>
+      <c r="H133" t="n">
         <v>6.008900000000002</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5530,24 +5597,21 @@
         <v>22070.4729</v>
       </c>
       <c r="G134" t="n">
+        <v>5.986799999999998</v>
+      </c>
+      <c r="H134" t="n">
         <v>6.011250000000002</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5571,24 +5635,21 @@
         <v>100000</v>
       </c>
       <c r="G135" t="n">
+        <v>5.991999999999998</v>
+      </c>
+      <c r="H135" t="n">
         <v>6.013366666666669</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5612,24 +5673,21 @@
         <v>40164.043</v>
       </c>
       <c r="G136" t="n">
+        <v>5.999466666666664</v>
+      </c>
+      <c r="H136" t="n">
         <v>6.017133333333335</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5653,24 +5711,21 @@
         <v>83</v>
       </c>
       <c r="G137" t="n">
+        <v>6.006799999999997</v>
+      </c>
+      <c r="H137" t="n">
         <v>6.021816666666669</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5694,24 +5749,21 @@
         <v>40072.2516</v>
       </c>
       <c r="G138" t="n">
+        <v>6.008133333333332</v>
+      </c>
+      <c r="H138" t="n">
         <v>6.024783333333335</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5735,24 +5787,21 @@
         <v>369516.0811</v>
       </c>
       <c r="G139" t="n">
+        <v>5.998866666666665</v>
+      </c>
+      <c r="H139" t="n">
         <v>6.022316666666669</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5776,24 +5825,21 @@
         <v>600</v>
       </c>
       <c r="G140" t="n">
+        <v>5.986666666666665</v>
+      </c>
+      <c r="H140" t="n">
         <v>6.019450000000002</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5817,24 +5863,21 @@
         <v>330</v>
       </c>
       <c r="G141" t="n">
+        <v>5.974466666666666</v>
+      </c>
+      <c r="H141" t="n">
         <v>6.017383333333334</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5858,24 +5901,21 @@
         <v>100</v>
       </c>
       <c r="G142" t="n">
+        <v>5.968866666666666</v>
+      </c>
+      <c r="H142" t="n">
         <v>6.015850000000001</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5899,24 +5939,21 @@
         <v>100</v>
       </c>
       <c r="G143" t="n">
+        <v>5.956199999999999</v>
+      </c>
+      <c r="H143" t="n">
         <v>6.012383333333335</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5940,24 +5977,21 @@
         <v>200</v>
       </c>
       <c r="G144" t="n">
+        <v>5.951466666666666</v>
+      </c>
+      <c r="H144" t="n">
         <v>6.010883333333335</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5981,24 +6015,21 @@
         <v>4016.7521</v>
       </c>
       <c r="G145" t="n">
+        <v>5.938866666666666</v>
+      </c>
+      <c r="H145" t="n">
         <v>6.008866666666668</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6022,24 +6053,21 @@
         <v>3059.122</v>
       </c>
       <c r="G146" t="n">
+        <v>5.926399999999999</v>
+      </c>
+      <c r="H146" t="n">
         <v>6.005333333333335</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6063,24 +6091,21 @@
         <v>44978.2322</v>
       </c>
       <c r="G147" t="n">
+        <v>5.911733333333332</v>
+      </c>
+      <c r="H147" t="n">
         <v>6.002816666666667</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6104,24 +6129,21 @@
         <v>48650.0729</v>
       </c>
       <c r="G148" t="n">
+        <v>5.897333333333333</v>
+      </c>
+      <c r="H148" t="n">
         <v>5.999233333333334</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6145,24 +6167,21 @@
         <v>100</v>
       </c>
       <c r="G149" t="n">
+        <v>5.885333333333334</v>
+      </c>
+      <c r="H149" t="n">
         <v>5.997883333333333</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6186,24 +6205,21 @@
         <v>11149</v>
       </c>
       <c r="G150" t="n">
+        <v>5.872933333333333</v>
+      </c>
+      <c r="H150" t="n">
         <v>5.9962</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6227,24 +6243,21 @@
         <v>401</v>
       </c>
       <c r="G151" t="n">
+        <v>5.859599999999999</v>
+      </c>
+      <c r="H151" t="n">
         <v>5.9863</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6268,24 +6281,21 @@
         <v>34250.0908</v>
       </c>
       <c r="G152" t="n">
+        <v>5.841933333333333</v>
+      </c>
+      <c r="H152" t="n">
         <v>5.979150000000001</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6309,24 +6319,21 @@
         <v>130067.6995</v>
       </c>
       <c r="G153" t="n">
+        <v>5.831066666666667</v>
+      </c>
+      <c r="H153" t="n">
         <v>5.974433333333334</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6350,24 +6357,21 @@
         <v>40365.2864</v>
       </c>
       <c r="G154" t="n">
+        <v>5.829599999999999</v>
+      </c>
+      <c r="H154" t="n">
         <v>5.969433333333333</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6391,24 +6395,21 @@
         <v>51142.9379</v>
       </c>
       <c r="G155" t="n">
+        <v>5.829733333333333</v>
+      </c>
+      <c r="H155" t="n">
         <v>5.9656</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6432,24 +6433,21 @@
         <v>18857.062</v>
       </c>
       <c r="G156" t="n">
+        <v>5.829866666666665</v>
+      </c>
+      <c r="H156" t="n">
         <v>5.962050000000001</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6473,24 +6471,21 @@
         <v>14697.5075</v>
       </c>
       <c r="G157" t="n">
+        <v>5.819999999999999</v>
+      </c>
+      <c r="H157" t="n">
         <v>5.959533333333335</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6514,24 +6509,21 @@
         <v>8583.603300000001</v>
       </c>
       <c r="G158" t="n">
+        <v>5.816666666666666</v>
+      </c>
+      <c r="H158" t="n">
         <v>5.956666666666667</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6555,24 +6547,21 @@
         <v>6462.478</v>
       </c>
       <c r="G159" t="n">
+        <v>5.801399999999999</v>
+      </c>
+      <c r="H159" t="n">
         <v>5.9528</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6596,24 +6585,21 @@
         <v>8224.9722</v>
       </c>
       <c r="G160" t="n">
+        <v>5.788133333333333</v>
+      </c>
+      <c r="H160" t="n">
         <v>5.948916666666666</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6637,24 +6623,21 @@
         <v>23271.0536</v>
       </c>
       <c r="G161" t="n">
+        <v>5.775199999999999</v>
+      </c>
+      <c r="H161" t="n">
         <v>5.944083333333334</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6678,24 +6661,21 @@
         <v>59787.9385</v>
       </c>
       <c r="G162" t="n">
+        <v>5.760266666666666</v>
+      </c>
+      <c r="H162" t="n">
         <v>5.939133333333333</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6719,24 +6699,21 @@
         <v>100</v>
       </c>
       <c r="G163" t="n">
+        <v>5.756799999999998</v>
+      </c>
+      <c r="H163" t="n">
         <v>5.936116666666667</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6760,24 +6737,21 @@
         <v>40365.2864</v>
       </c>
       <c r="G164" t="n">
+        <v>5.742466666666664</v>
+      </c>
+      <c r="H164" t="n">
         <v>5.929066666666667</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6801,24 +6775,21 @@
         <v>126029.1617</v>
       </c>
       <c r="G165" t="n">
+        <v>5.736466666666664</v>
+      </c>
+      <c r="H165" t="n">
         <v>5.9229</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6842,24 +6813,21 @@
         <v>41868</v>
       </c>
       <c r="G166" t="n">
+        <v>5.731933333333331</v>
+      </c>
+      <c r="H166" t="n">
         <v>5.917033333333334</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6883,24 +6851,21 @@
         <v>23492.7067</v>
       </c>
       <c r="G167" t="n">
+        <v>5.729333333333331</v>
+      </c>
+      <c r="H167" t="n">
         <v>5.911133333333335</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6924,24 +6889,21 @@
         <v>1758.0872</v>
       </c>
       <c r="G168" t="n">
+        <v>5.727533333333332</v>
+      </c>
+      <c r="H168" t="n">
         <v>5.905633333333335</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6965,24 +6927,21 @@
         <v>27973.3825</v>
       </c>
       <c r="G169" t="n">
+        <v>5.733466666666666</v>
+      </c>
+      <c r="H169" t="n">
         <v>5.901533333333335</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7006,24 +6965,21 @@
         <v>72026.61749999999</v>
       </c>
       <c r="G170" t="n">
+        <v>5.739399999999999</v>
+      </c>
+      <c r="H170" t="n">
         <v>5.893866666666669</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7047,24 +7003,21 @@
         <v>85</v>
       </c>
       <c r="G171" t="n">
+        <v>5.746466666666666</v>
+      </c>
+      <c r="H171" t="n">
         <v>5.887816666666668</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7088,24 +7041,21 @@
         <v>25068.917</v>
       </c>
       <c r="G172" t="n">
+        <v>5.750066666666666</v>
+      </c>
+      <c r="H172" t="n">
         <v>5.882866666666668</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7129,24 +7079,21 @@
         <v>85</v>
       </c>
       <c r="G173" t="n">
+        <v>5.760333333333333</v>
+      </c>
+      <c r="H173" t="n">
         <v>5.880000000000001</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7170,24 +7117,21 @@
         <v>24983.917</v>
       </c>
       <c r="G174" t="n">
+        <v>5.774599999999999</v>
+      </c>
+      <c r="H174" t="n">
         <v>5.874750000000001</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7211,24 +7155,21 @@
         <v>194025.7021</v>
       </c>
       <c r="G175" t="n">
+        <v>5.789</v>
+      </c>
+      <c r="H175" t="n">
         <v>5.870700000000001</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7252,24 +7193,401 @@
         <v>28942.7114</v>
       </c>
       <c r="G176" t="n">
+        <v>5.813666666666666</v>
+      </c>
+      <c r="H176" t="n">
         <v>5.868533333333334</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>5.827</v>
+      </c>
+      <c r="C177" t="n">
+        <v>5.827</v>
+      </c>
+      <c r="D177" t="n">
+        <v>5.827</v>
+      </c>
+      <c r="E177" t="n">
+        <v>5.827</v>
+      </c>
+      <c r="F177" t="n">
+        <v>2181.3479</v>
+      </c>
+      <c r="G177" t="n">
+        <v>5.827133333333333</v>
+      </c>
+      <c r="H177" t="n">
+        <v>5.864400000000002</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>5.957</v>
+      </c>
+      <c r="C178" t="n">
+        <v>5.957</v>
+      </c>
+      <c r="D178" t="n">
+        <v>5.957</v>
+      </c>
+      <c r="E178" t="n">
+        <v>5.957</v>
+      </c>
+      <c r="F178" t="n">
+        <v>141.6787</v>
+      </c>
+      <c r="G178" t="n">
+        <v>5.840999999999999</v>
+      </c>
+      <c r="H178" t="n">
+        <v>5.867000000000002</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>5.829</v>
+      </c>
+      <c r="C179" t="n">
+        <v>5.829</v>
+      </c>
+      <c r="D179" t="n">
+        <v>5.829</v>
+      </c>
+      <c r="E179" t="n">
+        <v>5.829</v>
+      </c>
+      <c r="F179" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G179" t="n">
+        <v>5.8546</v>
+      </c>
+      <c r="H179" t="n">
+        <v>5.867300000000002</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>5.828</v>
+      </c>
+      <c r="C180" t="n">
+        <v>5.828</v>
+      </c>
+      <c r="D180" t="n">
+        <v>5.828</v>
+      </c>
+      <c r="E180" t="n">
+        <v>5.828</v>
+      </c>
+      <c r="F180" t="n">
+        <v>3377.2423</v>
+      </c>
+      <c r="G180" t="n">
+        <v>5.861133333333332</v>
+      </c>
+      <c r="H180" t="n">
+        <v>5.865633333333335</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>5.923</v>
+      </c>
+      <c r="C181" t="n">
+        <v>6.029</v>
+      </c>
+      <c r="D181" t="n">
+        <v>6.029</v>
+      </c>
+      <c r="E181" t="n">
+        <v>5.923</v>
+      </c>
+      <c r="F181" t="n">
+        <v>122181.348</v>
+      </c>
+      <c r="G181" t="n">
+        <v>5.880533333333332</v>
+      </c>
+      <c r="H181" t="n">
+        <v>5.867883333333335</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="C182" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="D182" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="E182" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="F182" t="n">
+        <v>22000</v>
+      </c>
+      <c r="G182" t="n">
+        <v>5.891466666666664</v>
+      </c>
+      <c r="H182" t="n">
+        <v>5.867383333333335</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="C183" t="n">
+        <v>5.923</v>
+      </c>
+      <c r="D183" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="E183" t="n">
+        <v>5.923</v>
+      </c>
+      <c r="F183" t="n">
+        <v>69163.4791</v>
+      </c>
+      <c r="G183" t="n">
+        <v>5.900333333333331</v>
+      </c>
+      <c r="H183" t="n">
+        <v>5.866766666666669</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>5.923</v>
+      </c>
+      <c r="C184" t="n">
+        <v>5.923</v>
+      </c>
+      <c r="D184" t="n">
+        <v>5.923</v>
+      </c>
+      <c r="E184" t="n">
+        <v>5.923</v>
+      </c>
+      <c r="F184" t="n">
+        <v>1010.8175</v>
+      </c>
+      <c r="G184" t="n">
+        <v>5.902599999999998</v>
+      </c>
+      <c r="H184" t="n">
+        <v>5.866133333333336</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5.923</v>
+      </c>
+      <c r="C185" t="n">
+        <v>5.898</v>
+      </c>
+      <c r="D185" t="n">
+        <v>5.923</v>
+      </c>
+      <c r="E185" t="n">
+        <v>5.898</v>
+      </c>
+      <c r="F185" t="n">
+        <v>10533.3538</v>
+      </c>
+      <c r="G185" t="n">
+        <v>5.903199999999998</v>
+      </c>
+      <c r="H185" t="n">
+        <v>5.864750000000003</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C186" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="D186" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="E186" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="F186" t="n">
+        <v>95.82859999999999</v>
+      </c>
+      <c r="G186" t="n">
+        <v>5.910133333333332</v>
+      </c>
+      <c r="H186" t="n">
+        <v>5.865233333333336</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-21 BackTest BZNT.xlsx
+++ b/BackTest/2020-01-21 BackTest BZNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M215"/>
+  <dimension ref="A1:N173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,31 +427,36 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.815</v>
+        <v>5.94</v>
       </c>
       <c r="C2" t="n">
-        <v>5.98</v>
+        <v>5.94</v>
       </c>
       <c r="D2" t="n">
-        <v>5.98</v>
+        <v>5.94</v>
       </c>
       <c r="E2" t="n">
-        <v>5.815</v>
+        <v>5.94</v>
       </c>
       <c r="F2" t="n">
-        <v>200000</v>
+        <v>148716.5695</v>
       </c>
       <c r="G2" t="n">
-        <v>190605.2772000002</v>
+        <v>-130110.1758051334</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -462,503 +467,583 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.8</v>
+        <v>5.94</v>
       </c>
       <c r="C3" t="n">
-        <v>5.8</v>
+        <v>5.94</v>
       </c>
       <c r="D3" t="n">
-        <v>5.8</v>
+        <v>5.94</v>
       </c>
       <c r="E3" t="n">
-        <v>5.8</v>
+        <v>5.94</v>
       </c>
       <c r="F3" t="n">
-        <v>94830.25</v>
+        <v>193997.8317</v>
       </c>
       <c r="G3" t="n">
-        <v>95775.02720000022</v>
+        <v>-130110.1758051334</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5.94</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.75</v>
+        <v>5.94</v>
       </c>
       <c r="C4" t="n">
-        <v>5.76</v>
+        <v>5.94</v>
       </c>
       <c r="D4" t="n">
-        <v>5.76</v>
+        <v>5.94</v>
       </c>
       <c r="E4" t="n">
-        <v>5.75</v>
+        <v>5.94</v>
       </c>
       <c r="F4" t="n">
-        <v>100000</v>
+        <v>5.133532876373e-06</v>
       </c>
       <c r="G4" t="n">
-        <v>-4224.972799999785</v>
+        <v>-130110.1758051334</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.82</v>
+        <v>5.946</v>
       </c>
       <c r="C5" t="n">
-        <v>5.8</v>
+        <v>5.946</v>
       </c>
       <c r="D5" t="n">
-        <v>5.82</v>
+        <v>5.946</v>
       </c>
       <c r="E5" t="n">
-        <v>5.8</v>
+        <v>5.946</v>
       </c>
       <c r="F5" t="n">
         <v>100000</v>
       </c>
       <c r="G5" t="n">
-        <v>95775.02720000022</v>
+        <v>-30110.17580513342</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="K5" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.823</v>
+        <v>5.947</v>
       </c>
       <c r="C6" t="n">
-        <v>5.72</v>
+        <v>5.947</v>
       </c>
       <c r="D6" t="n">
-        <v>5.823</v>
+        <v>5.947</v>
       </c>
       <c r="E6" t="n">
-        <v>5.72</v>
+        <v>5.947</v>
       </c>
       <c r="F6" t="n">
-        <v>100000</v>
+        <v>24120.8966</v>
       </c>
       <c r="G6" t="n">
-        <v>-4224.972799999785</v>
+        <v>-5989.279205133418</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>5.946</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5.946</v>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5.7</v>
+        <v>5.947</v>
       </c>
       <c r="C7" t="n">
-        <v>5.68</v>
+        <v>5.98</v>
       </c>
       <c r="D7" t="n">
-        <v>5.7</v>
+        <v>5.98</v>
       </c>
       <c r="E7" t="n">
-        <v>5.68</v>
+        <v>5.947</v>
       </c>
       <c r="F7" t="n">
-        <v>54400</v>
+        <v>11878</v>
       </c>
       <c r="G7" t="n">
-        <v>-58624.97279999978</v>
+        <v>5888.720794866582</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>5.947</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5.946</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5.79</v>
+        <v>5.98</v>
       </c>
       <c r="C8" t="n">
-        <v>5.79</v>
+        <v>5.98</v>
       </c>
       <c r="D8" t="n">
-        <v>5.79</v>
+        <v>5.98</v>
       </c>
       <c r="E8" t="n">
-        <v>5.79</v>
+        <v>5.98</v>
       </c>
       <c r="F8" t="n">
-        <v>90</v>
+        <v>90733.70419999999</v>
       </c>
       <c r="G8" t="n">
-        <v>-58534.97279999978</v>
+        <v>5888.720794866582</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="K8" t="n">
+        <v>5.946</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.7</v>
+        <v>6.037</v>
       </c>
       <c r="C9" t="n">
-        <v>5.7</v>
+        <v>6.037</v>
       </c>
       <c r="D9" t="n">
-        <v>5.7</v>
+        <v>6.037</v>
       </c>
       <c r="E9" t="n">
-        <v>5.7</v>
+        <v>6.037</v>
       </c>
       <c r="F9" t="n">
-        <v>1668.0872</v>
+        <v>83</v>
       </c>
       <c r="G9" t="n">
-        <v>-60203.05999999979</v>
+        <v>5971.720794866582</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="K9" t="n">
+        <v>5.98</v>
+      </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5.7</v>
+        <v>6.037</v>
       </c>
       <c r="C10" t="n">
-        <v>5.69</v>
+        <v>6.043</v>
       </c>
       <c r="D10" t="n">
-        <v>5.7</v>
+        <v>6.043</v>
       </c>
       <c r="E10" t="n">
-        <v>5.69</v>
+        <v>6.037</v>
       </c>
       <c r="F10" t="n">
-        <v>15649</v>
+        <v>10542.9504</v>
       </c>
       <c r="G10" t="n">
-        <v>-75852.05999999979</v>
+        <v>16514.67119486658</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>6.037</v>
+      </c>
+      <c r="K10" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5.691</v>
+        <v>6.043</v>
       </c>
       <c r="C11" t="n">
-        <v>5.68</v>
+        <v>6.251</v>
       </c>
       <c r="D11" t="n">
-        <v>5.691</v>
+        <v>6.251</v>
       </c>
       <c r="E11" t="n">
-        <v>5.68</v>
+        <v>6.043</v>
       </c>
       <c r="F11" t="n">
-        <v>9146.314200000001</v>
+        <v>994129.2731</v>
       </c>
       <c r="G11" t="n">
-        <v>-84998.37419999979</v>
+        <v>1010643.944294867</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>6.043</v>
+      </c>
+      <c r="K11" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5.77</v>
+        <v>6.251</v>
       </c>
       <c r="C12" t="n">
-        <v>5.77</v>
+        <v>6.6</v>
       </c>
       <c r="D12" t="n">
-        <v>5.77</v>
+        <v>6.6</v>
       </c>
       <c r="E12" t="n">
-        <v>5.77</v>
+        <v>6.251</v>
       </c>
       <c r="F12" t="n">
-        <v>2102.5742</v>
+        <v>1983261.3161</v>
       </c>
       <c r="G12" t="n">
-        <v>-82895.79999999978</v>
+        <v>2993905.260394867</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>6.251</v>
+      </c>
+      <c r="K12" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5.634</v>
+        <v>6.6</v>
       </c>
       <c r="C13" t="n">
-        <v>5.634</v>
+        <v>6.999</v>
       </c>
       <c r="D13" t="n">
-        <v>5.634</v>
+        <v>7.051</v>
       </c>
       <c r="E13" t="n">
-        <v>5.634</v>
+        <v>6.6</v>
       </c>
       <c r="F13" t="n">
-        <v>97.74469999999999</v>
+        <v>3592434.228481663</v>
       </c>
       <c r="G13" t="n">
-        <v>-82993.54469999978</v>
+        <v>6586339.488876529</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>5.77</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="L13" t="inlineStr"/>
+        <v>5.98</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5.689</v>
+        <v>6.85</v>
       </c>
       <c r="C14" t="n">
-        <v>5.689</v>
+        <v>6.938</v>
       </c>
       <c r="D14" t="n">
-        <v>5.689</v>
+        <v>6.938</v>
       </c>
       <c r="E14" t="n">
-        <v>5.689</v>
+        <v>6.08</v>
       </c>
       <c r="F14" t="n">
-        <v>90</v>
+        <v>226147.2055</v>
       </c>
       <c r="G14" t="n">
-        <v>-82903.54469999978</v>
+        <v>6360192.283376529</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>5.634</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
-        <v>5.77</v>
+        <v>5.98</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5.729</v>
+        <v>6.281</v>
       </c>
       <c r="C15" t="n">
-        <v>5.729</v>
+        <v>6.777</v>
       </c>
       <c r="D15" t="n">
-        <v>5.729</v>
+        <v>6.777</v>
       </c>
       <c r="E15" t="n">
-        <v>5.729</v>
+        <v>6.281</v>
       </c>
       <c r="F15" t="n">
-        <v>90</v>
+        <v>28114.3264</v>
       </c>
       <c r="G15" t="n">
-        <v>-82813.54469999978</v>
+        <v>6332077.956976529</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>5.689</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="n">
-        <v>5.77</v>
+        <v>5.98</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5.647</v>
+        <v>6.37</v>
       </c>
       <c r="C16" t="n">
-        <v>5.6</v>
+        <v>6.37</v>
       </c>
       <c r="D16" t="n">
-        <v>5.647</v>
+        <v>6.37</v>
       </c>
       <c r="E16" t="n">
-        <v>5.6</v>
+        <v>6.37</v>
       </c>
       <c r="F16" t="n">
-        <v>692319.2047</v>
+        <v>88</v>
       </c>
       <c r="G16" t="n">
-        <v>-775132.7493999997</v>
+        <v>6331989.956976529</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -967,33 +1052,40 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5.729</v>
+        <v>6.9</v>
       </c>
       <c r="C17" t="n">
-        <v>5.729</v>
+        <v>7</v>
       </c>
       <c r="D17" t="n">
-        <v>5.729</v>
+        <v>7.103</v>
       </c>
       <c r="E17" t="n">
-        <v>5.729</v>
+        <v>6.9</v>
       </c>
       <c r="F17" t="n">
-        <v>90</v>
+        <v>1670302.4699</v>
       </c>
       <c r="G17" t="n">
-        <v>-775042.7493999997</v>
+        <v>8002292.426876529</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1002,33 +1094,40 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5.729</v>
+        <v>7</v>
       </c>
       <c r="C18" t="n">
-        <v>5.729</v>
+        <v>7.099</v>
       </c>
       <c r="D18" t="n">
-        <v>5.729</v>
+        <v>7.113</v>
       </c>
       <c r="E18" t="n">
-        <v>5.729</v>
+        <v>7</v>
       </c>
       <c r="F18" t="n">
-        <v>3491.0107</v>
+        <v>211151.0984</v>
       </c>
       <c r="G18" t="n">
-        <v>-775042.7493999997</v>
+        <v>8213443.525276529</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1037,33 +1136,40 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5.709</v>
+        <v>7</v>
       </c>
       <c r="C19" t="n">
-        <v>5.728</v>
+        <v>7</v>
       </c>
       <c r="D19" t="n">
-        <v>5.728</v>
+        <v>7.01</v>
       </c>
       <c r="E19" t="n">
-        <v>5.709</v>
+        <v>6.97</v>
       </c>
       <c r="F19" t="n">
-        <v>200000</v>
+        <v>520388.9861</v>
       </c>
       <c r="G19" t="n">
-        <v>-975042.7493999997</v>
+        <v>7693054.539176528</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1072,33 +1178,40 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5.728</v>
+        <v>7.06</v>
       </c>
       <c r="C20" t="n">
-        <v>5.736</v>
+        <v>6.916</v>
       </c>
       <c r="D20" t="n">
-        <v>5.736</v>
+        <v>7.06</v>
       </c>
       <c r="E20" t="n">
-        <v>5.728</v>
+        <v>6.916</v>
       </c>
       <c r="F20" t="n">
-        <v>50000</v>
+        <v>146887.8625</v>
       </c>
       <c r="G20" t="n">
-        <v>-925042.7493999997</v>
+        <v>7546166.676676529</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1107,33 +1220,40 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5.736</v>
+        <v>6.999</v>
       </c>
       <c r="C21" t="n">
-        <v>5.736</v>
+        <v>6.999</v>
       </c>
       <c r="D21" t="n">
-        <v>5.736</v>
+        <v>6.999</v>
       </c>
       <c r="E21" t="n">
-        <v>5.736</v>
+        <v>6.999</v>
       </c>
       <c r="F21" t="n">
-        <v>11637.7509</v>
+        <v>72</v>
       </c>
       <c r="G21" t="n">
-        <v>-925042.7493999997</v>
+        <v>7546238.676676529</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1142,84 +1262,103 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>5.79</v>
+        <v>7.01</v>
       </c>
       <c r="C22" t="n">
-        <v>5.79</v>
+        <v>6.741</v>
       </c>
       <c r="D22" t="n">
-        <v>5.79</v>
+        <v>7.01</v>
       </c>
       <c r="E22" t="n">
-        <v>5.79</v>
+        <v>6.741</v>
       </c>
       <c r="F22" t="n">
-        <v>10545.4335</v>
+        <v>178876.2566</v>
       </c>
       <c r="G22" t="n">
-        <v>-914497.3158999997</v>
+        <v>7367362.420076529</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>5.88</v>
+        <v>6.713</v>
       </c>
       <c r="C23" t="n">
-        <v>5.88</v>
+        <v>6.787</v>
       </c>
       <c r="D23" t="n">
-        <v>5.88</v>
+        <v>6.787</v>
       </c>
       <c r="E23" t="n">
-        <v>5.88</v>
+        <v>6.664</v>
       </c>
       <c r="F23" t="n">
-        <v>1631.6343</v>
+        <v>269021.8493</v>
       </c>
       <c r="G23" t="n">
-        <v>-912865.6815999997</v>
+        <v>7636384.269376528</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>5.79</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L23" t="inlineStr"/>
+        <v>5.98</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>1.12994983277592</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.052356902356902</v>
       </c>
     </row>
     <row r="24">
@@ -1227,63 +1366,58 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>5.947</v>
+        <v>6.68</v>
       </c>
       <c r="C24" t="n">
-        <v>5.947</v>
+        <v>6.561</v>
       </c>
       <c r="D24" t="n">
-        <v>5.947</v>
+        <v>6.68</v>
       </c>
       <c r="E24" t="n">
-        <v>5.947</v>
+        <v>6.461</v>
       </c>
       <c r="F24" t="n">
-        <v>100</v>
+        <v>236675</v>
       </c>
       <c r="G24" t="n">
-        <v>-912765.6815999997</v>
+        <v>7399709.269376528</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>5.946</v>
+        <v>6.565</v>
       </c>
       <c r="C25" t="n">
-        <v>5.946</v>
+        <v>6.472</v>
       </c>
       <c r="D25" t="n">
-        <v>5.946</v>
+        <v>6.565</v>
       </c>
       <c r="E25" t="n">
-        <v>5.946</v>
+        <v>6.472</v>
       </c>
       <c r="F25" t="n">
-        <v>562.3</v>
+        <v>367685.6492</v>
       </c>
       <c r="G25" t="n">
-        <v>-913327.9815999997</v>
+        <v>7032023.620176529</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1292,39 +1426,34 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>5.946</v>
+        <v>6.565</v>
       </c>
       <c r="C26" t="n">
-        <v>5.947</v>
+        <v>6.565</v>
       </c>
       <c r="D26" t="n">
-        <v>5.947</v>
+        <v>6.565</v>
       </c>
       <c r="E26" t="n">
-        <v>5.946</v>
+        <v>6.565</v>
       </c>
       <c r="F26" t="n">
-        <v>15000</v>
+        <v>35781.0301</v>
       </c>
       <c r="G26" t="n">
-        <v>-898327.9815999997</v>
+        <v>7067804.650276529</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1338,34 +1467,35 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>5.875</v>
+        <v>6.475</v>
       </c>
       <c r="C27" t="n">
-        <v>5.875</v>
+        <v>6.475</v>
       </c>
       <c r="D27" t="n">
-        <v>5.875</v>
+        <v>6.48</v>
       </c>
       <c r="E27" t="n">
-        <v>5.875</v>
+        <v>6.461</v>
       </c>
       <c r="F27" t="n">
-        <v>1631.6343</v>
+        <v>205182.036</v>
       </c>
       <c r="G27" t="n">
-        <v>-899959.6158999997</v>
+        <v>6862622.614276528</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1373,153 +1503,137 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>5.875</v>
+        <v>6.41</v>
       </c>
       <c r="C28" t="n">
-        <v>5.875</v>
+        <v>6.324</v>
       </c>
       <c r="D28" t="n">
-        <v>5.875</v>
+        <v>6.41</v>
       </c>
       <c r="E28" t="n">
-        <v>5.875</v>
+        <v>6.324</v>
       </c>
       <c r="F28" t="n">
-        <v>776.1301</v>
+        <v>197555.7679</v>
       </c>
       <c r="G28" t="n">
-        <v>-899959.6158999997</v>
+        <v>6665066.846376528</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>5.875</v>
-      </c>
-      <c r="K28" t="n">
-        <v>5.875</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>5.873</v>
+        <v>6.308</v>
       </c>
       <c r="C29" t="n">
-        <v>5.873</v>
+        <v>6.5</v>
       </c>
       <c r="D29" t="n">
-        <v>5.873</v>
+        <v>6.5</v>
       </c>
       <c r="E29" t="n">
-        <v>5.873</v>
+        <v>6.258</v>
       </c>
       <c r="F29" t="n">
-        <v>457.7421</v>
+        <v>38633.2177</v>
       </c>
       <c r="G29" t="n">
-        <v>-900417.3579999998</v>
+        <v>6703700.064076528</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>5.875</v>
-      </c>
-      <c r="K29" t="n">
-        <v>5.875</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>5.872</v>
+        <v>6.5</v>
       </c>
       <c r="C30" t="n">
-        <v>5.875</v>
+        <v>6.5</v>
       </c>
       <c r="D30" t="n">
-        <v>5.875</v>
+        <v>6.5</v>
       </c>
       <c r="E30" t="n">
-        <v>5.872</v>
+        <v>6.5</v>
       </c>
       <c r="F30" t="n">
-        <v>385.7514</v>
+        <v>312281.9704</v>
       </c>
       <c r="G30" t="n">
-        <v>-900031.6065999998</v>
+        <v>6703700.064076528</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>5.873</v>
-      </c>
-      <c r="K30" t="n">
-        <v>5.875</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>5.805</v>
+        <v>6.314</v>
       </c>
       <c r="C31" t="n">
-        <v>5.805</v>
+        <v>6.5</v>
       </c>
       <c r="D31" t="n">
-        <v>5.805</v>
+        <v>6.5</v>
       </c>
       <c r="E31" t="n">
-        <v>5.805</v>
+        <v>6.3</v>
       </c>
       <c r="F31" t="n">
-        <v>2801.8806</v>
+        <v>630431.3940139846</v>
       </c>
       <c r="G31" t="n">
-        <v>-902833.4871999999</v>
+        <v>6703700.064076528</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1528,82 +1642,70 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>5.875</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>5.805</v>
+        <v>6.485</v>
       </c>
       <c r="C32" t="n">
-        <v>5.805</v>
+        <v>6.529</v>
       </c>
       <c r="D32" t="n">
-        <v>5.805</v>
+        <v>6.529</v>
       </c>
       <c r="E32" t="n">
-        <v>5.805</v>
+        <v>6.485</v>
       </c>
       <c r="F32" t="n">
-        <v>16282.0687</v>
+        <v>180408.5341350734</v>
       </c>
       <c r="G32" t="n">
-        <v>-902833.4871999999</v>
+        <v>6884108.598211601</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>5.805</v>
-      </c>
-      <c r="K32" t="n">
-        <v>5.875</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>5.82</v>
+        <v>6.366</v>
       </c>
       <c r="C33" t="n">
-        <v>5.77</v>
+        <v>6.366</v>
       </c>
       <c r="D33" t="n">
-        <v>5.82</v>
+        <v>6.366</v>
       </c>
       <c r="E33" t="n">
-        <v>5.77</v>
+        <v>6.366</v>
       </c>
       <c r="F33" t="n">
-        <v>107589.8111</v>
+        <v>180</v>
       </c>
       <c r="G33" t="n">
-        <v>-1010423.2983</v>
+        <v>6883928.598211601</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1612,39 +1714,34 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>5.875</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>5.76</v>
+        <v>6.377</v>
       </c>
       <c r="C34" t="n">
-        <v>5.7</v>
+        <v>6.377</v>
       </c>
       <c r="D34" t="n">
-        <v>5.76</v>
+        <v>6.377</v>
       </c>
       <c r="E34" t="n">
-        <v>5.7</v>
+        <v>6.377</v>
       </c>
       <c r="F34" t="n">
-        <v>162661.3558</v>
+        <v>11362.496</v>
       </c>
       <c r="G34" t="n">
-        <v>-1173084.6541</v>
+        <v>6895291.094211602</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1653,39 +1750,34 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>5.875</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>5.7</v>
+        <v>6.381</v>
       </c>
       <c r="C35" t="n">
-        <v>5.614</v>
+        <v>6.381</v>
       </c>
       <c r="D35" t="n">
-        <v>5.7</v>
+        <v>6.381</v>
       </c>
       <c r="E35" t="n">
-        <v>5.614</v>
+        <v>6.381</v>
       </c>
       <c r="F35" t="n">
-        <v>92080.8921</v>
+        <v>30716.188</v>
       </c>
       <c r="G35" t="n">
-        <v>-1265165.5462</v>
+        <v>6926007.282211602</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1694,39 +1786,34 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>5.875</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>5.677</v>
+        <v>6.495</v>
       </c>
       <c r="C36" t="n">
-        <v>5.677</v>
+        <v>6.495</v>
       </c>
       <c r="D36" t="n">
-        <v>5.677</v>
+        <v>6.495</v>
       </c>
       <c r="E36" t="n">
-        <v>5.676</v>
+        <v>6.495</v>
       </c>
       <c r="F36" t="n">
-        <v>93021.855</v>
+        <v>100</v>
       </c>
       <c r="G36" t="n">
-        <v>-1172143.6912</v>
+        <v>6926107.282211602</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1735,39 +1822,34 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>5.875</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>5.73</v>
+        <v>6.378</v>
       </c>
       <c r="C37" t="n">
-        <v>5.73</v>
+        <v>6.342</v>
       </c>
       <c r="D37" t="n">
-        <v>5.73</v>
+        <v>6.378</v>
       </c>
       <c r="E37" t="n">
-        <v>5.73</v>
+        <v>6.342</v>
       </c>
       <c r="F37" t="n">
-        <v>90</v>
+        <v>171277.5409</v>
       </c>
       <c r="G37" t="n">
-        <v>-1172053.6912</v>
+        <v>6754829.741311601</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1776,39 +1858,34 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>5.875</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>5.73</v>
+        <v>6.275</v>
       </c>
       <c r="C38" t="n">
-        <v>5.74</v>
+        <v>6.275</v>
       </c>
       <c r="D38" t="n">
-        <v>5.74</v>
+        <v>6.275</v>
       </c>
       <c r="E38" t="n">
-        <v>5.73</v>
+        <v>6.275</v>
       </c>
       <c r="F38" t="n">
-        <v>100000</v>
+        <v>275.3209</v>
       </c>
       <c r="G38" t="n">
-        <v>-1072053.6912</v>
+        <v>6754554.420411602</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1817,39 +1894,34 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>5.875</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>5.756</v>
+        <v>6.275</v>
       </c>
       <c r="C39" t="n">
-        <v>5.756</v>
+        <v>6.334</v>
       </c>
       <c r="D39" t="n">
-        <v>5.756</v>
+        <v>6.334</v>
       </c>
       <c r="E39" t="n">
-        <v>5.756</v>
+        <v>6.265</v>
       </c>
       <c r="F39" t="n">
-        <v>85</v>
+        <v>99046.3265</v>
       </c>
       <c r="G39" t="n">
-        <v>-1071968.6912</v>
+        <v>6853600.746911602</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1858,39 +1930,34 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>5.875</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>5.756</v>
+        <v>6.335</v>
       </c>
       <c r="C40" t="n">
-        <v>5.8</v>
+        <v>6.267</v>
       </c>
       <c r="D40" t="n">
-        <v>5.8</v>
+        <v>6.335</v>
       </c>
       <c r="E40" t="n">
-        <v>5.756</v>
+        <v>6.267</v>
       </c>
       <c r="F40" t="n">
-        <v>74669.26300000001</v>
+        <v>67062.9232</v>
       </c>
       <c r="G40" t="n">
-        <v>-997299.4282</v>
+        <v>6786537.823711602</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1899,39 +1966,34 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>5.875</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>5.8</v>
+        <v>6.264</v>
       </c>
       <c r="C41" t="n">
-        <v>5.899</v>
+        <v>6.264</v>
       </c>
       <c r="D41" t="n">
-        <v>5.899</v>
+        <v>6.264</v>
       </c>
       <c r="E41" t="n">
-        <v>5.8</v>
+        <v>6.264</v>
       </c>
       <c r="F41" t="n">
-        <v>162954.1632206815</v>
+        <v>3472.2327</v>
       </c>
       <c r="G41" t="n">
-        <v>-834345.2649793185</v>
+        <v>6783065.591011602</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1940,39 +2002,34 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>5.875</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>5.899</v>
+        <v>6.264</v>
       </c>
       <c r="C42" t="n">
-        <v>5.929</v>
+        <v>6.1</v>
       </c>
       <c r="D42" t="n">
-        <v>5.929</v>
+        <v>6.264</v>
       </c>
       <c r="E42" t="n">
-        <v>5.899</v>
+        <v>6.1</v>
       </c>
       <c r="F42" t="n">
-        <v>93077.84522694997</v>
+        <v>700000</v>
       </c>
       <c r="G42" t="n">
-        <v>-741267.4197523685</v>
+        <v>6083065.591011602</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1981,39 +2038,34 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>5.875</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>5.929</v>
+        <v>6.11</v>
       </c>
       <c r="C43" t="n">
-        <v>5.94</v>
+        <v>6.325</v>
       </c>
       <c r="D43" t="n">
-        <v>5.94</v>
+        <v>6.325</v>
       </c>
       <c r="E43" t="n">
-        <v>5.929</v>
+        <v>5.935</v>
       </c>
       <c r="F43" t="n">
-        <v>611157.2439472351</v>
+        <v>800080</v>
       </c>
       <c r="G43" t="n">
-        <v>-130110.1758051334</v>
+        <v>6883145.591011602</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2022,39 +2074,34 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>5.875</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>5.94</v>
+        <v>5.936</v>
       </c>
       <c r="C44" t="n">
-        <v>5.94</v>
+        <v>5.936</v>
       </c>
       <c r="D44" t="n">
-        <v>5.94</v>
+        <v>5.936</v>
       </c>
       <c r="E44" t="n">
-        <v>5.94</v>
+        <v>5.936</v>
       </c>
       <c r="F44" t="n">
-        <v>148716.5695</v>
+        <v>20000</v>
       </c>
       <c r="G44" t="n">
-        <v>-130110.1758051334</v>
+        <v>6863145.591011602</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2063,82 +2110,70 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>5.875</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>5.94</v>
+        <v>5.949</v>
       </c>
       <c r="C45" t="n">
-        <v>5.94</v>
+        <v>5.949</v>
       </c>
       <c r="D45" t="n">
-        <v>5.94</v>
+        <v>5.949</v>
       </c>
       <c r="E45" t="n">
-        <v>5.94</v>
+        <v>5.949</v>
       </c>
       <c r="F45" t="n">
-        <v>193997.8317</v>
+        <v>18571.0025</v>
       </c>
       <c r="G45" t="n">
-        <v>-130110.1758051334</v>
+        <v>6881716.593511603</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K45" t="n">
-        <v>5.875</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>5.94</v>
+        <v>5.949</v>
       </c>
       <c r="C46" t="n">
-        <v>5.94</v>
+        <v>5.935</v>
       </c>
       <c r="D46" t="n">
-        <v>5.94</v>
+        <v>5.949</v>
       </c>
       <c r="E46" t="n">
-        <v>5.94</v>
+        <v>5.935</v>
       </c>
       <c r="F46" t="n">
-        <v>5.133532876373e-06</v>
+        <v>170852.5421</v>
       </c>
       <c r="G46" t="n">
-        <v>-130110.1758051334</v>
+        <v>6710864.051411603</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2147,39 +2182,34 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>5.875</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>5.946</v>
+        <v>5.935</v>
       </c>
       <c r="C47" t="n">
-        <v>5.946</v>
+        <v>5.868</v>
       </c>
       <c r="D47" t="n">
-        <v>5.946</v>
+        <v>5.935</v>
       </c>
       <c r="E47" t="n">
-        <v>5.946</v>
+        <v>5.868</v>
       </c>
       <c r="F47" t="n">
-        <v>100000</v>
+        <v>49488.3008</v>
       </c>
       <c r="G47" t="n">
-        <v>-30110.17580513342</v>
+        <v>6661375.750611602</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2188,39 +2218,34 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>5.875</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>5.947</v>
+        <v>5.868</v>
       </c>
       <c r="C48" t="n">
-        <v>5.947</v>
+        <v>5.822</v>
       </c>
       <c r="D48" t="n">
-        <v>5.947</v>
+        <v>5.958</v>
       </c>
       <c r="E48" t="n">
-        <v>5.947</v>
+        <v>5.822</v>
       </c>
       <c r="F48" t="n">
-        <v>24120.8966</v>
+        <v>9336.788200000001</v>
       </c>
       <c r="G48" t="n">
-        <v>-5989.279205133418</v>
+        <v>6652038.962411602</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2229,39 +2254,34 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>5.875</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>5.947</v>
+        <v>5.958</v>
       </c>
       <c r="C49" t="n">
-        <v>5.98</v>
+        <v>5.958</v>
       </c>
       <c r="D49" t="n">
-        <v>5.98</v>
+        <v>5.958</v>
       </c>
       <c r="E49" t="n">
-        <v>5.947</v>
+        <v>5.958</v>
       </c>
       <c r="F49" t="n">
-        <v>11878</v>
+        <v>88</v>
       </c>
       <c r="G49" t="n">
-        <v>5888.720794866582</v>
+        <v>6652126.962411602</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2270,39 +2290,34 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>5.875</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>5.98</v>
+        <v>5.887</v>
       </c>
       <c r="C50" t="n">
-        <v>5.98</v>
+        <v>5.89</v>
       </c>
       <c r="D50" t="n">
-        <v>5.98</v>
+        <v>5.89</v>
       </c>
       <c r="E50" t="n">
-        <v>5.98</v>
+        <v>5.887</v>
       </c>
       <c r="F50" t="n">
-        <v>90733.70419999999</v>
+        <v>73841.2041</v>
       </c>
       <c r="G50" t="n">
-        <v>5888.720794866582</v>
+        <v>6578285.758311602</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2311,39 +2326,34 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>5.875</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>6.037</v>
+        <v>5.958</v>
       </c>
       <c r="C51" t="n">
-        <v>6.037</v>
+        <v>5.958</v>
       </c>
       <c r="D51" t="n">
-        <v>6.037</v>
+        <v>5.958</v>
       </c>
       <c r="E51" t="n">
-        <v>6.037</v>
+        <v>5.958</v>
       </c>
       <c r="F51" t="n">
-        <v>83</v>
+        <v>100000</v>
       </c>
       <c r="G51" t="n">
-        <v>5971.720794866582</v>
+        <v>6678285.758311602</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2352,39 +2362,34 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>5.875</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>6.037</v>
+        <v>5.971</v>
       </c>
       <c r="C52" t="n">
-        <v>6.043</v>
+        <v>5.971</v>
       </c>
       <c r="D52" t="n">
-        <v>6.043</v>
+        <v>5.971</v>
       </c>
       <c r="E52" t="n">
-        <v>6.037</v>
+        <v>5.971</v>
       </c>
       <c r="F52" t="n">
-        <v>10542.9504</v>
+        <v>10675.2509</v>
       </c>
       <c r="G52" t="n">
-        <v>16514.67119486658</v>
+        <v>6688961.009211603</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2393,39 +2398,34 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>5.875</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>6.043</v>
+        <v>5.95</v>
       </c>
       <c r="C53" t="n">
-        <v>6.251</v>
+        <v>5.91</v>
       </c>
       <c r="D53" t="n">
-        <v>6.251</v>
+        <v>5.95</v>
       </c>
       <c r="E53" t="n">
-        <v>6.043</v>
+        <v>5.91</v>
       </c>
       <c r="F53" t="n">
-        <v>994129.2731</v>
+        <v>282634.9813</v>
       </c>
       <c r="G53" t="n">
-        <v>1010643.944294867</v>
+        <v>6406326.027911603</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2434,80 +2434,70 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>5.875</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>6.251</v>
+        <v>5.91</v>
       </c>
       <c r="C54" t="n">
-        <v>6.6</v>
+        <v>5.91</v>
       </c>
       <c r="D54" t="n">
-        <v>6.6</v>
+        <v>5.91</v>
       </c>
       <c r="E54" t="n">
-        <v>6.251</v>
+        <v>5.91</v>
       </c>
       <c r="F54" t="n">
-        <v>1983261.3161</v>
+        <v>17905.0496</v>
       </c>
       <c r="G54" t="n">
-        <v>2993905.260394867</v>
+        <v>6406326.027911603</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>5.875</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>6.6</v>
+        <v>5.901</v>
       </c>
       <c r="C55" t="n">
-        <v>6.999</v>
+        <v>5.822</v>
       </c>
       <c r="D55" t="n">
-        <v>7.051</v>
+        <v>5.901</v>
       </c>
       <c r="E55" t="n">
-        <v>6.6</v>
+        <v>5.822</v>
       </c>
       <c r="F55" t="n">
-        <v>3592434.228481663</v>
+        <v>453704.6145</v>
       </c>
       <c r="G55" t="n">
-        <v>6586339.488876529</v>
+        <v>5952621.413411602</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2516,80 +2506,70 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>5.875</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>6.85</v>
+        <v>5.822</v>
       </c>
       <c r="C56" t="n">
-        <v>6.938</v>
+        <v>5.77</v>
       </c>
       <c r="D56" t="n">
-        <v>6.938</v>
+        <v>5.822</v>
       </c>
       <c r="E56" t="n">
-        <v>6.08</v>
+        <v>5.77</v>
       </c>
       <c r="F56" t="n">
-        <v>226147.2055</v>
+        <v>104671.5793</v>
       </c>
       <c r="G56" t="n">
-        <v>6360192.283376529</v>
+        <v>5847949.834111602</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>5.875</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
-        <v>1.175936170212766</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>6.281</v>
+        <v>5.77</v>
       </c>
       <c r="C57" t="n">
-        <v>6.777</v>
+        <v>5.73</v>
       </c>
       <c r="D57" t="n">
-        <v>6.777</v>
+        <v>5.77</v>
       </c>
       <c r="E57" t="n">
-        <v>6.281</v>
+        <v>5.73</v>
       </c>
       <c r="F57" t="n">
-        <v>28114.3264</v>
+        <v>238745.6546</v>
       </c>
       <c r="G57" t="n">
-        <v>6332077.956976529</v>
+        <v>5609204.179511602</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2603,28 +2583,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>6.37</v>
+        <v>5.722</v>
       </c>
       <c r="C58" t="n">
-        <v>6.37</v>
+        <v>5.722</v>
       </c>
       <c r="D58" t="n">
-        <v>6.37</v>
+        <v>5.722</v>
       </c>
       <c r="E58" t="n">
-        <v>6.37</v>
+        <v>5.722</v>
       </c>
       <c r="F58" t="n">
-        <v>88</v>
+        <v>43321.3506</v>
       </c>
       <c r="G58" t="n">
-        <v>6331989.956976529</v>
+        <v>5565882.828911602</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2638,28 +2619,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>6.9</v>
+        <v>5.849</v>
       </c>
       <c r="C59" t="n">
-        <v>7</v>
+        <v>5.849</v>
       </c>
       <c r="D59" t="n">
-        <v>7.103</v>
+        <v>5.849</v>
       </c>
       <c r="E59" t="n">
-        <v>6.9</v>
+        <v>5.849</v>
       </c>
       <c r="F59" t="n">
-        <v>1670302.4699</v>
+        <v>32599.563</v>
       </c>
       <c r="G59" t="n">
-        <v>8002292.426876529</v>
+        <v>5598482.391911603</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2673,28 +2655,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>7</v>
+        <v>5.765</v>
       </c>
       <c r="C60" t="n">
-        <v>7.099</v>
+        <v>5.761</v>
       </c>
       <c r="D60" t="n">
-        <v>7.113</v>
+        <v>5.765</v>
       </c>
       <c r="E60" t="n">
-        <v>7</v>
+        <v>5.761</v>
       </c>
       <c r="F60" t="n">
-        <v>211151.0984</v>
+        <v>136941.9883</v>
       </c>
       <c r="G60" t="n">
-        <v>8213443.525276529</v>
+        <v>5461540.403611602</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2708,34 +2691,35 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>7</v>
+        <v>5.879</v>
       </c>
       <c r="C61" t="n">
-        <v>7</v>
+        <v>5.879</v>
       </c>
       <c r="D61" t="n">
-        <v>7.01</v>
+        <v>5.879</v>
       </c>
       <c r="E61" t="n">
-        <v>6.97</v>
+        <v>5.879</v>
       </c>
       <c r="F61" t="n">
-        <v>520388.9861</v>
+        <v>134389.1258</v>
       </c>
       <c r="G61" t="n">
-        <v>7693054.539176528</v>
+        <v>5595929.529411602</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -2743,34 +2727,35 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>7.06</v>
+        <v>5.879</v>
       </c>
       <c r="C62" t="n">
-        <v>6.916</v>
+        <v>5.879</v>
       </c>
       <c r="D62" t="n">
-        <v>7.06</v>
+        <v>5.879</v>
       </c>
       <c r="E62" t="n">
-        <v>6.916</v>
+        <v>5.879</v>
       </c>
       <c r="F62" t="n">
-        <v>146887.8625</v>
+        <v>18478.2015</v>
       </c>
       <c r="G62" t="n">
-        <v>7546166.676676529</v>
+        <v>5595929.529411602</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -2778,34 +2763,35 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>6.999</v>
+        <v>5.878</v>
       </c>
       <c r="C63" t="n">
-        <v>6.999</v>
+        <v>5.78</v>
       </c>
       <c r="D63" t="n">
-        <v>6.999</v>
+        <v>5.878</v>
       </c>
       <c r="E63" t="n">
-        <v>6.999</v>
+        <v>5.78</v>
       </c>
       <c r="F63" t="n">
-        <v>72</v>
+        <v>90914.182</v>
       </c>
       <c r="G63" t="n">
-        <v>7546238.676676529</v>
+        <v>5505015.347411602</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -2813,28 +2799,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>7.01</v>
+        <v>5.789</v>
       </c>
       <c r="C64" t="n">
-        <v>6.741</v>
+        <v>5.789</v>
       </c>
       <c r="D64" t="n">
-        <v>7.01</v>
+        <v>5.789</v>
       </c>
       <c r="E64" t="n">
-        <v>6.741</v>
+        <v>5.789</v>
       </c>
       <c r="F64" t="n">
-        <v>178876.2566</v>
+        <v>5962.8542</v>
       </c>
       <c r="G64" t="n">
-        <v>7367362.420076529</v>
+        <v>5510978.201611602</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2848,28 +2835,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>6.713</v>
+        <v>5.802</v>
       </c>
       <c r="C65" t="n">
-        <v>6.787</v>
+        <v>5.802</v>
       </c>
       <c r="D65" t="n">
-        <v>6.787</v>
+        <v>5.802</v>
       </c>
       <c r="E65" t="n">
-        <v>6.664</v>
+        <v>5.802</v>
       </c>
       <c r="F65" t="n">
-        <v>269021.8493</v>
+        <v>456.2226</v>
       </c>
       <c r="G65" t="n">
-        <v>7636384.269376528</v>
+        <v>5511434.424211602</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2883,28 +2871,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>6.68</v>
+        <v>5.899</v>
       </c>
       <c r="C66" t="n">
-        <v>6.561</v>
+        <v>5.97</v>
       </c>
       <c r="D66" t="n">
-        <v>6.68</v>
+        <v>5.97</v>
       </c>
       <c r="E66" t="n">
-        <v>6.461</v>
+        <v>5.899</v>
       </c>
       <c r="F66" t="n">
-        <v>236675</v>
+        <v>13317.2655</v>
       </c>
       <c r="G66" t="n">
-        <v>7399709.269376528</v>
+        <v>5524751.689711601</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2918,28 +2907,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>6.565</v>
+        <v>5.97</v>
       </c>
       <c r="C67" t="n">
-        <v>6.472</v>
+        <v>5.97</v>
       </c>
       <c r="D67" t="n">
-        <v>6.565</v>
+        <v>5.97</v>
       </c>
       <c r="E67" t="n">
-        <v>6.472</v>
+        <v>5.97</v>
       </c>
       <c r="F67" t="n">
-        <v>367685.6492</v>
+        <v>8547.799999999999</v>
       </c>
       <c r="G67" t="n">
-        <v>7032023.620176529</v>
+        <v>5524751.689711601</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2953,28 +2943,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>6.565</v>
+        <v>5.922</v>
       </c>
       <c r="C68" t="n">
-        <v>6.565</v>
+        <v>5.922</v>
       </c>
       <c r="D68" t="n">
-        <v>6.565</v>
+        <v>5.99</v>
       </c>
       <c r="E68" t="n">
-        <v>6.565</v>
+        <v>5.922</v>
       </c>
       <c r="F68" t="n">
-        <v>35781.0301</v>
+        <v>2982.4013</v>
       </c>
       <c r="G68" t="n">
-        <v>7067804.650276529</v>
+        <v>5521769.288411601</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2988,34 +2979,35 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>6.475</v>
+        <v>5.922</v>
       </c>
       <c r="C69" t="n">
-        <v>6.475</v>
+        <v>5.99</v>
       </c>
       <c r="D69" t="n">
-        <v>6.48</v>
+        <v>5.99</v>
       </c>
       <c r="E69" t="n">
-        <v>6.461</v>
+        <v>5.922</v>
       </c>
       <c r="F69" t="n">
-        <v>205182.036</v>
+        <v>68718.35400000001</v>
       </c>
       <c r="G69" t="n">
-        <v>6862622.614276528</v>
+        <v>5590487.642411602</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -3023,28 +3015,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>6.41</v>
+        <v>6.008</v>
       </c>
       <c r="C70" t="n">
-        <v>6.324</v>
+        <v>6.008</v>
       </c>
       <c r="D70" t="n">
-        <v>6.41</v>
+        <v>6.008</v>
       </c>
       <c r="E70" t="n">
-        <v>6.324</v>
+        <v>6.008</v>
       </c>
       <c r="F70" t="n">
-        <v>197555.7679</v>
+        <v>29211.45</v>
       </c>
       <c r="G70" t="n">
-        <v>6665066.846376528</v>
+        <v>5619699.092411602</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3058,34 +3051,35 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>6.308</v>
+        <v>6.009</v>
       </c>
       <c r="C71" t="n">
-        <v>6.5</v>
+        <v>6.009</v>
       </c>
       <c r="D71" t="n">
-        <v>6.5</v>
+        <v>6.009</v>
       </c>
       <c r="E71" t="n">
-        <v>6.258</v>
+        <v>6.009</v>
       </c>
       <c r="F71" t="n">
-        <v>38633.2177</v>
+        <v>3328.527</v>
       </c>
       <c r="G71" t="n">
-        <v>6703700.064076528</v>
+        <v>5623027.619411602</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -3093,28 +3087,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>6.5</v>
+        <v>6.01</v>
       </c>
       <c r="C72" t="n">
-        <v>6.5</v>
+        <v>6.01</v>
       </c>
       <c r="D72" t="n">
-        <v>6.5</v>
+        <v>6.01</v>
       </c>
       <c r="E72" t="n">
-        <v>6.5</v>
+        <v>6.01</v>
       </c>
       <c r="F72" t="n">
-        <v>312281.9704</v>
+        <v>70243.2399</v>
       </c>
       <c r="G72" t="n">
-        <v>6703700.064076528</v>
+        <v>5693270.859311602</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3128,34 +3123,35 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>6.314</v>
+        <v>6.016</v>
       </c>
       <c r="C73" t="n">
-        <v>6.5</v>
+        <v>6.016</v>
       </c>
       <c r="D73" t="n">
-        <v>6.5</v>
+        <v>6.016</v>
       </c>
       <c r="E73" t="n">
-        <v>6.3</v>
+        <v>6.016</v>
       </c>
       <c r="F73" t="n">
-        <v>630431.3940139846</v>
+        <v>1764.9045</v>
       </c>
       <c r="G73" t="n">
-        <v>6703700.064076528</v>
+        <v>5695035.763811602</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -3163,34 +3159,35 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>6.485</v>
+        <v>6.007</v>
       </c>
       <c r="C74" t="n">
-        <v>6.529</v>
+        <v>6</v>
       </c>
       <c r="D74" t="n">
-        <v>6.529</v>
+        <v>6.007</v>
       </c>
       <c r="E74" t="n">
-        <v>6.485</v>
+        <v>6</v>
       </c>
       <c r="F74" t="n">
-        <v>180408.5341350734</v>
+        <v>22286.7153</v>
       </c>
       <c r="G74" t="n">
-        <v>6884108.598211601</v>
+        <v>5672749.048511602</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -3198,34 +3195,35 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>6.366</v>
+        <v>5.947</v>
       </c>
       <c r="C75" t="n">
-        <v>6.366</v>
+        <v>6.016</v>
       </c>
       <c r="D75" t="n">
-        <v>6.366</v>
+        <v>6.016</v>
       </c>
       <c r="E75" t="n">
-        <v>6.366</v>
+        <v>5.947</v>
       </c>
       <c r="F75" t="n">
-        <v>180</v>
+        <v>169.0319</v>
       </c>
       <c r="G75" t="n">
-        <v>6883928.598211601</v>
+        <v>5672918.080411602</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -3233,28 +3231,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>6.377</v>
+        <v>5.947</v>
       </c>
       <c r="C76" t="n">
-        <v>6.377</v>
+        <v>5.921</v>
       </c>
       <c r="D76" t="n">
-        <v>6.377</v>
+        <v>5.947</v>
       </c>
       <c r="E76" t="n">
-        <v>6.377</v>
+        <v>5.921</v>
       </c>
       <c r="F76" t="n">
-        <v>11362.496</v>
+        <v>74669.26300000001</v>
       </c>
       <c r="G76" t="n">
-        <v>6895291.094211602</v>
+        <v>5598248.817411602</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3268,34 +3267,35 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>6.381</v>
+        <v>5.921</v>
       </c>
       <c r="C77" t="n">
-        <v>6.381</v>
+        <v>5.921</v>
       </c>
       <c r="D77" t="n">
-        <v>6.381</v>
+        <v>5.921</v>
       </c>
       <c r="E77" t="n">
-        <v>6.381</v>
+        <v>5.921</v>
       </c>
       <c r="F77" t="n">
-        <v>30716.188</v>
+        <v>51957.9365</v>
       </c>
       <c r="G77" t="n">
-        <v>6926007.282211602</v>
+        <v>5598248.817411602</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3303,28 +3303,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>6.495</v>
+        <v>5.9</v>
       </c>
       <c r="C78" t="n">
-        <v>6.495</v>
+        <v>6.4</v>
       </c>
       <c r="D78" t="n">
-        <v>6.495</v>
+        <v>6.4</v>
       </c>
       <c r="E78" t="n">
-        <v>6.495</v>
+        <v>5.9</v>
       </c>
       <c r="F78" t="n">
-        <v>100</v>
+        <v>553382.8219450156</v>
       </c>
       <c r="G78" t="n">
-        <v>6926107.282211602</v>
+        <v>6151631.639356617</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3338,34 +3339,35 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>6.378</v>
+        <v>6.234</v>
       </c>
       <c r="C79" t="n">
-        <v>6.342</v>
+        <v>6.234</v>
       </c>
       <c r="D79" t="n">
-        <v>6.378</v>
+        <v>6.234</v>
       </c>
       <c r="E79" t="n">
-        <v>6.342</v>
+        <v>6.234</v>
       </c>
       <c r="F79" t="n">
-        <v>171277.5409</v>
+        <v>3529.034327879371</v>
       </c>
       <c r="G79" t="n">
-        <v>6754829.741311601</v>
+        <v>6148102.605028737</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3373,28 +3375,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>6.275</v>
+        <v>6.04</v>
       </c>
       <c r="C80" t="n">
-        <v>6.275</v>
+        <v>6.1</v>
       </c>
       <c r="D80" t="n">
-        <v>6.275</v>
+        <v>6.1</v>
       </c>
       <c r="E80" t="n">
-        <v>6.275</v>
+        <v>6.04</v>
       </c>
       <c r="F80" t="n">
-        <v>275.3209</v>
+        <v>164090.9878</v>
       </c>
       <c r="G80" t="n">
-        <v>6754554.420411602</v>
+        <v>5984011.617228737</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3408,28 +3411,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>6.275</v>
+        <v>6.1</v>
       </c>
       <c r="C81" t="n">
-        <v>6.334</v>
+        <v>6.1</v>
       </c>
       <c r="D81" t="n">
-        <v>6.334</v>
+        <v>6.11</v>
       </c>
       <c r="E81" t="n">
-        <v>6.265</v>
+        <v>6.1</v>
       </c>
       <c r="F81" t="n">
-        <v>99046.3265</v>
+        <v>11607.30303502455</v>
       </c>
       <c r="G81" t="n">
-        <v>6853600.746911602</v>
+        <v>5984011.617228737</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3443,28 +3447,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>6.335</v>
+        <v>6.031</v>
       </c>
       <c r="C82" t="n">
-        <v>6.267</v>
+        <v>6.03</v>
       </c>
       <c r="D82" t="n">
-        <v>6.335</v>
+        <v>6.031</v>
       </c>
       <c r="E82" t="n">
-        <v>6.267</v>
+        <v>6.03</v>
       </c>
       <c r="F82" t="n">
-        <v>67062.9232</v>
+        <v>36521.4226</v>
       </c>
       <c r="G82" t="n">
-        <v>6786537.823711602</v>
+        <v>5947490.194628737</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3478,28 +3483,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>6.264</v>
+        <v>6.013</v>
       </c>
       <c r="C83" t="n">
-        <v>6.264</v>
+        <v>6.013</v>
       </c>
       <c r="D83" t="n">
-        <v>6.264</v>
+        <v>6.013</v>
       </c>
       <c r="E83" t="n">
-        <v>6.264</v>
+        <v>6.013</v>
       </c>
       <c r="F83" t="n">
-        <v>3472.2327</v>
+        <v>5576.7151</v>
       </c>
       <c r="G83" t="n">
-        <v>6783065.591011602</v>
+        <v>5941913.479528737</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3513,34 +3519,35 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>6.264</v>
+        <v>5.964</v>
       </c>
       <c r="C84" t="n">
-        <v>6.1</v>
+        <v>5.901</v>
       </c>
       <c r="D84" t="n">
-        <v>6.264</v>
+        <v>5.964</v>
       </c>
       <c r="E84" t="n">
-        <v>6.1</v>
+        <v>5.901</v>
       </c>
       <c r="F84" t="n">
-        <v>700000</v>
+        <v>111728.5831</v>
       </c>
       <c r="G84" t="n">
-        <v>6083065.591011602</v>
+        <v>5830184.896428737</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3548,28 +3555,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>6.11</v>
+        <v>5.922</v>
       </c>
       <c r="C85" t="n">
-        <v>6.325</v>
+        <v>5.922</v>
       </c>
       <c r="D85" t="n">
-        <v>6.325</v>
+        <v>5.922</v>
       </c>
       <c r="E85" t="n">
-        <v>5.935</v>
+        <v>5.922</v>
       </c>
       <c r="F85" t="n">
-        <v>800080</v>
+        <v>864.3609</v>
       </c>
       <c r="G85" t="n">
-        <v>6883145.591011602</v>
+        <v>5831049.257328737</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3583,34 +3591,35 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>5.936</v>
+        <v>5.922</v>
       </c>
       <c r="C86" t="n">
-        <v>5.936</v>
+        <v>5.922</v>
       </c>
       <c r="D86" t="n">
-        <v>5.936</v>
+        <v>5.922</v>
       </c>
       <c r="E86" t="n">
-        <v>5.936</v>
+        <v>5.922</v>
       </c>
       <c r="F86" t="n">
-        <v>20000</v>
+        <v>11607.303</v>
       </c>
       <c r="G86" t="n">
-        <v>6863145.591011602</v>
+        <v>5831049.257328737</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3618,28 +3627,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>5.949</v>
+        <v>5.933</v>
       </c>
       <c r="C87" t="n">
-        <v>5.949</v>
+        <v>5.923</v>
       </c>
       <c r="D87" t="n">
-        <v>5.949</v>
+        <v>5.933</v>
       </c>
       <c r="E87" t="n">
-        <v>5.949</v>
+        <v>5.923</v>
       </c>
       <c r="F87" t="n">
-        <v>18571.0025</v>
+        <v>9771.2701</v>
       </c>
       <c r="G87" t="n">
-        <v>6881716.593511603</v>
+        <v>5840820.527428737</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3653,28 +3663,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>5.949</v>
+        <v>5.901</v>
       </c>
       <c r="C88" t="n">
-        <v>5.935</v>
+        <v>5.9</v>
       </c>
       <c r="D88" t="n">
-        <v>5.949</v>
+        <v>5.901</v>
       </c>
       <c r="E88" t="n">
-        <v>5.935</v>
+        <v>5.9</v>
       </c>
       <c r="F88" t="n">
-        <v>170852.5421</v>
+        <v>70701.7099</v>
       </c>
       <c r="G88" t="n">
-        <v>6710864.051411603</v>
+        <v>5770118.817528737</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3688,28 +3699,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>5.935</v>
+        <v>5.909</v>
       </c>
       <c r="C89" t="n">
-        <v>5.868</v>
+        <v>5.922</v>
       </c>
       <c r="D89" t="n">
-        <v>5.935</v>
+        <v>5.922</v>
       </c>
       <c r="E89" t="n">
-        <v>5.868</v>
+        <v>5.909</v>
       </c>
       <c r="F89" t="n">
-        <v>49488.3008</v>
+        <v>217976.8276</v>
       </c>
       <c r="G89" t="n">
-        <v>6661375.750611602</v>
+        <v>5988095.645128737</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3723,28 +3735,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>5.868</v>
+        <v>5.93</v>
       </c>
       <c r="C90" t="n">
-        <v>5.822</v>
+        <v>5.93</v>
       </c>
       <c r="D90" t="n">
-        <v>5.958</v>
+        <v>5.93</v>
       </c>
       <c r="E90" t="n">
-        <v>5.822</v>
+        <v>5.93</v>
       </c>
       <c r="F90" t="n">
-        <v>9336.788200000001</v>
+        <v>3529.0344</v>
       </c>
       <c r="G90" t="n">
-        <v>6652038.962411602</v>
+        <v>5991624.679528737</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3758,28 +3771,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>5.958</v>
+        <v>6.048</v>
       </c>
       <c r="C91" t="n">
-        <v>5.958</v>
+        <v>6.048</v>
       </c>
       <c r="D91" t="n">
-        <v>5.958</v>
+        <v>6.048</v>
       </c>
       <c r="E91" t="n">
-        <v>5.958</v>
+        <v>6.048</v>
       </c>
       <c r="F91" t="n">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G91" t="n">
-        <v>6652126.962411602</v>
+        <v>5991707.679528737</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3793,28 +3807,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>5.887</v>
+        <v>6.048</v>
       </c>
       <c r="C92" t="n">
-        <v>5.89</v>
+        <v>6.1</v>
       </c>
       <c r="D92" t="n">
-        <v>5.89</v>
+        <v>6.1</v>
       </c>
       <c r="E92" t="n">
-        <v>5.887</v>
+        <v>6.048</v>
       </c>
       <c r="F92" t="n">
-        <v>73841.2041</v>
+        <v>427877.2004</v>
       </c>
       <c r="G92" t="n">
-        <v>6578285.758311602</v>
+        <v>6419584.879928738</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3828,28 +3843,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>5.958</v>
+        <v>6.09</v>
       </c>
       <c r="C93" t="n">
-        <v>5.958</v>
+        <v>6.09</v>
       </c>
       <c r="D93" t="n">
-        <v>5.958</v>
+        <v>6.09</v>
       </c>
       <c r="E93" t="n">
-        <v>5.958</v>
+        <v>6.09</v>
       </c>
       <c r="F93" t="n">
-        <v>100000</v>
+        <v>3359.4266</v>
       </c>
       <c r="G93" t="n">
-        <v>6678285.758311602</v>
+        <v>6416225.453328738</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3863,28 +3879,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>5.971</v>
+        <v>6.1</v>
       </c>
       <c r="C94" t="n">
-        <v>5.971</v>
+        <v>6.12</v>
       </c>
       <c r="D94" t="n">
-        <v>5.971</v>
+        <v>6.12</v>
       </c>
       <c r="E94" t="n">
-        <v>5.971</v>
+        <v>6.1</v>
       </c>
       <c r="F94" t="n">
-        <v>10675.2509</v>
+        <v>32345.0294</v>
       </c>
       <c r="G94" t="n">
-        <v>6688961.009211603</v>
+        <v>6448570.482728738</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3898,28 +3915,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>5.95</v>
+        <v>6.12</v>
       </c>
       <c r="C95" t="n">
-        <v>5.91</v>
+        <v>6.12</v>
       </c>
       <c r="D95" t="n">
-        <v>5.95</v>
+        <v>6.12</v>
       </c>
       <c r="E95" t="n">
-        <v>5.91</v>
+        <v>6.12</v>
       </c>
       <c r="F95" t="n">
-        <v>282634.9813</v>
+        <v>20001</v>
       </c>
       <c r="G95" t="n">
-        <v>6406326.027911603</v>
+        <v>6448570.482728738</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3933,28 +3951,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>5.91</v>
+        <v>6.135</v>
       </c>
       <c r="C96" t="n">
-        <v>5.91</v>
+        <v>6.135</v>
       </c>
       <c r="D96" t="n">
-        <v>5.91</v>
+        <v>6.135</v>
       </c>
       <c r="E96" t="n">
-        <v>5.91</v>
+        <v>6.135</v>
       </c>
       <c r="F96" t="n">
-        <v>17905.0496</v>
+        <v>8274.558000000001</v>
       </c>
       <c r="G96" t="n">
-        <v>6406326.027911603</v>
+        <v>6456845.040728739</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3968,28 +3987,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>5.901</v>
+        <v>6.349</v>
       </c>
       <c r="C97" t="n">
-        <v>5.822</v>
+        <v>6.349</v>
       </c>
       <c r="D97" t="n">
-        <v>5.901</v>
+        <v>6.349</v>
       </c>
       <c r="E97" t="n">
-        <v>5.822</v>
+        <v>6.349</v>
       </c>
       <c r="F97" t="n">
-        <v>453704.6145</v>
+        <v>100</v>
       </c>
       <c r="G97" t="n">
-        <v>5952621.413411602</v>
+        <v>6456945.040728739</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4003,28 +4023,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>5.822</v>
+        <v>6.111</v>
       </c>
       <c r="C98" t="n">
-        <v>5.77</v>
+        <v>6.269</v>
       </c>
       <c r="D98" t="n">
-        <v>5.822</v>
+        <v>6.269</v>
       </c>
       <c r="E98" t="n">
-        <v>5.77</v>
+        <v>6.1</v>
       </c>
       <c r="F98" t="n">
-        <v>104671.5793</v>
+        <v>127423.7481</v>
       </c>
       <c r="G98" t="n">
-        <v>5847949.834111602</v>
+        <v>6329521.292628738</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4038,28 +4059,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>5.77</v>
+        <v>6.11</v>
       </c>
       <c r="C99" t="n">
-        <v>5.73</v>
+        <v>6.101</v>
       </c>
       <c r="D99" t="n">
-        <v>5.77</v>
+        <v>6.11</v>
       </c>
       <c r="E99" t="n">
-        <v>5.73</v>
+        <v>6.101</v>
       </c>
       <c r="F99" t="n">
-        <v>238745.6546</v>
+        <v>93930.5241</v>
       </c>
       <c r="G99" t="n">
-        <v>5609204.179511602</v>
+        <v>6235590.768528738</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4073,28 +4095,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>5.722</v>
+        <v>6.22</v>
       </c>
       <c r="C100" t="n">
-        <v>5.722</v>
+        <v>6.076</v>
       </c>
       <c r="D100" t="n">
-        <v>5.722</v>
+        <v>6.22</v>
       </c>
       <c r="E100" t="n">
-        <v>5.722</v>
+        <v>6.076</v>
       </c>
       <c r="F100" t="n">
-        <v>43321.3506</v>
+        <v>63590.9562</v>
       </c>
       <c r="G100" t="n">
-        <v>5565882.828911602</v>
+        <v>6171999.812328738</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4108,28 +4131,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>5.849</v>
+        <v>6.219</v>
       </c>
       <c r="C101" t="n">
-        <v>5.849</v>
+        <v>6.219</v>
       </c>
       <c r="D101" t="n">
-        <v>5.849</v>
+        <v>6.219</v>
       </c>
       <c r="E101" t="n">
-        <v>5.849</v>
+        <v>6.219</v>
       </c>
       <c r="F101" t="n">
-        <v>32599.563</v>
+        <v>400.211</v>
       </c>
       <c r="G101" t="n">
-        <v>5598482.391911603</v>
+        <v>6172400.023328738</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4143,28 +4167,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>5.765</v>
+        <v>6.149</v>
       </c>
       <c r="C102" t="n">
-        <v>5.761</v>
+        <v>6.149</v>
       </c>
       <c r="D102" t="n">
-        <v>5.765</v>
+        <v>6.149</v>
       </c>
       <c r="E102" t="n">
-        <v>5.761</v>
+        <v>6.149</v>
       </c>
       <c r="F102" t="n">
-        <v>136941.9883</v>
+        <v>267.672</v>
       </c>
       <c r="G102" t="n">
-        <v>5461540.403611602</v>
+        <v>6172132.351328738</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4178,34 +4203,35 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>5.879</v>
+        <v>6.11</v>
       </c>
       <c r="C103" t="n">
-        <v>5.879</v>
+        <v>6.11</v>
       </c>
       <c r="D103" t="n">
-        <v>5.879</v>
+        <v>6.11</v>
       </c>
       <c r="E103" t="n">
-        <v>5.879</v>
+        <v>6.11</v>
       </c>
       <c r="F103" t="n">
-        <v>134389.1258</v>
+        <v>5811.053</v>
       </c>
       <c r="G103" t="n">
-        <v>5595929.529411602</v>
+        <v>6166321.298328738</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -4213,34 +4239,35 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>5.879</v>
+        <v>6.075</v>
       </c>
       <c r="C104" t="n">
-        <v>5.879</v>
+        <v>6.075</v>
       </c>
       <c r="D104" t="n">
-        <v>5.879</v>
+        <v>6.075</v>
       </c>
       <c r="E104" t="n">
-        <v>5.879</v>
+        <v>6.075</v>
       </c>
       <c r="F104" t="n">
-        <v>18478.2015</v>
+        <v>5493.4505</v>
       </c>
       <c r="G104" t="n">
-        <v>5595929.529411602</v>
+        <v>6160827.847828737</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4248,34 +4275,35 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>5.878</v>
+        <v>5.991</v>
       </c>
       <c r="C105" t="n">
-        <v>5.78</v>
+        <v>5.801</v>
       </c>
       <c r="D105" t="n">
-        <v>5.878</v>
+        <v>5.991</v>
       </c>
       <c r="E105" t="n">
-        <v>5.78</v>
+        <v>5.801</v>
       </c>
       <c r="F105" t="n">
-        <v>90914.182</v>
+        <v>199094.1889</v>
       </c>
       <c r="G105" t="n">
-        <v>5505015.347411602</v>
+        <v>5961733.658928737</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4283,34 +4311,35 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>5.789</v>
+        <v>5.803</v>
       </c>
       <c r="C106" t="n">
-        <v>5.789</v>
+        <v>5.811</v>
       </c>
       <c r="D106" t="n">
-        <v>5.789</v>
+        <v>5.811</v>
       </c>
       <c r="E106" t="n">
-        <v>5.789</v>
+        <v>5.8</v>
       </c>
       <c r="F106" t="n">
-        <v>5962.8542</v>
+        <v>488279.5468</v>
       </c>
       <c r="G106" t="n">
-        <v>5510978.201611602</v>
+        <v>6450013.205728737</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4318,34 +4347,35 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>5.802</v>
+        <v>5.928</v>
       </c>
       <c r="C107" t="n">
-        <v>5.802</v>
+        <v>5.928</v>
       </c>
       <c r="D107" t="n">
-        <v>5.802</v>
+        <v>5.928</v>
       </c>
       <c r="E107" t="n">
-        <v>5.802</v>
+        <v>5.928</v>
       </c>
       <c r="F107" t="n">
-        <v>456.2226</v>
+        <v>3990.157</v>
       </c>
       <c r="G107" t="n">
-        <v>5511434.424211602</v>
+        <v>6454003.362728736</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4353,34 +4383,35 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>5.899</v>
+        <v>5.894</v>
       </c>
       <c r="C108" t="n">
-        <v>5.97</v>
+        <v>5.894</v>
       </c>
       <c r="D108" t="n">
-        <v>5.97</v>
+        <v>5.894</v>
       </c>
       <c r="E108" t="n">
-        <v>5.899</v>
+        <v>5.894</v>
       </c>
       <c r="F108" t="n">
-        <v>13317.2655</v>
+        <v>85393.9176</v>
       </c>
       <c r="G108" t="n">
-        <v>5524751.689711601</v>
+        <v>6368609.445128736</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4388,34 +4419,35 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>5.97</v>
+        <v>5.96</v>
       </c>
       <c r="C109" t="n">
-        <v>5.97</v>
+        <v>5.96</v>
       </c>
       <c r="D109" t="n">
-        <v>5.97</v>
+        <v>5.96</v>
       </c>
       <c r="E109" t="n">
-        <v>5.97</v>
+        <v>5.96</v>
       </c>
       <c r="F109" t="n">
-        <v>8547.799999999999</v>
+        <v>100</v>
       </c>
       <c r="G109" t="n">
-        <v>5524751.689711601</v>
+        <v>6368709.445128736</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -4423,34 +4455,35 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>5.922</v>
+        <v>5.96</v>
       </c>
       <c r="C110" t="n">
-        <v>5.922</v>
+        <v>5.96</v>
       </c>
       <c r="D110" t="n">
-        <v>5.99</v>
+        <v>5.961</v>
       </c>
       <c r="E110" t="n">
-        <v>5.922</v>
+        <v>5.96</v>
       </c>
       <c r="F110" t="n">
-        <v>2982.4013</v>
+        <v>270468.787</v>
       </c>
       <c r="G110" t="n">
-        <v>5521769.288411601</v>
+        <v>6368709.445128736</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -4458,34 +4491,35 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>5.922</v>
+        <v>5.961</v>
       </c>
       <c r="C111" t="n">
-        <v>5.99</v>
+        <v>5.961</v>
       </c>
       <c r="D111" t="n">
-        <v>5.99</v>
+        <v>5.961</v>
       </c>
       <c r="E111" t="n">
-        <v>5.922</v>
+        <v>5.961</v>
       </c>
       <c r="F111" t="n">
-        <v>68718.35400000001</v>
+        <v>0.0004</v>
       </c>
       <c r="G111" t="n">
-        <v>5590487.642411602</v>
+        <v>6368709.445528736</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -4493,34 +4527,35 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>6.008</v>
+        <v>5.981</v>
       </c>
       <c r="C112" t="n">
-        <v>6.008</v>
+        <v>5.981</v>
       </c>
       <c r="D112" t="n">
-        <v>6.008</v>
+        <v>5.981</v>
       </c>
       <c r="E112" t="n">
-        <v>6.008</v>
+        <v>5.981</v>
       </c>
       <c r="F112" t="n">
-        <v>29211.45</v>
+        <v>90</v>
       </c>
       <c r="G112" t="n">
-        <v>5619699.092411602</v>
+        <v>6368799.445528736</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -4528,34 +4563,35 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>6.009</v>
+        <v>5.981</v>
       </c>
       <c r="C113" t="n">
-        <v>6.009</v>
+        <v>5.981</v>
       </c>
       <c r="D113" t="n">
-        <v>6.009</v>
+        <v>5.981</v>
       </c>
       <c r="E113" t="n">
-        <v>6.009</v>
+        <v>5.981</v>
       </c>
       <c r="F113" t="n">
-        <v>3328.527</v>
+        <v>15126.8154</v>
       </c>
       <c r="G113" t="n">
-        <v>5623027.619411602</v>
+        <v>6368799.445528736</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -4563,34 +4599,35 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>6.01</v>
+        <v>5.982</v>
       </c>
       <c r="C114" t="n">
-        <v>6.01</v>
+        <v>5.982</v>
       </c>
       <c r="D114" t="n">
-        <v>6.01</v>
+        <v>5.982</v>
       </c>
       <c r="E114" t="n">
-        <v>6.01</v>
+        <v>5.982</v>
       </c>
       <c r="F114" t="n">
-        <v>70243.2399</v>
+        <v>90</v>
       </c>
       <c r="G114" t="n">
-        <v>5693270.859311602</v>
+        <v>6368889.445528736</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -4598,34 +4635,35 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>6.016</v>
+        <v>5.99</v>
       </c>
       <c r="C115" t="n">
-        <v>6.016</v>
+        <v>5.99</v>
       </c>
       <c r="D115" t="n">
-        <v>6.016</v>
+        <v>5.99</v>
       </c>
       <c r="E115" t="n">
-        <v>6.016</v>
+        <v>5.99</v>
       </c>
       <c r="F115" t="n">
-        <v>1764.9045</v>
+        <v>2900</v>
       </c>
       <c r="G115" t="n">
-        <v>5695035.763811602</v>
+        <v>6371789.445528736</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -4633,28 +4671,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>6.007</v>
+        <v>5.99</v>
       </c>
       <c r="C116" t="n">
-        <v>6</v>
+        <v>5.99</v>
       </c>
       <c r="D116" t="n">
-        <v>6.007</v>
+        <v>5.99</v>
       </c>
       <c r="E116" t="n">
-        <v>6</v>
+        <v>5.99</v>
       </c>
       <c r="F116" t="n">
-        <v>22286.7153</v>
+        <v>90</v>
       </c>
       <c r="G116" t="n">
-        <v>5672749.048511602</v>
+        <v>6371789.445528736</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4668,28 +4707,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>5.947</v>
+        <v>6.078</v>
       </c>
       <c r="C117" t="n">
-        <v>6.016</v>
+        <v>6.078</v>
       </c>
       <c r="D117" t="n">
-        <v>6.016</v>
+        <v>6.078</v>
       </c>
       <c r="E117" t="n">
-        <v>5.947</v>
+        <v>6.078</v>
       </c>
       <c r="F117" t="n">
-        <v>169.0319</v>
+        <v>100</v>
       </c>
       <c r="G117" t="n">
-        <v>5672918.080411602</v>
+        <v>6371889.445528736</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4703,28 +4743,29 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>5.947</v>
+        <v>5.991</v>
       </c>
       <c r="C118" t="n">
-        <v>5.921</v>
+        <v>5.991</v>
       </c>
       <c r="D118" t="n">
-        <v>5.947</v>
+        <v>5.991</v>
       </c>
       <c r="E118" t="n">
-        <v>5.921</v>
+        <v>5.991</v>
       </c>
       <c r="F118" t="n">
-        <v>74669.26300000001</v>
+        <v>3944.8356</v>
       </c>
       <c r="G118" t="n">
-        <v>5598248.817411602</v>
+        <v>6367944.609928736</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4738,28 +4779,29 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>5.921</v>
+        <v>6.069</v>
       </c>
       <c r="C119" t="n">
-        <v>5.921</v>
+        <v>6.069</v>
       </c>
       <c r="D119" t="n">
-        <v>5.921</v>
+        <v>6.069</v>
       </c>
       <c r="E119" t="n">
-        <v>5.921</v>
+        <v>6.069</v>
       </c>
       <c r="F119" t="n">
-        <v>51957.9365</v>
+        <v>37632.0811</v>
       </c>
       <c r="G119" t="n">
-        <v>5598248.817411602</v>
+        <v>6405576.691028737</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4773,28 +4815,29 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>5.9</v>
+        <v>6.017</v>
       </c>
       <c r="C120" t="n">
-        <v>6.4</v>
+        <v>6.017</v>
       </c>
       <c r="D120" t="n">
-        <v>6.4</v>
+        <v>6.017</v>
       </c>
       <c r="E120" t="n">
-        <v>5.9</v>
+        <v>6.017</v>
       </c>
       <c r="F120" t="n">
-        <v>553382.8219450156</v>
+        <v>4510</v>
       </c>
       <c r="G120" t="n">
-        <v>6151631.639356617</v>
+        <v>6401066.691028737</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4808,28 +4851,29 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>6.234</v>
+        <v>6.02</v>
       </c>
       <c r="C121" t="n">
-        <v>6.234</v>
+        <v>6.02</v>
       </c>
       <c r="D121" t="n">
-        <v>6.234</v>
+        <v>6.02</v>
       </c>
       <c r="E121" t="n">
-        <v>6.234</v>
+        <v>6.02</v>
       </c>
       <c r="F121" t="n">
-        <v>3529.034327879371</v>
+        <v>22070.4729</v>
       </c>
       <c r="G121" t="n">
-        <v>6148102.605028737</v>
+        <v>6423137.163928737</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4843,28 +4887,29 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>6.04</v>
+        <v>6.006</v>
       </c>
       <c r="C122" t="n">
-        <v>6.1</v>
+        <v>6.006</v>
       </c>
       <c r="D122" t="n">
-        <v>6.1</v>
+        <v>6.006</v>
       </c>
       <c r="E122" t="n">
-        <v>6.04</v>
+        <v>6.006</v>
       </c>
       <c r="F122" t="n">
-        <v>164090.9878</v>
+        <v>100000</v>
       </c>
       <c r="G122" t="n">
-        <v>5984011.617228737</v>
+        <v>6323137.163928737</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4878,28 +4923,29 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>6.1</v>
+        <v>6.006</v>
       </c>
       <c r="C123" t="n">
-        <v>6.1</v>
+        <v>6.006</v>
       </c>
       <c r="D123" t="n">
-        <v>6.11</v>
+        <v>6.006</v>
       </c>
       <c r="E123" t="n">
-        <v>6.1</v>
+        <v>6.006</v>
       </c>
       <c r="F123" t="n">
-        <v>11607.30303502455</v>
+        <v>40164.043</v>
       </c>
       <c r="G123" t="n">
-        <v>5984011.617228737</v>
+        <v>6323137.163928737</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4913,28 +4959,29 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>6.031</v>
+        <v>6.07</v>
       </c>
       <c r="C124" t="n">
-        <v>6.03</v>
+        <v>6.07</v>
       </c>
       <c r="D124" t="n">
-        <v>6.031</v>
+        <v>6.07</v>
       </c>
       <c r="E124" t="n">
-        <v>6.03</v>
+        <v>6.07</v>
       </c>
       <c r="F124" t="n">
-        <v>36521.4226</v>
+        <v>83</v>
       </c>
       <c r="G124" t="n">
-        <v>5947490.194628737</v>
+        <v>6323220.163928737</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4948,28 +4995,29 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>6.013</v>
+        <v>5.992</v>
       </c>
       <c r="C125" t="n">
-        <v>6.013</v>
+        <v>5.98</v>
       </c>
       <c r="D125" t="n">
-        <v>6.013</v>
+        <v>5.992</v>
       </c>
       <c r="E125" t="n">
-        <v>6.013</v>
+        <v>5.98</v>
       </c>
       <c r="F125" t="n">
-        <v>5576.7151</v>
+        <v>40072.2516</v>
       </c>
       <c r="G125" t="n">
-        <v>5941913.479528737</v>
+        <v>6283147.912328737</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4983,34 +5031,35 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.964</v>
+        <v>5.98</v>
       </c>
       <c r="C126" t="n">
-        <v>5.901</v>
+        <v>5.822</v>
       </c>
       <c r="D126" t="n">
-        <v>5.964</v>
+        <v>5.98</v>
       </c>
       <c r="E126" t="n">
-        <v>5.901</v>
+        <v>5.822</v>
       </c>
       <c r="F126" t="n">
-        <v>111728.5831</v>
+        <v>369516.0811</v>
       </c>
       <c r="G126" t="n">
-        <v>5830184.896428737</v>
+        <v>5913631.831228737</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
@@ -5018,28 +5067,29 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.922</v>
+        <v>5.798</v>
       </c>
       <c r="C127" t="n">
-        <v>5.922</v>
+        <v>5.798</v>
       </c>
       <c r="D127" t="n">
-        <v>5.922</v>
+        <v>5.798</v>
       </c>
       <c r="E127" t="n">
-        <v>5.922</v>
+        <v>5.798</v>
       </c>
       <c r="F127" t="n">
-        <v>864.3609</v>
+        <v>600</v>
       </c>
       <c r="G127" t="n">
-        <v>5831049.257328737</v>
+        <v>5913031.831228737</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5053,28 +5103,29 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5.922</v>
+        <v>5.798</v>
       </c>
       <c r="C128" t="n">
-        <v>5.922</v>
+        <v>5.798</v>
       </c>
       <c r="D128" t="n">
-        <v>5.922</v>
+        <v>5.798</v>
       </c>
       <c r="E128" t="n">
-        <v>5.922</v>
+        <v>5.798</v>
       </c>
       <c r="F128" t="n">
-        <v>11607.303</v>
+        <v>330</v>
       </c>
       <c r="G128" t="n">
-        <v>5831049.257328737</v>
+        <v>5913031.831228737</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5088,28 +5139,29 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5.933</v>
+        <v>5.898</v>
       </c>
       <c r="C129" t="n">
-        <v>5.923</v>
+        <v>5.898</v>
       </c>
       <c r="D129" t="n">
-        <v>5.933</v>
+        <v>5.898</v>
       </c>
       <c r="E129" t="n">
-        <v>5.923</v>
+        <v>5.898</v>
       </c>
       <c r="F129" t="n">
-        <v>9771.2701</v>
+        <v>100</v>
       </c>
       <c r="G129" t="n">
-        <v>5840820.527428737</v>
+        <v>5913131.831228737</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5123,28 +5175,29 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5.901</v>
+        <v>5.8</v>
       </c>
       <c r="C130" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="D130" t="n">
-        <v>5.901</v>
+        <v>5.8</v>
       </c>
       <c r="E130" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="F130" t="n">
-        <v>70701.7099</v>
+        <v>100</v>
       </c>
       <c r="G130" t="n">
-        <v>5770118.817528737</v>
+        <v>5913031.831228737</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5158,28 +5211,29 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5.909</v>
+        <v>5.919</v>
       </c>
       <c r="C131" t="n">
-        <v>5.922</v>
+        <v>5.919</v>
       </c>
       <c r="D131" t="n">
-        <v>5.922</v>
+        <v>5.919</v>
       </c>
       <c r="E131" t="n">
-        <v>5.909</v>
+        <v>5.919</v>
       </c>
       <c r="F131" t="n">
-        <v>217976.8276</v>
+        <v>200</v>
       </c>
       <c r="G131" t="n">
-        <v>5988095.645128737</v>
+        <v>5913231.831228737</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5193,28 +5247,29 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>5.93</v>
+        <v>5.889</v>
       </c>
       <c r="C132" t="n">
-        <v>5.93</v>
+        <v>5.889</v>
       </c>
       <c r="D132" t="n">
-        <v>5.93</v>
+        <v>5.889</v>
       </c>
       <c r="E132" t="n">
-        <v>5.93</v>
+        <v>5.889</v>
       </c>
       <c r="F132" t="n">
-        <v>3529.0344</v>
+        <v>4016.7521</v>
       </c>
       <c r="G132" t="n">
-        <v>5991624.679528737</v>
+        <v>5909215.079128737</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5228,28 +5283,29 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>6.048</v>
+        <v>5.804</v>
       </c>
       <c r="C133" t="n">
-        <v>6.048</v>
+        <v>5.804</v>
       </c>
       <c r="D133" t="n">
-        <v>6.048</v>
+        <v>5.804</v>
       </c>
       <c r="E133" t="n">
-        <v>6.048</v>
+        <v>5.804</v>
       </c>
       <c r="F133" t="n">
-        <v>83</v>
+        <v>3059.122</v>
       </c>
       <c r="G133" t="n">
-        <v>5991707.679528737</v>
+        <v>5906155.957128736</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5263,28 +5319,29 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>6.048</v>
+        <v>5.806</v>
       </c>
       <c r="C134" t="n">
-        <v>6.1</v>
+        <v>5.849</v>
       </c>
       <c r="D134" t="n">
-        <v>6.1</v>
+        <v>5.849</v>
       </c>
       <c r="E134" t="n">
-        <v>6.048</v>
+        <v>5.801</v>
       </c>
       <c r="F134" t="n">
-        <v>427877.2004</v>
+        <v>44978.2322</v>
       </c>
       <c r="G134" t="n">
-        <v>6419584.879928738</v>
+        <v>5951134.189328737</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5298,28 +5355,29 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>6.09</v>
+        <v>5.801</v>
       </c>
       <c r="C135" t="n">
-        <v>6.09</v>
+        <v>5.801</v>
       </c>
       <c r="D135" t="n">
-        <v>6.09</v>
+        <v>5.801</v>
       </c>
       <c r="E135" t="n">
-        <v>6.09</v>
+        <v>5.801</v>
       </c>
       <c r="F135" t="n">
-        <v>3359.4266</v>
+        <v>48650.0729</v>
       </c>
       <c r="G135" t="n">
-        <v>6416225.453328738</v>
+        <v>5902484.116428737</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5333,28 +5391,29 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>6.1</v>
+        <v>5.84</v>
       </c>
       <c r="C136" t="n">
-        <v>6.12</v>
+        <v>5.84</v>
       </c>
       <c r="D136" t="n">
-        <v>6.12</v>
+        <v>5.84</v>
       </c>
       <c r="E136" t="n">
-        <v>6.1</v>
+        <v>5.84</v>
       </c>
       <c r="F136" t="n">
-        <v>32345.0294</v>
+        <v>100</v>
       </c>
       <c r="G136" t="n">
-        <v>6448570.482728738</v>
+        <v>5902584.116428737</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5368,28 +5427,29 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>6.12</v>
+        <v>5.82</v>
       </c>
       <c r="C137" t="n">
-        <v>6.12</v>
+        <v>5.82</v>
       </c>
       <c r="D137" t="n">
-        <v>6.12</v>
+        <v>5.82</v>
       </c>
       <c r="E137" t="n">
-        <v>6.12</v>
+        <v>5.82</v>
       </c>
       <c r="F137" t="n">
-        <v>20001</v>
+        <v>11149</v>
       </c>
       <c r="G137" t="n">
-        <v>6448570.482728738</v>
+        <v>5891435.116428737</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5403,28 +5463,29 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>6.135</v>
+        <v>5.82</v>
       </c>
       <c r="C138" t="n">
-        <v>6.135</v>
+        <v>5.806</v>
       </c>
       <c r="D138" t="n">
-        <v>6.135</v>
+        <v>5.82</v>
       </c>
       <c r="E138" t="n">
-        <v>6.135</v>
+        <v>5.806</v>
       </c>
       <c r="F138" t="n">
-        <v>8274.558000000001</v>
+        <v>401</v>
       </c>
       <c r="G138" t="n">
-        <v>6456845.040728739</v>
+        <v>5891034.116428737</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5438,28 +5499,29 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>6.349</v>
+        <v>5.806</v>
       </c>
       <c r="C139" t="n">
-        <v>6.349</v>
+        <v>5.805</v>
       </c>
       <c r="D139" t="n">
-        <v>6.349</v>
+        <v>5.806</v>
       </c>
       <c r="E139" t="n">
-        <v>6.349</v>
+        <v>5.805</v>
       </c>
       <c r="F139" t="n">
-        <v>100</v>
+        <v>34250.0908</v>
       </c>
       <c r="G139" t="n">
-        <v>6456945.040728739</v>
+        <v>5856784.025628736</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5473,34 +5535,35 @@
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>6.111</v>
+        <v>5.804</v>
       </c>
       <c r="C140" t="n">
-        <v>6.269</v>
+        <v>5.817</v>
       </c>
       <c r="D140" t="n">
-        <v>6.269</v>
+        <v>5.817</v>
       </c>
       <c r="E140" t="n">
-        <v>6.1</v>
+        <v>5.802</v>
       </c>
       <c r="F140" t="n">
-        <v>127423.7481</v>
+        <v>130067.6995</v>
       </c>
       <c r="G140" t="n">
-        <v>6329521.292628738</v>
+        <v>5986851.725128736</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
@@ -5508,28 +5571,29 @@
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>6.11</v>
+        <v>5.802</v>
       </c>
       <c r="C141" t="n">
-        <v>6.101</v>
+        <v>5.8</v>
       </c>
       <c r="D141" t="n">
-        <v>6.11</v>
+        <v>5.802</v>
       </c>
       <c r="E141" t="n">
-        <v>6.101</v>
+        <v>5.8</v>
       </c>
       <c r="F141" t="n">
-        <v>93930.5241</v>
+        <v>40365.2864</v>
       </c>
       <c r="G141" t="n">
-        <v>6235590.768528738</v>
+        <v>5946486.438728737</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5543,28 +5607,29 @@
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>6.22</v>
+        <v>5.8</v>
       </c>
       <c r="C142" t="n">
-        <v>6.076</v>
+        <v>5.8</v>
       </c>
       <c r="D142" t="n">
-        <v>6.22</v>
+        <v>5.8</v>
       </c>
       <c r="E142" t="n">
-        <v>6.076</v>
+        <v>5.8</v>
       </c>
       <c r="F142" t="n">
-        <v>63590.9562</v>
+        <v>51142.9379</v>
       </c>
       <c r="G142" t="n">
-        <v>6171999.812328738</v>
+        <v>5946486.438728737</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5578,28 +5643,29 @@
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>6.219</v>
+        <v>5.8</v>
       </c>
       <c r="C143" t="n">
-        <v>6.219</v>
+        <v>5.8</v>
       </c>
       <c r="D143" t="n">
-        <v>6.219</v>
+        <v>5.8</v>
       </c>
       <c r="E143" t="n">
-        <v>6.219</v>
+        <v>5.8</v>
       </c>
       <c r="F143" t="n">
-        <v>400.211</v>
+        <v>18857.062</v>
       </c>
       <c r="G143" t="n">
-        <v>6172400.023328738</v>
+        <v>5946486.438728737</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5613,28 +5679,29 @@
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>6.149</v>
+        <v>5.797</v>
       </c>
       <c r="C144" t="n">
-        <v>6.149</v>
+        <v>5.75</v>
       </c>
       <c r="D144" t="n">
-        <v>6.149</v>
+        <v>5.797</v>
       </c>
       <c r="E144" t="n">
-        <v>6.149</v>
+        <v>5.75</v>
       </c>
       <c r="F144" t="n">
-        <v>267.672</v>
+        <v>14697.5075</v>
       </c>
       <c r="G144" t="n">
-        <v>6172132.351328738</v>
+        <v>5931788.931228736</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5648,28 +5715,29 @@
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>6.11</v>
+        <v>5.75</v>
       </c>
       <c r="C145" t="n">
-        <v>6.11</v>
+        <v>5.75</v>
       </c>
       <c r="D145" t="n">
-        <v>6.11</v>
+        <v>5.75</v>
       </c>
       <c r="E145" t="n">
-        <v>6.11</v>
+        <v>5.75</v>
       </c>
       <c r="F145" t="n">
-        <v>5811.053</v>
+        <v>8583.603300000001</v>
       </c>
       <c r="G145" t="n">
-        <v>6166321.298328738</v>
+        <v>5931788.931228736</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5683,28 +5751,29 @@
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>6.075</v>
+        <v>5.721</v>
       </c>
       <c r="C146" t="n">
-        <v>6.075</v>
+        <v>5.69</v>
       </c>
       <c r="D146" t="n">
-        <v>6.075</v>
+        <v>5.721</v>
       </c>
       <c r="E146" t="n">
-        <v>6.075</v>
+        <v>5.69</v>
       </c>
       <c r="F146" t="n">
-        <v>5493.4505</v>
+        <v>6462.478</v>
       </c>
       <c r="G146" t="n">
-        <v>6160827.847828737</v>
+        <v>5925326.453228736</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5718,28 +5787,29 @@
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5.991</v>
+        <v>5.69</v>
       </c>
       <c r="C147" t="n">
-        <v>5.801</v>
+        <v>5.69</v>
       </c>
       <c r="D147" t="n">
-        <v>5.991</v>
+        <v>5.69</v>
       </c>
       <c r="E147" t="n">
-        <v>5.801</v>
+        <v>5.69</v>
       </c>
       <c r="F147" t="n">
-        <v>199094.1889</v>
+        <v>8224.9722</v>
       </c>
       <c r="G147" t="n">
-        <v>5961733.658928737</v>
+        <v>5925326.453228736</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5753,28 +5823,29 @@
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5.803</v>
+        <v>5.69</v>
       </c>
       <c r="C148" t="n">
-        <v>5.811</v>
+        <v>5.61</v>
       </c>
       <c r="D148" t="n">
-        <v>5.811</v>
+        <v>5.69</v>
       </c>
       <c r="E148" t="n">
-        <v>5.8</v>
+        <v>5.61</v>
       </c>
       <c r="F148" t="n">
-        <v>488279.5468</v>
+        <v>23271.0536</v>
       </c>
       <c r="G148" t="n">
-        <v>6450013.205728737</v>
+        <v>5902055.399628736</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5788,28 +5859,29 @@
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5.928</v>
+        <v>5.626</v>
       </c>
       <c r="C149" t="n">
-        <v>5.928</v>
+        <v>5.625</v>
       </c>
       <c r="D149" t="n">
-        <v>5.928</v>
+        <v>5.626</v>
       </c>
       <c r="E149" t="n">
-        <v>5.928</v>
+        <v>5.625</v>
       </c>
       <c r="F149" t="n">
-        <v>3990.157</v>
+        <v>59787.9385</v>
       </c>
       <c r="G149" t="n">
-        <v>6454003.362728736</v>
+        <v>5961843.338128736</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5823,28 +5895,29 @@
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>5.894</v>
+        <v>5.749</v>
       </c>
       <c r="C150" t="n">
-        <v>5.894</v>
+        <v>5.749</v>
       </c>
       <c r="D150" t="n">
-        <v>5.894</v>
+        <v>5.749</v>
       </c>
       <c r="E150" t="n">
-        <v>5.894</v>
+        <v>5.749</v>
       </c>
       <c r="F150" t="n">
-        <v>85393.9176</v>
+        <v>100</v>
       </c>
       <c r="G150" t="n">
-        <v>6368609.445128736</v>
+        <v>5961943.338128736</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5858,28 +5931,29 @@
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>5.96</v>
+        <v>5.651</v>
       </c>
       <c r="C151" t="n">
-        <v>5.96</v>
+        <v>5.625</v>
       </c>
       <c r="D151" t="n">
-        <v>5.96</v>
+        <v>5.651</v>
       </c>
       <c r="E151" t="n">
-        <v>5.96</v>
+        <v>5.625</v>
       </c>
       <c r="F151" t="n">
-        <v>100</v>
+        <v>40365.2864</v>
       </c>
       <c r="G151" t="n">
-        <v>6368709.445128736</v>
+        <v>5921578.051728737</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5893,28 +5967,29 @@
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5.96</v>
+        <v>5.729</v>
       </c>
       <c r="C152" t="n">
-        <v>5.96</v>
+        <v>5.73</v>
       </c>
       <c r="D152" t="n">
-        <v>5.961</v>
+        <v>5.73</v>
       </c>
       <c r="E152" t="n">
-        <v>5.96</v>
+        <v>5.729</v>
       </c>
       <c r="F152" t="n">
-        <v>270468.787</v>
+        <v>126029.1617</v>
       </c>
       <c r="G152" t="n">
-        <v>6368709.445128736</v>
+        <v>6047607.213428737</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5928,28 +6003,29 @@
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5.961</v>
+        <v>5.738</v>
       </c>
       <c r="C153" t="n">
-        <v>5.961</v>
+        <v>5.738</v>
       </c>
       <c r="D153" t="n">
-        <v>5.961</v>
+        <v>5.738</v>
       </c>
       <c r="E153" t="n">
-        <v>5.961</v>
+        <v>5.738</v>
       </c>
       <c r="F153" t="n">
-        <v>0.0004</v>
+        <v>41868</v>
       </c>
       <c r="G153" t="n">
-        <v>6368709.445528736</v>
+        <v>6089475.213428737</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5963,28 +6039,29 @@
       <c r="M153" t="n">
         <v>1</v>
       </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5.981</v>
+        <v>5.766</v>
       </c>
       <c r="C154" t="n">
-        <v>5.981</v>
+        <v>5.766</v>
       </c>
       <c r="D154" t="n">
-        <v>5.981</v>
+        <v>5.766</v>
       </c>
       <c r="E154" t="n">
-        <v>5.981</v>
+        <v>5.766</v>
       </c>
       <c r="F154" t="n">
-        <v>90</v>
+        <v>23492.7067</v>
       </c>
       <c r="G154" t="n">
-        <v>6368799.445528736</v>
+        <v>6112967.920128737</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5998,28 +6075,29 @@
       <c r="M154" t="n">
         <v>1</v>
       </c>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5.981</v>
+        <v>5.79</v>
       </c>
       <c r="C155" t="n">
-        <v>5.981</v>
+        <v>5.79</v>
       </c>
       <c r="D155" t="n">
-        <v>5.981</v>
+        <v>5.79</v>
       </c>
       <c r="E155" t="n">
-        <v>5.981</v>
+        <v>5.79</v>
       </c>
       <c r="F155" t="n">
-        <v>15126.8154</v>
+        <v>1758.0872</v>
       </c>
       <c r="G155" t="n">
-        <v>6368799.445528736</v>
+        <v>6114726.007328737</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6033,28 +6111,29 @@
       <c r="M155" t="n">
         <v>1</v>
       </c>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>5.982</v>
+        <v>5.889</v>
       </c>
       <c r="C156" t="n">
-        <v>5.982</v>
+        <v>5.889</v>
       </c>
       <c r="D156" t="n">
-        <v>5.982</v>
+        <v>5.889</v>
       </c>
       <c r="E156" t="n">
-        <v>5.982</v>
+        <v>5.889</v>
       </c>
       <c r="F156" t="n">
-        <v>90</v>
+        <v>27973.3825</v>
       </c>
       <c r="G156" t="n">
-        <v>6368889.445528736</v>
+        <v>6142699.389828737</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6068,28 +6147,29 @@
       <c r="M156" t="n">
         <v>1</v>
       </c>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5.99</v>
+        <v>5.889</v>
       </c>
       <c r="C157" t="n">
-        <v>5.99</v>
+        <v>5.889</v>
       </c>
       <c r="D157" t="n">
-        <v>5.99</v>
+        <v>5.889</v>
       </c>
       <c r="E157" t="n">
-        <v>5.99</v>
+        <v>5.889</v>
       </c>
       <c r="F157" t="n">
-        <v>2900</v>
+        <v>72026.61749999999</v>
       </c>
       <c r="G157" t="n">
-        <v>6371789.445528736</v>
+        <v>6142699.389828737</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6103,28 +6183,29 @@
       <c r="M157" t="n">
         <v>1</v>
       </c>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5.99</v>
+        <v>5.906</v>
       </c>
       <c r="C158" t="n">
-        <v>5.99</v>
+        <v>5.906</v>
       </c>
       <c r="D158" t="n">
-        <v>5.99</v>
+        <v>5.906</v>
       </c>
       <c r="E158" t="n">
-        <v>5.99</v>
+        <v>5.906</v>
       </c>
       <c r="F158" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G158" t="n">
-        <v>6371789.445528736</v>
+        <v>6142784.389828737</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6138,28 +6219,29 @@
       <c r="M158" t="n">
         <v>1</v>
       </c>
+      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>6.078</v>
+        <v>5.804</v>
       </c>
       <c r="C159" t="n">
-        <v>6.078</v>
+        <v>5.804</v>
       </c>
       <c r="D159" t="n">
-        <v>6.078</v>
+        <v>5.804</v>
       </c>
       <c r="E159" t="n">
-        <v>6.078</v>
+        <v>5.804</v>
       </c>
       <c r="F159" t="n">
-        <v>100</v>
+        <v>25068.917</v>
       </c>
       <c r="G159" t="n">
-        <v>6371889.445528736</v>
+        <v>6117715.472828737</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6173,28 +6255,29 @@
       <c r="M159" t="n">
         <v>1</v>
       </c>
+      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5.991</v>
+        <v>5.904</v>
       </c>
       <c r="C160" t="n">
-        <v>5.991</v>
+        <v>5.904</v>
       </c>
       <c r="D160" t="n">
-        <v>5.991</v>
+        <v>5.904</v>
       </c>
       <c r="E160" t="n">
-        <v>5.991</v>
+        <v>5.904</v>
       </c>
       <c r="F160" t="n">
-        <v>3944.8356</v>
+        <v>85</v>
       </c>
       <c r="G160" t="n">
-        <v>6367944.609928736</v>
+        <v>6117800.472828737</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6208,28 +6291,29 @@
       <c r="M160" t="n">
         <v>1</v>
       </c>
+      <c r="N160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>6.069</v>
+        <v>5.904</v>
       </c>
       <c r="C161" t="n">
-        <v>6.069</v>
+        <v>5.904</v>
       </c>
       <c r="D161" t="n">
-        <v>6.069</v>
+        <v>5.904</v>
       </c>
       <c r="E161" t="n">
-        <v>6.069</v>
+        <v>5.904</v>
       </c>
       <c r="F161" t="n">
-        <v>37632.0811</v>
+        <v>24983.917</v>
       </c>
       <c r="G161" t="n">
-        <v>6405576.691028737</v>
+        <v>6117800.472828737</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6243,28 +6327,29 @@
       <c r="M161" t="n">
         <v>1</v>
       </c>
+      <c r="N161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>6.017</v>
+        <v>5.904</v>
       </c>
       <c r="C162" t="n">
-        <v>6.017</v>
+        <v>5.906</v>
       </c>
       <c r="D162" t="n">
-        <v>6.017</v>
+        <v>5.906</v>
       </c>
       <c r="E162" t="n">
-        <v>6.017</v>
+        <v>5.904</v>
       </c>
       <c r="F162" t="n">
-        <v>4510</v>
+        <v>194025.7021</v>
       </c>
       <c r="G162" t="n">
-        <v>6401066.691028737</v>
+        <v>6311826.174928737</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6278,28 +6363,29 @@
       <c r="M162" t="n">
         <v>1</v>
       </c>
+      <c r="N162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>6.02</v>
+        <v>5.906</v>
       </c>
       <c r="C163" t="n">
-        <v>6.02</v>
+        <v>5.98</v>
       </c>
       <c r="D163" t="n">
-        <v>6.02</v>
+        <v>5.98</v>
       </c>
       <c r="E163" t="n">
-        <v>6.02</v>
+        <v>5.906</v>
       </c>
       <c r="F163" t="n">
-        <v>22070.4729</v>
+        <v>28942.7114</v>
       </c>
       <c r="G163" t="n">
-        <v>6423137.163928737</v>
+        <v>6340768.886328737</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6313,28 +6399,29 @@
       <c r="M163" t="n">
         <v>1</v>
       </c>
+      <c r="N163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>6.006</v>
+        <v>5.827</v>
       </c>
       <c r="C164" t="n">
-        <v>6.006</v>
+        <v>5.827</v>
       </c>
       <c r="D164" t="n">
-        <v>6.006</v>
+        <v>5.827</v>
       </c>
       <c r="E164" t="n">
-        <v>6.006</v>
+        <v>5.827</v>
       </c>
       <c r="F164" t="n">
-        <v>100000</v>
+        <v>2181.3479</v>
       </c>
       <c r="G164" t="n">
-        <v>6323137.163928737</v>
+        <v>6338587.538428737</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6348,28 +6435,29 @@
       <c r="M164" t="n">
         <v>1</v>
       </c>
+      <c r="N164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>6.006</v>
+        <v>5.957</v>
       </c>
       <c r="C165" t="n">
-        <v>6.006</v>
+        <v>5.957</v>
       </c>
       <c r="D165" t="n">
-        <v>6.006</v>
+        <v>5.957</v>
       </c>
       <c r="E165" t="n">
-        <v>6.006</v>
+        <v>5.957</v>
       </c>
       <c r="F165" t="n">
-        <v>40164.043</v>
+        <v>141.6787</v>
       </c>
       <c r="G165" t="n">
-        <v>6323137.163928737</v>
+        <v>6338729.217128737</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6383,28 +6471,29 @@
       <c r="M165" t="n">
         <v>1</v>
       </c>
+      <c r="N165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>6.07</v>
+        <v>5.829</v>
       </c>
       <c r="C166" t="n">
-        <v>6.07</v>
+        <v>5.829</v>
       </c>
       <c r="D166" t="n">
-        <v>6.07</v>
+        <v>5.829</v>
       </c>
       <c r="E166" t="n">
-        <v>6.07</v>
+        <v>5.829</v>
       </c>
       <c r="F166" t="n">
-        <v>83</v>
+        <v>20000</v>
       </c>
       <c r="G166" t="n">
-        <v>6323220.163928737</v>
+        <v>6318729.217128737</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6418,28 +6507,29 @@
       <c r="M166" t="n">
         <v>1</v>
       </c>
+      <c r="N166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>5.992</v>
+        <v>5.828</v>
       </c>
       <c r="C167" t="n">
-        <v>5.98</v>
+        <v>5.828</v>
       </c>
       <c r="D167" t="n">
-        <v>5.992</v>
+        <v>5.828</v>
       </c>
       <c r="E167" t="n">
-        <v>5.98</v>
+        <v>5.828</v>
       </c>
       <c r="F167" t="n">
-        <v>40072.2516</v>
+        <v>3377.2423</v>
       </c>
       <c r="G167" t="n">
-        <v>6283147.912328737</v>
+        <v>6315351.974828737</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6453,28 +6543,29 @@
       <c r="M167" t="n">
         <v>1</v>
       </c>
+      <c r="N167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>5.98</v>
+        <v>5.923</v>
       </c>
       <c r="C168" t="n">
-        <v>5.822</v>
+        <v>6.029</v>
       </c>
       <c r="D168" t="n">
-        <v>5.98</v>
+        <v>6.029</v>
       </c>
       <c r="E168" t="n">
-        <v>5.822</v>
+        <v>5.923</v>
       </c>
       <c r="F168" t="n">
-        <v>369516.0811</v>
+        <v>122181.348</v>
       </c>
       <c r="G168" t="n">
-        <v>5913631.831228737</v>
+        <v>6437533.322828737</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6488,28 +6579,29 @@
       <c r="M168" t="n">
         <v>1</v>
       </c>
+      <c r="N168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>5.798</v>
+        <v>5.93</v>
       </c>
       <c r="C169" t="n">
-        <v>5.798</v>
+        <v>5.93</v>
       </c>
       <c r="D169" t="n">
-        <v>5.798</v>
+        <v>5.93</v>
       </c>
       <c r="E169" t="n">
-        <v>5.798</v>
+        <v>5.93</v>
       </c>
       <c r="F169" t="n">
-        <v>600</v>
+        <v>22000</v>
       </c>
       <c r="G169" t="n">
-        <v>5913031.831228737</v>
+        <v>6415533.322828737</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6523,28 +6615,29 @@
       <c r="M169" t="n">
         <v>1</v>
       </c>
+      <c r="N169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>5.798</v>
+        <v>5.93</v>
       </c>
       <c r="C170" t="n">
-        <v>5.798</v>
+        <v>5.923</v>
       </c>
       <c r="D170" t="n">
-        <v>5.798</v>
+        <v>5.93</v>
       </c>
       <c r="E170" t="n">
-        <v>5.798</v>
+        <v>5.923</v>
       </c>
       <c r="F170" t="n">
-        <v>330</v>
+        <v>69163.4791</v>
       </c>
       <c r="G170" t="n">
-        <v>5913031.831228737</v>
+        <v>6346369.843728737</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6558,28 +6651,29 @@
       <c r="M170" t="n">
         <v>1</v>
       </c>
+      <c r="N170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>5.898</v>
+        <v>5.923</v>
       </c>
       <c r="C171" t="n">
-        <v>5.898</v>
+        <v>5.923</v>
       </c>
       <c r="D171" t="n">
-        <v>5.898</v>
+        <v>5.923</v>
       </c>
       <c r="E171" t="n">
-        <v>5.898</v>
+        <v>5.923</v>
       </c>
       <c r="F171" t="n">
-        <v>100</v>
+        <v>1010.8175</v>
       </c>
       <c r="G171" t="n">
-        <v>5913131.831228737</v>
+        <v>6346369.843728737</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6593,28 +6687,29 @@
       <c r="M171" t="n">
         <v>1</v>
       </c>
+      <c r="N171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>5.8</v>
+        <v>5.923</v>
       </c>
       <c r="C172" t="n">
-        <v>5.8</v>
+        <v>5.898</v>
       </c>
       <c r="D172" t="n">
-        <v>5.8</v>
+        <v>5.923</v>
       </c>
       <c r="E172" t="n">
-        <v>5.8</v>
+        <v>5.898</v>
       </c>
       <c r="F172" t="n">
-        <v>100</v>
+        <v>10533.3538</v>
       </c>
       <c r="G172" t="n">
-        <v>5913031.831228737</v>
+        <v>6335836.489928737</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6628,28 +6723,29 @@
       <c r="M172" t="n">
         <v>1</v>
       </c>
+      <c r="N172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5.919</v>
+        <v>6.01</v>
       </c>
       <c r="C173" t="n">
-        <v>5.919</v>
+        <v>6.01</v>
       </c>
       <c r="D173" t="n">
-        <v>5.919</v>
+        <v>6.01</v>
       </c>
       <c r="E173" t="n">
-        <v>5.919</v>
+        <v>6.01</v>
       </c>
       <c r="F173" t="n">
-        <v>200</v>
+        <v>95.82859999999999</v>
       </c>
       <c r="G173" t="n">
-        <v>5913231.831228737</v>
+        <v>6335932.318528737</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6663,1476 +6759,7 @@
       <c r="M173" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>5.889</v>
-      </c>
-      <c r="C174" t="n">
-        <v>5.889</v>
-      </c>
-      <c r="D174" t="n">
-        <v>5.889</v>
-      </c>
-      <c r="E174" t="n">
-        <v>5.889</v>
-      </c>
-      <c r="F174" t="n">
-        <v>4016.7521</v>
-      </c>
-      <c r="G174" t="n">
-        <v>5909215.079128737</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>5.804</v>
-      </c>
-      <c r="C175" t="n">
-        <v>5.804</v>
-      </c>
-      <c r="D175" t="n">
-        <v>5.804</v>
-      </c>
-      <c r="E175" t="n">
-        <v>5.804</v>
-      </c>
-      <c r="F175" t="n">
-        <v>3059.122</v>
-      </c>
-      <c r="G175" t="n">
-        <v>5906155.957128736</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>5.806</v>
-      </c>
-      <c r="C176" t="n">
-        <v>5.849</v>
-      </c>
-      <c r="D176" t="n">
-        <v>5.849</v>
-      </c>
-      <c r="E176" t="n">
-        <v>5.801</v>
-      </c>
-      <c r="F176" t="n">
-        <v>44978.2322</v>
-      </c>
-      <c r="G176" t="n">
-        <v>5951134.189328737</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>5.801</v>
-      </c>
-      <c r="C177" t="n">
-        <v>5.801</v>
-      </c>
-      <c r="D177" t="n">
-        <v>5.801</v>
-      </c>
-      <c r="E177" t="n">
-        <v>5.801</v>
-      </c>
-      <c r="F177" t="n">
-        <v>48650.0729</v>
-      </c>
-      <c r="G177" t="n">
-        <v>5902484.116428737</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="C178" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="D178" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="E178" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="F178" t="n">
-        <v>100</v>
-      </c>
-      <c r="G178" t="n">
-        <v>5902584.116428737</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="C179" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="D179" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="E179" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="F179" t="n">
-        <v>11149</v>
-      </c>
-      <c r="G179" t="n">
-        <v>5891435.116428737</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="C180" t="n">
-        <v>5.806</v>
-      </c>
-      <c r="D180" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="E180" t="n">
-        <v>5.806</v>
-      </c>
-      <c r="F180" t="n">
-        <v>401</v>
-      </c>
-      <c r="G180" t="n">
-        <v>5891034.116428737</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>5.806</v>
-      </c>
-      <c r="C181" t="n">
-        <v>5.805</v>
-      </c>
-      <c r="D181" t="n">
-        <v>5.806</v>
-      </c>
-      <c r="E181" t="n">
-        <v>5.805</v>
-      </c>
-      <c r="F181" t="n">
-        <v>34250.0908</v>
-      </c>
-      <c r="G181" t="n">
-        <v>5856784.025628736</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>5.804</v>
-      </c>
-      <c r="C182" t="n">
-        <v>5.817</v>
-      </c>
-      <c r="D182" t="n">
-        <v>5.817</v>
-      </c>
-      <c r="E182" t="n">
-        <v>5.802</v>
-      </c>
-      <c r="F182" t="n">
-        <v>130067.6995</v>
-      </c>
-      <c r="G182" t="n">
-        <v>5986851.725128736</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>5.802</v>
-      </c>
-      <c r="C183" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="D183" t="n">
-        <v>5.802</v>
-      </c>
-      <c r="E183" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="F183" t="n">
-        <v>40365.2864</v>
-      </c>
-      <c r="G183" t="n">
-        <v>5946486.438728737</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="C184" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="D184" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="E184" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="F184" t="n">
-        <v>51142.9379</v>
-      </c>
-      <c r="G184" t="n">
-        <v>5946486.438728737</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="C185" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="D185" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="E185" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="F185" t="n">
-        <v>18857.062</v>
-      </c>
-      <c r="G185" t="n">
-        <v>5946486.438728737</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>5.797</v>
-      </c>
-      <c r="C186" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="D186" t="n">
-        <v>5.797</v>
-      </c>
-      <c r="E186" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="F186" t="n">
-        <v>14697.5075</v>
-      </c>
-      <c r="G186" t="n">
-        <v>5931788.931228736</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="C187" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="D187" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="E187" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="F187" t="n">
-        <v>8583.603300000001</v>
-      </c>
-      <c r="G187" t="n">
-        <v>5931788.931228736</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>5.721</v>
-      </c>
-      <c r="C188" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="D188" t="n">
-        <v>5.721</v>
-      </c>
-      <c r="E188" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="F188" t="n">
-        <v>6462.478</v>
-      </c>
-      <c r="G188" t="n">
-        <v>5925326.453228736</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="C189" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="D189" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="E189" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="F189" t="n">
-        <v>8224.9722</v>
-      </c>
-      <c r="G189" t="n">
-        <v>5925326.453228736</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="C190" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="D190" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="E190" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="F190" t="n">
-        <v>23271.0536</v>
-      </c>
-      <c r="G190" t="n">
-        <v>5902055.399628736</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>5.626</v>
-      </c>
-      <c r="C191" t="n">
-        <v>5.625</v>
-      </c>
-      <c r="D191" t="n">
-        <v>5.626</v>
-      </c>
-      <c r="E191" t="n">
-        <v>5.625</v>
-      </c>
-      <c r="F191" t="n">
-        <v>59787.9385</v>
-      </c>
-      <c r="G191" t="n">
-        <v>5961843.338128736</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>5.749</v>
-      </c>
-      <c r="C192" t="n">
-        <v>5.749</v>
-      </c>
-      <c r="D192" t="n">
-        <v>5.749</v>
-      </c>
-      <c r="E192" t="n">
-        <v>5.749</v>
-      </c>
-      <c r="F192" t="n">
-        <v>100</v>
-      </c>
-      <c r="G192" t="n">
-        <v>5961943.338128736</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>5.651</v>
-      </c>
-      <c r="C193" t="n">
-        <v>5.625</v>
-      </c>
-      <c r="D193" t="n">
-        <v>5.651</v>
-      </c>
-      <c r="E193" t="n">
-        <v>5.625</v>
-      </c>
-      <c r="F193" t="n">
-        <v>40365.2864</v>
-      </c>
-      <c r="G193" t="n">
-        <v>5921578.051728737</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>5.729</v>
-      </c>
-      <c r="C194" t="n">
-        <v>5.73</v>
-      </c>
-      <c r="D194" t="n">
-        <v>5.73</v>
-      </c>
-      <c r="E194" t="n">
-        <v>5.729</v>
-      </c>
-      <c r="F194" t="n">
-        <v>126029.1617</v>
-      </c>
-      <c r="G194" t="n">
-        <v>6047607.213428737</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>5.738</v>
-      </c>
-      <c r="C195" t="n">
-        <v>5.738</v>
-      </c>
-      <c r="D195" t="n">
-        <v>5.738</v>
-      </c>
-      <c r="E195" t="n">
-        <v>5.738</v>
-      </c>
-      <c r="F195" t="n">
-        <v>41868</v>
-      </c>
-      <c r="G195" t="n">
-        <v>6089475.213428737</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>5.766</v>
-      </c>
-      <c r="C196" t="n">
-        <v>5.766</v>
-      </c>
-      <c r="D196" t="n">
-        <v>5.766</v>
-      </c>
-      <c r="E196" t="n">
-        <v>5.766</v>
-      </c>
-      <c r="F196" t="n">
-        <v>23492.7067</v>
-      </c>
-      <c r="G196" t="n">
-        <v>6112967.920128737</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="C197" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="D197" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="E197" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="F197" t="n">
-        <v>1758.0872</v>
-      </c>
-      <c r="G197" t="n">
-        <v>6114726.007328737</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>5.889</v>
-      </c>
-      <c r="C198" t="n">
-        <v>5.889</v>
-      </c>
-      <c r="D198" t="n">
-        <v>5.889</v>
-      </c>
-      <c r="E198" t="n">
-        <v>5.889</v>
-      </c>
-      <c r="F198" t="n">
-        <v>27973.3825</v>
-      </c>
-      <c r="G198" t="n">
-        <v>6142699.389828737</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>5.889</v>
-      </c>
-      <c r="C199" t="n">
-        <v>5.889</v>
-      </c>
-      <c r="D199" t="n">
-        <v>5.889</v>
-      </c>
-      <c r="E199" t="n">
-        <v>5.889</v>
-      </c>
-      <c r="F199" t="n">
-        <v>72026.61749999999</v>
-      </c>
-      <c r="G199" t="n">
-        <v>6142699.389828737</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>5.906</v>
-      </c>
-      <c r="C200" t="n">
-        <v>5.906</v>
-      </c>
-      <c r="D200" t="n">
-        <v>5.906</v>
-      </c>
-      <c r="E200" t="n">
-        <v>5.906</v>
-      </c>
-      <c r="F200" t="n">
-        <v>85</v>
-      </c>
-      <c r="G200" t="n">
-        <v>6142784.389828737</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>5.804</v>
-      </c>
-      <c r="C201" t="n">
-        <v>5.804</v>
-      </c>
-      <c r="D201" t="n">
-        <v>5.804</v>
-      </c>
-      <c r="E201" t="n">
-        <v>5.804</v>
-      </c>
-      <c r="F201" t="n">
-        <v>25068.917</v>
-      </c>
-      <c r="G201" t="n">
-        <v>6117715.472828737</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>5.904</v>
-      </c>
-      <c r="C202" t="n">
-        <v>5.904</v>
-      </c>
-      <c r="D202" t="n">
-        <v>5.904</v>
-      </c>
-      <c r="E202" t="n">
-        <v>5.904</v>
-      </c>
-      <c r="F202" t="n">
-        <v>85</v>
-      </c>
-      <c r="G202" t="n">
-        <v>6117800.472828737</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>5.904</v>
-      </c>
-      <c r="C203" t="n">
-        <v>5.904</v>
-      </c>
-      <c r="D203" t="n">
-        <v>5.904</v>
-      </c>
-      <c r="E203" t="n">
-        <v>5.904</v>
-      </c>
-      <c r="F203" t="n">
-        <v>24983.917</v>
-      </c>
-      <c r="G203" t="n">
-        <v>6117800.472828737</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>5.904</v>
-      </c>
-      <c r="C204" t="n">
-        <v>5.906</v>
-      </c>
-      <c r="D204" t="n">
-        <v>5.906</v>
-      </c>
-      <c r="E204" t="n">
-        <v>5.904</v>
-      </c>
-      <c r="F204" t="n">
-        <v>194025.7021</v>
-      </c>
-      <c r="G204" t="n">
-        <v>6311826.174928737</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>5.906</v>
-      </c>
-      <c r="C205" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="D205" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="E205" t="n">
-        <v>5.906</v>
-      </c>
-      <c r="F205" t="n">
-        <v>28942.7114</v>
-      </c>
-      <c r="G205" t="n">
-        <v>6340768.886328737</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>5.827</v>
-      </c>
-      <c r="C206" t="n">
-        <v>5.827</v>
-      </c>
-      <c r="D206" t="n">
-        <v>5.827</v>
-      </c>
-      <c r="E206" t="n">
-        <v>5.827</v>
-      </c>
-      <c r="F206" t="n">
-        <v>2181.3479</v>
-      </c>
-      <c r="G206" t="n">
-        <v>6338587.538428737</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>5.957</v>
-      </c>
-      <c r="C207" t="n">
-        <v>5.957</v>
-      </c>
-      <c r="D207" t="n">
-        <v>5.957</v>
-      </c>
-      <c r="E207" t="n">
-        <v>5.957</v>
-      </c>
-      <c r="F207" t="n">
-        <v>141.6787</v>
-      </c>
-      <c r="G207" t="n">
-        <v>6338729.217128737</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>5.829</v>
-      </c>
-      <c r="C208" t="n">
-        <v>5.829</v>
-      </c>
-      <c r="D208" t="n">
-        <v>5.829</v>
-      </c>
-      <c r="E208" t="n">
-        <v>5.829</v>
-      </c>
-      <c r="F208" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G208" t="n">
-        <v>6318729.217128737</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>5.828</v>
-      </c>
-      <c r="C209" t="n">
-        <v>5.828</v>
-      </c>
-      <c r="D209" t="n">
-        <v>5.828</v>
-      </c>
-      <c r="E209" t="n">
-        <v>5.828</v>
-      </c>
-      <c r="F209" t="n">
-        <v>3377.2423</v>
-      </c>
-      <c r="G209" t="n">
-        <v>6315351.974828737</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>5.923</v>
-      </c>
-      <c r="C210" t="n">
-        <v>6.029</v>
-      </c>
-      <c r="D210" t="n">
-        <v>6.029</v>
-      </c>
-      <c r="E210" t="n">
-        <v>5.923</v>
-      </c>
-      <c r="F210" t="n">
-        <v>122181.348</v>
-      </c>
-      <c r="G210" t="n">
-        <v>6437533.322828737</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="C211" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="D211" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="E211" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="F211" t="n">
-        <v>22000</v>
-      </c>
-      <c r="G211" t="n">
-        <v>6415533.322828737</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="C212" t="n">
-        <v>5.923</v>
-      </c>
-      <c r="D212" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="E212" t="n">
-        <v>5.923</v>
-      </c>
-      <c r="F212" t="n">
-        <v>69163.4791</v>
-      </c>
-      <c r="G212" t="n">
-        <v>6346369.843728737</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>5.923</v>
-      </c>
-      <c r="C213" t="n">
-        <v>5.923</v>
-      </c>
-      <c r="D213" t="n">
-        <v>5.923</v>
-      </c>
-      <c r="E213" t="n">
-        <v>5.923</v>
-      </c>
-      <c r="F213" t="n">
-        <v>1010.8175</v>
-      </c>
-      <c r="G213" t="n">
-        <v>6346369.843728737</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>5.923</v>
-      </c>
-      <c r="C214" t="n">
-        <v>5.898</v>
-      </c>
-      <c r="D214" t="n">
-        <v>5.923</v>
-      </c>
-      <c r="E214" t="n">
-        <v>5.898</v>
-      </c>
-      <c r="F214" t="n">
-        <v>10533.3538</v>
-      </c>
-      <c r="G214" t="n">
-        <v>6335836.489928737</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="C215" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="D215" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="E215" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="F215" t="n">
-        <v>95.82859999999999</v>
-      </c>
-      <c r="G215" t="n">
-        <v>6335932.318528737</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
+      <c r="N173" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-21 BackTest BZNT.xlsx
+++ b/BackTest/2020-01-21 BackTest BZNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -748,10 +748,14 @@
         <v>-1998746.4055</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J11" t="n">
+        <v>5.557</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
@@ -781,11 +785,19 @@
         <v>-2050757.0205</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,15 +826,19 @@
         <v>-2052546.3626</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>5.5</v>
       </c>
       <c r="J13" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
+        <v>5.557</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -851,15 +867,17 @@
         <v>-2167567.6813</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>5.492</v>
+      </c>
       <c r="J14" t="n">
-        <v>5.5</v>
+        <v>5.557</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L14" t="n">
@@ -890,11 +908,13 @@
         <v>-2167476.6813</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>5.483</v>
+      </c>
       <c r="J15" t="n">
-        <v>5.5</v>
+        <v>5.557</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -929,11 +949,13 @@
         <v>-2167476.6813</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5.529</v>
+      </c>
       <c r="J16" t="n">
-        <v>5.5</v>
+        <v>5.557</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -968,11 +990,13 @@
         <v>-2168101.1884</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>5.529</v>
+      </c>
       <c r="J17" t="n">
-        <v>5.5</v>
+        <v>5.557</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1007,11 +1031,13 @@
         <v>-2168001.1884</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5.475</v>
+      </c>
       <c r="J18" t="n">
-        <v>5.5</v>
+        <v>5.557</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1046,11 +1072,13 @@
         <v>-2168001.1884</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>5.529</v>
+      </c>
       <c r="J19" t="n">
-        <v>5.5</v>
+        <v>5.557</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1085,13 +1113,13 @@
         <v>-2282251.6737</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>5.529</v>
       </c>
       <c r="J20" t="n">
-        <v>5.5</v>
+        <v>5.557</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1126,13 +1154,13 @@
         <v>-2358828.5388</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>5.475</v>
       </c>
       <c r="J21" t="n">
-        <v>5.5</v>
+        <v>5.557</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1167,13 +1195,13 @@
         <v>-2357443.805</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>5.472</v>
       </c>
       <c r="J22" t="n">
-        <v>5.5</v>
+        <v>5.557</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1208,13 +1236,13 @@
         <v>-2593463.6814</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>5.559</v>
       </c>
       <c r="J23" t="n">
-        <v>5.5</v>
+        <v>5.557</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1249,13 +1277,13 @@
         <v>-2575824.502799999</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>5.472</v>
       </c>
       <c r="J24" t="n">
-        <v>5.5</v>
+        <v>5.557</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1290,13 +1318,13 @@
         <v>-2577527.3585</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>5.539</v>
       </c>
       <c r="J25" t="n">
-        <v>5.5</v>
+        <v>5.557</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1331,13 +1359,13 @@
         <v>-2577122.0947</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>5.497</v>
       </c>
       <c r="J26" t="n">
-        <v>5.5</v>
+        <v>5.557</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1372,13 +1400,13 @@
         <v>-77122.09469999978</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>5.569</v>
       </c>
       <c r="J27" t="n">
-        <v>5.5</v>
+        <v>5.557</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -1417,7 +1445,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>5.5</v>
+        <v>5.557</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1456,7 +1484,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>5.5</v>
+        <v>5.557</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -1495,7 +1523,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
-        <v>5.5</v>
+        <v>5.557</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1530,11 +1558,13 @@
         <v>190605.2772000002</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>5.782</v>
+      </c>
       <c r="J31" t="n">
-        <v>5.5</v>
+        <v>5.557</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -1569,11 +1599,13 @@
         <v>95775.02720000022</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>5.98</v>
+      </c>
       <c r="J32" t="n">
-        <v>5.5</v>
+        <v>5.557</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -1612,7 +1644,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>5.5</v>
+        <v>5.557</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -1651,7 +1683,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>5.5</v>
+        <v>5.557</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -1686,13 +1718,13 @@
         <v>-4224.972799999785</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>5.8</v>
       </c>
       <c r="J35" t="n">
-        <v>5.5</v>
+        <v>5.557</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1727,13 +1759,13 @@
         <v>-58624.97279999978</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>5.72</v>
       </c>
       <c r="J36" t="n">
-        <v>5.5</v>
+        <v>5.557</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -1768,13 +1800,13 @@
         <v>-58534.97279999978</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>5.68</v>
       </c>
       <c r="J37" t="n">
-        <v>5.5</v>
+        <v>5.557</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1809,13 +1841,13 @@
         <v>-60203.05999999979</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>5.79</v>
       </c>
       <c r="J38" t="n">
-        <v>5.5</v>
+        <v>5.557</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1850,13 +1882,13 @@
         <v>-75852.05999999979</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>5.7</v>
       </c>
       <c r="J39" t="n">
-        <v>5.5</v>
+        <v>5.557</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -1895,7 +1927,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>5.5</v>
+        <v>5.557</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -1930,11 +1962,13 @@
         <v>-82895.79999999978</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>5.68</v>
+      </c>
       <c r="J41" t="n">
-        <v>5.5</v>
+        <v>5.557</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -1973,7 +2007,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>5.5</v>
+        <v>5.557</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -2008,13 +2042,11 @@
         <v>-82903.54469999978</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="n">
-        <v>5.634</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>5.5</v>
+        <v>5.557</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2049,13 +2081,11 @@
         <v>-82813.54469999978</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="n">
-        <v>5.689</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>5.5</v>
+        <v>5.557</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2090,13 +2120,11 @@
         <v>-775132.7493999997</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" t="n">
-        <v>5.729</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>5.5</v>
+        <v>5.557</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2135,7 +2163,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>5.5</v>
+        <v>5.557</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2174,7 +2202,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>5.5</v>
+        <v>5.557</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2213,7 +2241,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>5.5</v>
+        <v>5.557</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2252,7 +2280,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>5.5</v>
+        <v>5.557</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2291,7 +2319,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>5.5</v>
+        <v>5.557</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2330,7 +2358,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>5.5</v>
+        <v>5.557</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2369,7 +2397,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>5.5</v>
+        <v>5.557</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2408,7 +2436,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>5.5</v>
+        <v>5.557</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2447,7 +2475,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>5.5</v>
+        <v>5.557</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2486,7 +2514,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>5.5</v>
+        <v>5.557</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2525,7 +2553,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>5.5</v>
+        <v>5.557</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2564,7 +2592,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>5.5</v>
+        <v>5.557</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2599,11 +2627,13 @@
         <v>-900417.3579999998</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>5.875</v>
+      </c>
       <c r="J58" t="n">
-        <v>5.5</v>
+        <v>5.557</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2638,11 +2668,13 @@
         <v>-900031.6065999998</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>5.873</v>
+      </c>
       <c r="J59" t="n">
-        <v>5.5</v>
+        <v>5.557</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2677,13 +2709,11 @@
         <v>-902833.4871999999</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
-      </c>
-      <c r="I60" t="n">
-        <v>5.875</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>5.5</v>
+        <v>5.557</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2718,13 +2748,13 @@
         <v>-902833.4871999999</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>5.805</v>
       </c>
       <c r="J61" t="n">
-        <v>5.5</v>
+        <v>5.557</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2759,13 +2789,13 @@
         <v>-1010423.2983</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>5.805</v>
       </c>
       <c r="J62" t="n">
-        <v>5.5</v>
+        <v>5.557</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2800,13 +2830,13 @@
         <v>-1173084.6541</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>5.77</v>
       </c>
       <c r="J63" t="n">
-        <v>5.5</v>
+        <v>5.557</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2841,13 +2871,13 @@
         <v>-1265165.5462</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>5.7</v>
       </c>
       <c r="J64" t="n">
-        <v>5.5</v>
+        <v>5.557</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2882,13 +2912,13 @@
         <v>-1172143.6912</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>5.614</v>
       </c>
       <c r="J65" t="n">
-        <v>5.5</v>
+        <v>5.557</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2923,13 +2953,13 @@
         <v>-1172053.6912</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>5.677</v>
       </c>
       <c r="J66" t="n">
-        <v>5.5</v>
+        <v>5.557</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2964,13 +2994,13 @@
         <v>-1072053.6912</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>5.73</v>
       </c>
       <c r="J67" t="n">
-        <v>5.5</v>
+        <v>5.557</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -3005,11 +3035,13 @@
         <v>-1071968.6912</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>5.74</v>
+      </c>
       <c r="J68" t="n">
-        <v>5.5</v>
+        <v>5.557</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -3044,13 +3076,13 @@
         <v>-997299.4282</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>5.756</v>
       </c>
       <c r="J69" t="n">
-        <v>5.5</v>
+        <v>5.557</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3085,11 +3117,13 @@
         <v>-834345.2649793185</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>5.8</v>
+      </c>
       <c r="J70" t="n">
-        <v>5.5</v>
+        <v>5.557</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3124,11 +3158,13 @@
         <v>-741267.4197523685</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>5.899</v>
+      </c>
       <c r="J71" t="n">
-        <v>5.5</v>
+        <v>5.557</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3167,7 +3203,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>5.5</v>
+        <v>5.557</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3206,7 +3242,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>5.5</v>
+        <v>5.557</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3245,7 +3281,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>5.5</v>
+        <v>5.557</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3284,7 +3320,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>5.5</v>
+        <v>5.557</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3323,7 +3359,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>5.5</v>
+        <v>5.557</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3362,7 +3398,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>5.5</v>
+        <v>5.557</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3401,7 +3437,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>5.5</v>
+        <v>5.557</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3440,7 +3476,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>5.5</v>
+        <v>5.557</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3479,7 +3515,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>5.5</v>
+        <v>5.557</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3518,7 +3554,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>5.5</v>
+        <v>5.557</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3557,7 +3593,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>5.5</v>
+        <v>5.557</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3596,7 +3632,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>5.5</v>
+        <v>5.557</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3635,7 +3671,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>5.5</v>
+        <v>5.557</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3670,23 +3706,21 @@
         <v>6360192.283376529</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>5.5</v>
+        <v>5.557</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.256454545454545</v>
-      </c>
-      <c r="M85" t="n">
-        <v>1.025276752767528</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3711,11 +3745,17 @@
         <v>6332077.956976529</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3747,8 +3787,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3777,11 +3823,17 @@
         <v>8002292.426876529</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3813,8 +3865,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3846,8 +3904,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3879,8 +3943,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3909,11 +3979,17 @@
         <v>7546238.676676529</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3945,8 +4021,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3975,11 +4057,17 @@
         <v>7636384.269376528</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4011,8 +4099,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4041,11 +4135,17 @@
         <v>7032023.620176529</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4077,8 +4177,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4107,15 +4213,23 @@
         <v>6862622.614276528</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>1.160197048767321</v>
+      </c>
+      <c r="M98" t="n">
+        <v>1.025276752767528</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4140,7 +4254,7 @@
         <v>6665066.846376528</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4173,7 +4287,7 @@
         <v>6703700.064076528</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4206,7 +4320,7 @@
         <v>6703700.064076528</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4239,7 +4353,7 @@
         <v>6703700.064076528</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4272,7 +4386,7 @@
         <v>6884108.598211601</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4305,7 +4419,7 @@
         <v>6883928.598211601</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4338,7 +4452,7 @@
         <v>6895291.094211602</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4371,7 +4485,7 @@
         <v>6926007.282211602</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4404,7 +4518,7 @@
         <v>6926107.282211602</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4437,7 +4551,7 @@
         <v>6754829.741311601</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4470,7 +4584,7 @@
         <v>6754554.420411602</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4503,7 +4617,7 @@
         <v>6853600.746911602</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4536,7 +4650,7 @@
         <v>6786537.823711602</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4569,7 +4683,7 @@
         <v>6783065.591011602</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4602,7 +4716,7 @@
         <v>6083065.591011602</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4635,7 +4749,7 @@
         <v>6883145.591011602</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4668,7 +4782,7 @@
         <v>6863145.591011602</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4701,7 +4815,7 @@
         <v>6881716.593511603</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4734,7 +4848,7 @@
         <v>6710864.051411603</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4833,7 +4947,7 @@
         <v>6652126.962411602</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -5031,7 +5145,7 @@
         <v>5952621.413411602</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5064,7 +5178,7 @@
         <v>5847949.834111602</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5097,7 +5211,7 @@
         <v>5609204.179511602</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5130,7 +5244,7 @@
         <v>5565882.828911602</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5163,7 +5277,7 @@
         <v>5598482.391911603</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5196,7 +5310,7 @@
         <v>5461540.403611602</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5229,7 +5343,7 @@
         <v>5595929.529411602</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5262,7 +5376,7 @@
         <v>5595929.529411602</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5295,7 +5409,7 @@
         <v>5505015.347411602</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5328,7 +5442,7 @@
         <v>5510978.201611602</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5361,7 +5475,7 @@
         <v>5511434.424211602</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5955,7 +6069,7 @@
         <v>5941913.479528737</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6450,7 +6564,7 @@
         <v>6329521.292628738</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6483,7 +6597,7 @@
         <v>6235590.768528738</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6582,7 +6696,7 @@
         <v>6172132.351328738</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6978,7 +7092,7 @@
         <v>6368889.445528736</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7011,7 +7125,7 @@
         <v>6371789.445528736</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7044,7 +7158,7 @@
         <v>6371789.445528736</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -8331,14 +8445,10 @@
         <v>6114726.007328737</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
-      </c>
-      <c r="I226" t="n">
-        <v>5.766</v>
-      </c>
-      <c r="J226" t="n">
-        <v>5.766</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
@@ -8368,19 +8478,11 @@
         <v>6142699.389828737</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
-      </c>
-      <c r="I227" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="J227" t="n">
-        <v>5.766</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8412,14 +8514,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>5.766</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8712,7 +8808,7 @@
         <v>6318729.217128737</v>
       </c>
       <c r="H237" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8943,7 +9039,7 @@
         <v>6335932.318528737</v>
       </c>
       <c r="H244" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8954,6 +9050,6 @@
       <c r="M244" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest BZNT.xlsx
+++ b/BackTest/2020-01-21 BackTest BZNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -748,14 +748,10 @@
         <v>-1998746.4055</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>5.557</v>
-      </c>
-      <c r="J11" t="n">
-        <v>5.557</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
@@ -785,19 +781,11 @@
         <v>-2050757.0205</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>5.557</v>
-      </c>
-      <c r="J12" t="n">
-        <v>5.557</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -826,19 +814,11 @@
         <v>-2052546.3626</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J13" t="n">
-        <v>5.557</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -867,19 +847,11 @@
         <v>-2167567.6813</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>5.492</v>
-      </c>
-      <c r="J14" t="n">
-        <v>5.557</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -908,19 +880,11 @@
         <v>-2167476.6813</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>5.483</v>
-      </c>
-      <c r="J15" t="n">
-        <v>5.557</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -949,19 +913,11 @@
         <v>-2167476.6813</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>5.529</v>
-      </c>
-      <c r="J16" t="n">
-        <v>5.557</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -990,19 +946,11 @@
         <v>-2168101.1884</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>5.529</v>
-      </c>
-      <c r="J17" t="n">
-        <v>5.557</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1031,19 +979,11 @@
         <v>-2168001.1884</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>5.475</v>
-      </c>
-      <c r="J18" t="n">
-        <v>5.557</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1072,19 +1012,11 @@
         <v>-2168001.1884</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>5.529</v>
-      </c>
-      <c r="J19" t="n">
-        <v>5.557</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1118,12 +1050,10 @@
       <c r="I20" t="n">
         <v>5.529</v>
       </c>
-      <c r="J20" t="n">
-        <v>5.557</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L20" t="n">
@@ -1159,9 +1089,7 @@
       <c r="I21" t="n">
         <v>5.475</v>
       </c>
-      <c r="J21" t="n">
-        <v>5.557</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1200,9 +1128,7 @@
       <c r="I22" t="n">
         <v>5.472</v>
       </c>
-      <c r="J22" t="n">
-        <v>5.557</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1241,9 +1167,7 @@
       <c r="I23" t="n">
         <v>5.559</v>
       </c>
-      <c r="J23" t="n">
-        <v>5.557</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1282,9 +1206,7 @@
       <c r="I24" t="n">
         <v>5.472</v>
       </c>
-      <c r="J24" t="n">
-        <v>5.557</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1323,9 +1245,7 @@
       <c r="I25" t="n">
         <v>5.539</v>
       </c>
-      <c r="J25" t="n">
-        <v>5.557</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1364,9 +1284,7 @@
       <c r="I26" t="n">
         <v>5.497</v>
       </c>
-      <c r="J26" t="n">
-        <v>5.557</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1405,9 +1323,7 @@
       <c r="I27" t="n">
         <v>5.569</v>
       </c>
-      <c r="J27" t="n">
-        <v>5.557</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1444,9 +1360,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>5.557</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1483,9 +1397,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>5.557</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1522,9 +1434,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>5.557</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1558,14 +1468,10 @@
         <v>190605.2772000002</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>5.782</v>
-      </c>
-      <c r="J31" t="n">
-        <v>5.557</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1599,14 +1505,10 @@
         <v>95775.02720000022</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="J32" t="n">
-        <v>5.557</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1643,9 +1545,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>5.557</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1682,9 +1582,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>5.557</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1718,14 +1616,10 @@
         <v>-4224.972799999785</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="J35" t="n">
-        <v>5.557</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1759,14 +1653,10 @@
         <v>-58624.97279999978</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="J36" t="n">
-        <v>5.557</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1800,14 +1690,10 @@
         <v>-58534.97279999978</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="J37" t="n">
-        <v>5.557</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1841,14 +1727,10 @@
         <v>-60203.05999999979</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="J38" t="n">
-        <v>5.557</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1882,14 +1764,10 @@
         <v>-75852.05999999979</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="J39" t="n">
-        <v>5.557</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1926,9 +1804,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>5.557</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1962,14 +1838,10 @@
         <v>-82895.79999999978</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="J41" t="n">
-        <v>5.557</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2006,9 +1878,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>5.557</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2045,9 +1915,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>5.557</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2084,9 +1952,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>5.557</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2123,9 +1989,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>5.557</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2162,9 +2026,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>5.557</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2201,9 +2063,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>5.557</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2240,9 +2100,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>5.557</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2279,9 +2137,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>5.557</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2318,9 +2174,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>5.557</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2357,9 +2211,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>5.557</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2396,9 +2248,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>5.557</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2435,9 +2285,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>5.557</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2474,9 +2322,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>5.557</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2513,9 +2359,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>5.557</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2552,9 +2396,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>5.557</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2591,9 +2433,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>5.557</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2627,14 +2467,10 @@
         <v>-900417.3579999998</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>5.875</v>
-      </c>
-      <c r="J58" t="n">
-        <v>5.557</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2668,14 +2504,10 @@
         <v>-900031.6065999998</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>5.873</v>
-      </c>
-      <c r="J59" t="n">
-        <v>5.557</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2712,9 +2544,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>5.557</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2748,14 +2578,10 @@
         <v>-902833.4871999999</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>5.805</v>
-      </c>
-      <c r="J61" t="n">
-        <v>5.557</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2789,14 +2615,10 @@
         <v>-1010423.2983</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>5.805</v>
-      </c>
-      <c r="J62" t="n">
-        <v>5.557</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2830,14 +2652,10 @@
         <v>-1173084.6541</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="J63" t="n">
-        <v>5.557</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2871,14 +2689,10 @@
         <v>-1265165.5462</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="J64" t="n">
-        <v>5.557</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2912,14 +2726,10 @@
         <v>-1172143.6912</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>5.614</v>
-      </c>
-      <c r="J65" t="n">
-        <v>5.557</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2953,14 +2763,10 @@
         <v>-1172053.6912</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>5.677</v>
-      </c>
-      <c r="J66" t="n">
-        <v>5.557</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2994,14 +2800,10 @@
         <v>-1072053.6912</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>5.73</v>
-      </c>
-      <c r="J67" t="n">
-        <v>5.557</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3035,14 +2837,10 @@
         <v>-1071968.6912</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="J68" t="n">
-        <v>5.557</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3076,14 +2874,10 @@
         <v>-997299.4282</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>5.756</v>
-      </c>
-      <c r="J69" t="n">
-        <v>5.557</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3117,14 +2911,10 @@
         <v>-834345.2649793185</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="J70" t="n">
-        <v>5.557</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3158,14 +2948,10 @@
         <v>-741267.4197523685</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>5.899</v>
-      </c>
-      <c r="J71" t="n">
-        <v>5.557</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3202,9 +2988,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>5.557</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3241,9 +3025,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>5.557</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3280,9 +3062,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>5.557</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3319,9 +3099,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>5.557</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3358,9 +3136,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>5.557</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3397,9 +3173,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>5.557</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3436,9 +3210,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>5.557</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3475,9 +3247,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>5.557</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3514,9 +3284,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>5.557</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3553,9 +3321,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>5.557</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3592,9 +3358,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>5.557</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3631,9 +3395,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>5.557</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3670,9 +3432,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>5.557</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3709,9 +3469,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>5.557</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3748,9 +3506,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>5.557</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3787,9 +3543,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>5.557</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3826,9 +3580,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>5.557</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3865,9 +3617,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>5.557</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3904,9 +3654,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>5.557</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3943,9 +3691,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>5.557</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3982,9 +3728,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>5.557</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4021,9 +3765,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>5.557</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4060,9 +3802,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>5.557</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4099,9 +3839,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>5.557</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4138,9 +3876,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>5.557</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4177,9 +3913,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>5.557</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4213,23 +3947,19 @@
         <v>6862622.614276528</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>5.557</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L98" t="n">
-        <v>1.160197048767321</v>
-      </c>
-      <c r="M98" t="n">
-        <v>1.025276752767528</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4254,11 +3984,15 @@
         <v>6665066.846376528</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4287,11 +4021,15 @@
         <v>6703700.064076528</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4320,11 +4058,15 @@
         <v>6703700.064076528</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4353,11 +4095,15 @@
         <v>6703700.064076528</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4386,11 +4132,15 @@
         <v>6884108.598211601</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4419,11 +4169,15 @@
         <v>6883928.598211601</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4452,11 +4206,15 @@
         <v>6895291.094211602</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4485,11 +4243,15 @@
         <v>6926007.282211602</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4518,11 +4280,15 @@
         <v>6926107.282211602</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4551,11 +4317,15 @@
         <v>6754829.741311601</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4584,11 +4354,15 @@
         <v>6754554.420411602</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4617,11 +4391,15 @@
         <v>6853600.746911602</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4650,11 +4428,15 @@
         <v>6786537.823711602</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4683,11 +4465,15 @@
         <v>6783065.591011602</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4716,11 +4502,15 @@
         <v>6083065.591011602</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4753,10 +4543,12 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
@@ -5145,7 +4937,7 @@
         <v>5952621.413411602</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5178,7 +4970,7 @@
         <v>5847949.834111602</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5211,7 +5003,7 @@
         <v>5609204.179511602</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5244,7 +5036,7 @@
         <v>5565882.828911602</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5277,7 +5069,7 @@
         <v>5598482.391911603</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5310,7 +5102,7 @@
         <v>5461540.403611602</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5343,7 +5135,7 @@
         <v>5595929.529411602</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5376,7 +5168,7 @@
         <v>5595929.529411602</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5409,7 +5201,7 @@
         <v>5505015.347411602</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5442,7 +5234,7 @@
         <v>5510978.201611602</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5475,7 +5267,7 @@
         <v>5511434.424211602</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -9050,6 +8842,6 @@
       <c r="M244" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest BZNT.xlsx
+++ b/BackTest/2020-01-21 BackTest BZNT.xlsx
@@ -3503,18 +3503,16 @@
         <v>6332077.956976529</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
@@ -3544,11 +3542,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3581,11 +3575,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3618,11 +3608,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3651,15 +3637,11 @@
         <v>7693054.539176528</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3688,15 +3670,11 @@
         <v>7546166.676676529</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3725,15 +3703,11 @@
         <v>7546238.676676529</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3762,15 +3736,11 @@
         <v>7367362.420076529</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3799,15 +3769,11 @@
         <v>7636384.269376528</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3836,15 +3802,11 @@
         <v>7399709.269376528</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3873,15 +3835,11 @@
         <v>7032023.620176529</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3914,11 +3872,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3947,15 +3901,11 @@
         <v>6862622.614276528</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3988,11 +3938,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4025,11 +3971,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4062,11 +4004,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4099,11 +4037,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4136,11 +4070,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4173,11 +4103,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4210,11 +4136,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4247,11 +4169,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4284,11 +4202,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4321,11 +4235,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4358,11 +4268,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4395,11 +4301,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4432,11 +4334,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4469,11 +4367,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4506,11 +4400,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4539,16 +4429,14 @@
         <v>6883145.591011602</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
       <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
@@ -4574,7 +4462,7 @@
         <v>6863145.591011602</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4607,7 +4495,7 @@
         <v>6881716.593511603</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4640,7 +4528,7 @@
         <v>6710864.051411603</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>

--- a/BackTest/2020-01-21 BackTest BZNT.xlsx
+++ b/BackTest/2020-01-21 BackTest BZNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M244"/>
+  <dimension ref="A1:L244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>1720352.3624</v>
       </c>
       <c r="G2" t="n">
-        <v>-1733251.1395</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>52617.7036</v>
       </c>
       <c r="G3" t="n">
-        <v>-1785868.8431</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>90</v>
       </c>
       <c r="G4" t="n">
-        <v>-1785778.8431</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>90</v>
       </c>
       <c r="G5" t="n">
-        <v>-1785688.8431</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>176</v>
       </c>
       <c r="G6" t="n">
-        <v>-1785864.8431</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>90</v>
       </c>
       <c r="G7" t="n">
-        <v>-1785774.8431</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>213061.5624</v>
       </c>
       <c r="G8" t="n">
-        <v>-1998836.4055</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>90</v>
       </c>
       <c r="G9" t="n">
-        <v>-1998746.4055</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,19 @@
         <v>521.074</v>
       </c>
       <c r="G10" t="n">
-        <v>-1998746.4055</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>5.557</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5.557</v>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +717,23 @@
         <v>5474.9185</v>
       </c>
       <c r="G11" t="n">
-        <v>-1998746.4055</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>5.557</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +755,23 @@
         <v>52010.615</v>
       </c>
       <c r="G12" t="n">
-        <v>-2050757.0205</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>5.557</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +793,21 @@
         <v>1789.3421</v>
       </c>
       <c r="G13" t="n">
-        <v>-2052546.3626</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +829,21 @@
         <v>115021.3187</v>
       </c>
       <c r="G14" t="n">
-        <v>-2167567.6813</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +865,21 @@
         <v>91</v>
       </c>
       <c r="G15" t="n">
-        <v>-2167476.6813</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +901,21 @@
         <v>524.5071441490323</v>
       </c>
       <c r="G16" t="n">
-        <v>-2167476.6813</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +937,21 @@
         <v>624.5071</v>
       </c>
       <c r="G17" t="n">
-        <v>-2168101.1884</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +973,23 @@
         <v>100</v>
       </c>
       <c r="G18" t="n">
-        <v>-2168001.1884</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>5.475</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +1011,23 @@
         <v>3472.2327</v>
       </c>
       <c r="G19" t="n">
-        <v>-2168001.1884</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>5.529</v>
+      </c>
+      <c r="I19" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,24 +1049,23 @@
         <v>114250.4853</v>
       </c>
       <c r="G20" t="n">
-        <v>-2282251.6737</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>5.529</v>
       </c>
       <c r="I20" t="n">
-        <v>5.529</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>5.557</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1081,24 +1087,23 @@
         <v>76576.8651</v>
       </c>
       <c r="G21" t="n">
-        <v>-2358828.5388</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>5.475</v>
       </c>
       <c r="I21" t="n">
-        <v>5.475</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
+        <v>5.557</v>
+      </c>
+      <c r="J21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1120,24 +1125,23 @@
         <v>1384.7338</v>
       </c>
       <c r="G22" t="n">
-        <v>-2357443.805</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>5.472</v>
       </c>
       <c r="I22" t="n">
-        <v>5.472</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
+        <v>5.557</v>
+      </c>
+      <c r="J22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1159,24 +1163,23 @@
         <v>236019.8764</v>
       </c>
       <c r="G23" t="n">
-        <v>-2593463.6814</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>5.559</v>
       </c>
       <c r="I23" t="n">
-        <v>5.559</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
+        <v>5.557</v>
+      </c>
+      <c r="J23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1198,24 +1201,23 @@
         <v>17639.1786</v>
       </c>
       <c r="G24" t="n">
-        <v>-2575824.502799999</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>5.472</v>
       </c>
       <c r="I24" t="n">
-        <v>5.472</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
+        <v>5.557</v>
+      </c>
+      <c r="J24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1237,24 +1239,23 @@
         <v>1702.8557</v>
       </c>
       <c r="G25" t="n">
-        <v>-2577527.3585</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>5.539</v>
       </c>
       <c r="I25" t="n">
-        <v>5.539</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
+        <v>5.557</v>
+      </c>
+      <c r="J25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1276,24 +1277,23 @@
         <v>405.2638</v>
       </c>
       <c r="G26" t="n">
-        <v>-2577122.0947</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>5.497</v>
       </c>
       <c r="I26" t="n">
-        <v>5.497</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
+        <v>5.557</v>
+      </c>
+      <c r="J26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1315,24 +1315,23 @@
         <v>2500000</v>
       </c>
       <c r="G27" t="n">
-        <v>-77122.09469999978</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>5.569</v>
       </c>
       <c r="I27" t="n">
-        <v>5.569</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
+        <v>5.557</v>
+      </c>
+      <c r="J27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1354,22 +1353,23 @@
         <v>131971.1166</v>
       </c>
       <c r="G28" t="n">
-        <v>-77122.09469999978</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
+        <v>5.75</v>
+      </c>
+      <c r="I28" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1391,22 +1391,23 @@
         <v>84474.8272</v>
       </c>
       <c r="G29" t="n">
-        <v>7352.732500000217</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
+        <v>5.75</v>
+      </c>
+      <c r="I29" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1428,22 +1429,21 @@
         <v>16747.4553</v>
       </c>
       <c r="G30" t="n">
-        <v>-9394.722799999785</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1465,22 +1465,23 @@
         <v>200000</v>
       </c>
       <c r="G31" t="n">
-        <v>190605.2772000002</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
+        <v>5.782</v>
+      </c>
+      <c r="I31" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1502,22 +1503,21 @@
         <v>94830.25</v>
       </c>
       <c r="G32" t="n">
-        <v>95775.02720000022</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1539,22 +1539,21 @@
         <v>100000</v>
       </c>
       <c r="G33" t="n">
-        <v>-4224.972799999785</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1576,22 +1575,21 @@
         <v>100000</v>
       </c>
       <c r="G34" t="n">
-        <v>95775.02720000022</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1613,22 +1611,21 @@
         <v>100000</v>
       </c>
       <c r="G35" t="n">
-        <v>-4224.972799999785</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1650,22 +1647,21 @@
         <v>54400</v>
       </c>
       <c r="G36" t="n">
-        <v>-58624.97279999978</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1687,22 +1683,21 @@
         <v>90</v>
       </c>
       <c r="G37" t="n">
-        <v>-58534.97279999978</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1724,22 +1719,21 @@
         <v>1668.0872</v>
       </c>
       <c r="G38" t="n">
-        <v>-60203.05999999979</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1761,22 +1755,21 @@
         <v>15649</v>
       </c>
       <c r="G39" t="n">
-        <v>-75852.05999999979</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1798,22 +1791,21 @@
         <v>9146.314200000001</v>
       </c>
       <c r="G40" t="n">
-        <v>-84998.37419999979</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1835,22 +1827,21 @@
         <v>2102.5742</v>
       </c>
       <c r="G41" t="n">
-        <v>-82895.79999999978</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1872,22 +1863,21 @@
         <v>97.74469999999999</v>
       </c>
       <c r="G42" t="n">
-        <v>-82993.54469999978</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1909,22 +1899,21 @@
         <v>90</v>
       </c>
       <c r="G43" t="n">
-        <v>-82903.54469999978</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1946,22 +1935,21 @@
         <v>90</v>
       </c>
       <c r="G44" t="n">
-        <v>-82813.54469999978</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1983,22 +1971,21 @@
         <v>692319.2047</v>
       </c>
       <c r="G45" t="n">
-        <v>-775132.7493999997</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2020,22 +2007,21 @@
         <v>90</v>
       </c>
       <c r="G46" t="n">
-        <v>-775042.7493999997</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2057,22 +2043,21 @@
         <v>3491.0107</v>
       </c>
       <c r="G47" t="n">
-        <v>-775042.7493999997</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2094,22 +2079,21 @@
         <v>200000</v>
       </c>
       <c r="G48" t="n">
-        <v>-975042.7493999997</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2131,22 +2115,21 @@
         <v>50000</v>
       </c>
       <c r="G49" t="n">
-        <v>-925042.7493999997</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2168,22 +2151,21 @@
         <v>11637.7509</v>
       </c>
       <c r="G50" t="n">
-        <v>-925042.7493999997</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2205,22 +2187,21 @@
         <v>10545.4335</v>
       </c>
       <c r="G51" t="n">
-        <v>-914497.3158999997</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2242,22 +2223,21 @@
         <v>1631.6343</v>
       </c>
       <c r="G52" t="n">
-        <v>-912865.6815999997</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2279,22 +2259,21 @@
         <v>100</v>
       </c>
       <c r="G53" t="n">
-        <v>-912765.6815999997</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2316,22 +2295,21 @@
         <v>562.3</v>
       </c>
       <c r="G54" t="n">
-        <v>-913327.9815999997</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2353,22 +2331,21 @@
         <v>15000</v>
       </c>
       <c r="G55" t="n">
-        <v>-898327.9815999997</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J55" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2390,22 +2367,21 @@
         <v>1631.6343</v>
       </c>
       <c r="G56" t="n">
-        <v>-899959.6158999997</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J56" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2427,22 +2403,21 @@
         <v>776.1301</v>
       </c>
       <c r="G57" t="n">
-        <v>-899959.6158999997</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2464,22 +2439,21 @@
         <v>457.7421</v>
       </c>
       <c r="G58" t="n">
-        <v>-900417.3579999998</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J58" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2501,22 +2475,21 @@
         <v>385.7514</v>
       </c>
       <c r="G59" t="n">
-        <v>-900031.6065999998</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J59" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2538,22 +2511,21 @@
         <v>2801.8806</v>
       </c>
       <c r="G60" t="n">
-        <v>-902833.4871999999</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J60" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2575,22 +2547,21 @@
         <v>16282.0687</v>
       </c>
       <c r="G61" t="n">
-        <v>-902833.4871999999</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J61" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2612,22 +2583,21 @@
         <v>107589.8111</v>
       </c>
       <c r="G62" t="n">
-        <v>-1010423.2983</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J62" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2649,22 +2619,21 @@
         <v>162661.3558</v>
       </c>
       <c r="G63" t="n">
-        <v>-1173084.6541</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J63" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2686,22 +2655,21 @@
         <v>92080.8921</v>
       </c>
       <c r="G64" t="n">
-        <v>-1265165.5462</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J64" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2723,22 +2691,21 @@
         <v>93021.855</v>
       </c>
       <c r="G65" t="n">
-        <v>-1172143.6912</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J65" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2760,22 +2727,21 @@
         <v>90</v>
       </c>
       <c r="G66" t="n">
-        <v>-1172053.6912</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J66" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2797,22 +2763,21 @@
         <v>100000</v>
       </c>
       <c r="G67" t="n">
-        <v>-1072053.6912</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J67" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,22 +2799,21 @@
         <v>85</v>
       </c>
       <c r="G68" t="n">
-        <v>-1071968.6912</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J68" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2871,22 +2835,21 @@
         <v>74669.26300000001</v>
       </c>
       <c r="G69" t="n">
-        <v>-997299.4282</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J69" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2908,22 +2871,21 @@
         <v>162954.1632206815</v>
       </c>
       <c r="G70" t="n">
-        <v>-834345.2649793185</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J70" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2945,22 +2907,21 @@
         <v>93077.84522694997</v>
       </c>
       <c r="G71" t="n">
-        <v>-741267.4197523685</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J71" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2982,22 +2943,21 @@
         <v>611157.2439472351</v>
       </c>
       <c r="G72" t="n">
-        <v>-130110.1758051334</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J72" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3019,22 +2979,21 @@
         <v>148716.5695</v>
       </c>
       <c r="G73" t="n">
-        <v>-130110.1758051334</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J73" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3056,22 +3015,21 @@
         <v>193997.8317</v>
       </c>
       <c r="G74" t="n">
-        <v>-130110.1758051334</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J74" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3093,22 +3051,21 @@
         <v>5.133532876373e-06</v>
       </c>
       <c r="G75" t="n">
-        <v>-130110.1758051334</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J75" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3130,22 +3087,21 @@
         <v>100000</v>
       </c>
       <c r="G76" t="n">
-        <v>-30110.17580513342</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J76" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3167,22 +3123,21 @@
         <v>24120.8966</v>
       </c>
       <c r="G77" t="n">
-        <v>-5989.279205133418</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J77" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3204,22 +3159,21 @@
         <v>11878</v>
       </c>
       <c r="G78" t="n">
-        <v>5888.720794866582</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J78" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3241,22 +3195,21 @@
         <v>90733.70419999999</v>
       </c>
       <c r="G79" t="n">
-        <v>5888.720794866582</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J79" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3278,22 +3231,21 @@
         <v>83</v>
       </c>
       <c r="G80" t="n">
-        <v>5971.720794866582</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J80" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3315,22 +3267,21 @@
         <v>10542.9504</v>
       </c>
       <c r="G81" t="n">
-        <v>16514.67119486658</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J81" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3352,22 +3303,21 @@
         <v>994129.2731</v>
       </c>
       <c r="G82" t="n">
-        <v>1010643.944294867</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J82" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3389,22 +3339,21 @@
         <v>1983261.3161</v>
       </c>
       <c r="G83" t="n">
-        <v>2993905.260394867</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J83" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3426,22 +3375,21 @@
         <v>3592434.228481663</v>
       </c>
       <c r="G84" t="n">
-        <v>6586339.488876529</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J84" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3463,22 +3411,21 @@
         <v>226147.2055</v>
       </c>
       <c r="G85" t="n">
-        <v>6360192.283376529</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J85" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3500,20 +3447,21 @@
         <v>28114.3264</v>
       </c>
       <c r="G86" t="n">
-        <v>6332077.956976529</v>
-      </c>
-      <c r="H86" t="n">
-        <v>2</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
       </c>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3535,18 +3483,21 @@
         <v>88</v>
       </c>
       <c r="G87" t="n">
-        <v>6331989.956976529</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3568,18 +3519,21 @@
         <v>1670302.4699</v>
       </c>
       <c r="G88" t="n">
-        <v>8002292.426876529</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3601,18 +3555,21 @@
         <v>211151.0984</v>
       </c>
       <c r="G89" t="n">
-        <v>8213443.525276529</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3634,18 +3591,21 @@
         <v>520388.9861</v>
       </c>
       <c r="G90" t="n">
-        <v>7693054.539176528</v>
-      </c>
-      <c r="H90" t="n">
-        <v>2</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3667,18 +3627,21 @@
         <v>146887.8625</v>
       </c>
       <c r="G91" t="n">
-        <v>7546166.676676529</v>
-      </c>
-      <c r="H91" t="n">
-        <v>2</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3700,18 +3663,23 @@
         <v>72</v>
       </c>
       <c r="G92" t="n">
-        <v>7546238.676676529</v>
-      </c>
-      <c r="H92" t="n">
         <v>2</v>
       </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1.254492531941695</v>
+      </c>
       <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>1.025276752767528</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3733,18 +3701,15 @@
         <v>178876.2566</v>
       </c>
       <c r="G93" t="n">
-        <v>7367362.420076529</v>
-      </c>
-      <c r="H93" t="n">
         <v>2</v>
       </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3766,18 +3731,15 @@
         <v>269021.8493</v>
       </c>
       <c r="G94" t="n">
-        <v>7636384.269376528</v>
-      </c>
-      <c r="H94" t="n">
         <v>2</v>
       </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3799,18 +3761,15 @@
         <v>236675</v>
       </c>
       <c r="G95" t="n">
-        <v>7399709.269376528</v>
-      </c>
-      <c r="H95" t="n">
         <v>2</v>
       </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3832,18 +3791,15 @@
         <v>367685.6492</v>
       </c>
       <c r="G96" t="n">
-        <v>7032023.620176529</v>
-      </c>
-      <c r="H96" t="n">
         <v>2</v>
       </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3865,18 +3821,15 @@
         <v>35781.0301</v>
       </c>
       <c r="G97" t="n">
-        <v>7067804.650276529</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3898,18 +3851,15 @@
         <v>205182.036</v>
       </c>
       <c r="G98" t="n">
-        <v>6862622.614276528</v>
-      </c>
-      <c r="H98" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3931,18 +3881,15 @@
         <v>197555.7679</v>
       </c>
       <c r="G99" t="n">
-        <v>6665066.846376528</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3964,18 +3911,15 @@
         <v>38633.2177</v>
       </c>
       <c r="G100" t="n">
-        <v>6703700.064076528</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3997,18 +3941,15 @@
         <v>312281.9704</v>
       </c>
       <c r="G101" t="n">
-        <v>6703700.064076528</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4030,18 +3971,15 @@
         <v>630431.3940139846</v>
       </c>
       <c r="G102" t="n">
-        <v>6703700.064076528</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4063,18 +4001,15 @@
         <v>180408.5341350734</v>
       </c>
       <c r="G103" t="n">
-        <v>6884108.598211601</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4096,18 +4031,15 @@
         <v>180</v>
       </c>
       <c r="G104" t="n">
-        <v>6883928.598211601</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4129,18 +4061,15 @@
         <v>11362.496</v>
       </c>
       <c r="G105" t="n">
-        <v>6895291.094211602</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4162,18 +4091,15 @@
         <v>30716.188</v>
       </c>
       <c r="G106" t="n">
-        <v>6926007.282211602</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4195,18 +4121,15 @@
         <v>100</v>
       </c>
       <c r="G107" t="n">
-        <v>6926107.282211602</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4228,18 +4151,15 @@
         <v>171277.5409</v>
       </c>
       <c r="G108" t="n">
-        <v>6754829.741311601</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4261,18 +4181,15 @@
         <v>275.3209</v>
       </c>
       <c r="G109" t="n">
-        <v>6754554.420411602</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4294,18 +4211,15 @@
         <v>99046.3265</v>
       </c>
       <c r="G110" t="n">
-        <v>6853600.746911602</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4327,18 +4241,15 @@
         <v>67062.9232</v>
       </c>
       <c r="G111" t="n">
-        <v>6786537.823711602</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4360,18 +4271,15 @@
         <v>3472.2327</v>
       </c>
       <c r="G112" t="n">
-        <v>6783065.591011602</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4393,18 +4301,15 @@
         <v>700000</v>
       </c>
       <c r="G113" t="n">
-        <v>6083065.591011602</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4426,18 +4331,15 @@
         <v>800080</v>
       </c>
       <c r="G114" t="n">
-        <v>6883145.591011602</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4459,18 +4361,15 @@
         <v>20000</v>
       </c>
       <c r="G115" t="n">
-        <v>6863145.591011602</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4492,18 +4391,15 @@
         <v>18571.0025</v>
       </c>
       <c r="G116" t="n">
-        <v>6881716.593511603</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4525,18 +4421,15 @@
         <v>170852.5421</v>
       </c>
       <c r="G117" t="n">
-        <v>6710864.051411603</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4558,18 +4451,15 @@
         <v>49488.3008</v>
       </c>
       <c r="G118" t="n">
-        <v>6661375.750611602</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4591,18 +4481,15 @@
         <v>9336.788200000001</v>
       </c>
       <c r="G119" t="n">
-        <v>6652038.962411602</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4624,18 +4511,15 @@
         <v>88</v>
       </c>
       <c r="G120" t="n">
-        <v>6652126.962411602</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4657,18 +4541,15 @@
         <v>73841.2041</v>
       </c>
       <c r="G121" t="n">
-        <v>6578285.758311602</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4690,18 +4571,15 @@
         <v>100000</v>
       </c>
       <c r="G122" t="n">
-        <v>6678285.758311602</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4723,18 +4601,15 @@
         <v>10675.2509</v>
       </c>
       <c r="G123" t="n">
-        <v>6688961.009211603</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4756,18 +4631,15 @@
         <v>282634.9813</v>
       </c>
       <c r="G124" t="n">
-        <v>6406326.027911603</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4789,18 +4661,15 @@
         <v>17905.0496</v>
       </c>
       <c r="G125" t="n">
-        <v>6406326.027911603</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4822,18 +4691,15 @@
         <v>453704.6145</v>
       </c>
       <c r="G126" t="n">
-        <v>5952621.413411602</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4855,18 +4721,15 @@
         <v>104671.5793</v>
       </c>
       <c r="G127" t="n">
-        <v>5847949.834111602</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4888,18 +4751,15 @@
         <v>238745.6546</v>
       </c>
       <c r="G128" t="n">
-        <v>5609204.179511602</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4921,18 +4781,15 @@
         <v>43321.3506</v>
       </c>
       <c r="G129" t="n">
-        <v>5565882.828911602</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4954,18 +4811,15 @@
         <v>32599.563</v>
       </c>
       <c r="G130" t="n">
-        <v>5598482.391911603</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4987,18 +4841,15 @@
         <v>136941.9883</v>
       </c>
       <c r="G131" t="n">
-        <v>5461540.403611602</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5020,18 +4871,15 @@
         <v>134389.1258</v>
       </c>
       <c r="G132" t="n">
-        <v>5595929.529411602</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5053,18 +4901,15 @@
         <v>18478.2015</v>
       </c>
       <c r="G133" t="n">
-        <v>5595929.529411602</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5086,18 +4931,15 @@
         <v>90914.182</v>
       </c>
       <c r="G134" t="n">
-        <v>5505015.347411602</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5119,18 +4961,15 @@
         <v>5962.8542</v>
       </c>
       <c r="G135" t="n">
-        <v>5510978.201611602</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5152,18 +4991,15 @@
         <v>456.2226</v>
       </c>
       <c r="G136" t="n">
-        <v>5511434.424211602</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5185,18 +5021,15 @@
         <v>13317.2655</v>
       </c>
       <c r="G137" t="n">
-        <v>5524751.689711601</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5218,18 +5051,15 @@
         <v>8547.799999999999</v>
       </c>
       <c r="G138" t="n">
-        <v>5524751.689711601</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5251,18 +5081,15 @@
         <v>2982.4013</v>
       </c>
       <c r="G139" t="n">
-        <v>5521769.288411601</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5284,18 +5111,15 @@
         <v>68718.35400000001</v>
       </c>
       <c r="G140" t="n">
-        <v>5590487.642411602</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5317,18 +5141,15 @@
         <v>29211.45</v>
       </c>
       <c r="G141" t="n">
-        <v>5619699.092411602</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5350,18 +5171,15 @@
         <v>3328.527</v>
       </c>
       <c r="G142" t="n">
-        <v>5623027.619411602</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5383,18 +5201,15 @@
         <v>70243.2399</v>
       </c>
       <c r="G143" t="n">
-        <v>5693270.859311602</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5416,18 +5231,15 @@
         <v>1764.9045</v>
       </c>
       <c r="G144" t="n">
-        <v>5695035.763811602</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5449,18 +5261,15 @@
         <v>22286.7153</v>
       </c>
       <c r="G145" t="n">
-        <v>5672749.048511602</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5482,18 +5291,15 @@
         <v>169.0319</v>
       </c>
       <c r="G146" t="n">
-        <v>5672918.080411602</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5515,18 +5321,15 @@
         <v>74669.26300000001</v>
       </c>
       <c r="G147" t="n">
-        <v>5598248.817411602</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5548,18 +5351,15 @@
         <v>51957.9365</v>
       </c>
       <c r="G148" t="n">
-        <v>5598248.817411602</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5581,18 +5381,15 @@
         <v>553382.8219450156</v>
       </c>
       <c r="G149" t="n">
-        <v>6151631.639356617</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5614,18 +5411,15 @@
         <v>3529.034327879371</v>
       </c>
       <c r="G150" t="n">
-        <v>6148102.605028737</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5647,18 +5441,15 @@
         <v>164090.9878</v>
       </c>
       <c r="G151" t="n">
-        <v>5984011.617228737</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5680,18 +5471,15 @@
         <v>11607.30303502455</v>
       </c>
       <c r="G152" t="n">
-        <v>5984011.617228737</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5713,18 +5501,15 @@
         <v>36521.4226</v>
       </c>
       <c r="G153" t="n">
-        <v>5947490.194628737</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5746,18 +5531,15 @@
         <v>5576.7151</v>
       </c>
       <c r="G154" t="n">
-        <v>5941913.479528737</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5779,18 +5561,15 @@
         <v>111728.5831</v>
       </c>
       <c r="G155" t="n">
-        <v>5830184.896428737</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5812,18 +5591,15 @@
         <v>864.3609</v>
       </c>
       <c r="G156" t="n">
-        <v>5831049.257328737</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5845,18 +5621,15 @@
         <v>11607.303</v>
       </c>
       <c r="G157" t="n">
-        <v>5831049.257328737</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5878,18 +5651,15 @@
         <v>9771.2701</v>
       </c>
       <c r="G158" t="n">
-        <v>5840820.527428737</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5911,18 +5681,15 @@
         <v>70701.7099</v>
       </c>
       <c r="G159" t="n">
-        <v>5770118.817528737</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5944,18 +5711,15 @@
         <v>217976.8276</v>
       </c>
       <c r="G160" t="n">
-        <v>5988095.645128737</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5977,18 +5741,15 @@
         <v>3529.0344</v>
       </c>
       <c r="G161" t="n">
-        <v>5991624.679528737</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6010,18 +5771,15 @@
         <v>83</v>
       </c>
       <c r="G162" t="n">
-        <v>5991707.679528737</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6043,18 +5801,15 @@
         <v>427877.2004</v>
       </c>
       <c r="G163" t="n">
-        <v>6419584.879928738</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6076,18 +5831,15 @@
         <v>3359.4266</v>
       </c>
       <c r="G164" t="n">
-        <v>6416225.453328738</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6109,18 +5861,15 @@
         <v>32345.0294</v>
       </c>
       <c r="G165" t="n">
-        <v>6448570.482728738</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6142,18 +5891,15 @@
         <v>20001</v>
       </c>
       <c r="G166" t="n">
-        <v>6448570.482728738</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6175,18 +5921,15 @@
         <v>8274.558000000001</v>
       </c>
       <c r="G167" t="n">
-        <v>6456845.040728739</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6208,18 +5951,15 @@
         <v>100</v>
       </c>
       <c r="G168" t="n">
-        <v>6456945.040728739</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6241,18 +5981,15 @@
         <v>127423.7481</v>
       </c>
       <c r="G169" t="n">
-        <v>6329521.292628738</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6274,18 +6011,15 @@
         <v>93930.5241</v>
       </c>
       <c r="G170" t="n">
-        <v>6235590.768528738</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6307,18 +6041,15 @@
         <v>63590.9562</v>
       </c>
       <c r="G171" t="n">
-        <v>6171999.812328738</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6340,18 +6071,15 @@
         <v>400.211</v>
       </c>
       <c r="G172" t="n">
-        <v>6172400.023328738</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6373,18 +6101,15 @@
         <v>267.672</v>
       </c>
       <c r="G173" t="n">
-        <v>6172132.351328738</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6406,18 +6131,15 @@
         <v>5811.053</v>
       </c>
       <c r="G174" t="n">
-        <v>6166321.298328738</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6439,18 +6161,15 @@
         <v>5493.4505</v>
       </c>
       <c r="G175" t="n">
-        <v>6160827.847828737</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6472,18 +6191,15 @@
         <v>199094.1889</v>
       </c>
       <c r="G176" t="n">
-        <v>5961733.658928737</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6505,18 +6221,15 @@
         <v>488279.5468</v>
       </c>
       <c r="G177" t="n">
-        <v>6450013.205728737</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6538,18 +6251,15 @@
         <v>3990.157</v>
       </c>
       <c r="G178" t="n">
-        <v>6454003.362728736</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6571,18 +6281,15 @@
         <v>85393.9176</v>
       </c>
       <c r="G179" t="n">
-        <v>6368609.445128736</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6604,18 +6311,15 @@
         <v>100</v>
       </c>
       <c r="G180" t="n">
-        <v>6368709.445128736</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6637,18 +6341,15 @@
         <v>270468.787</v>
       </c>
       <c r="G181" t="n">
-        <v>6368709.445128736</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6670,18 +6371,15 @@
         <v>0.0004</v>
       </c>
       <c r="G182" t="n">
-        <v>6368709.445528736</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6703,18 +6401,15 @@
         <v>90</v>
       </c>
       <c r="G183" t="n">
-        <v>6368799.445528736</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6736,18 +6431,15 @@
         <v>15126.8154</v>
       </c>
       <c r="G184" t="n">
-        <v>6368799.445528736</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6769,18 +6461,15 @@
         <v>90</v>
       </c>
       <c r="G185" t="n">
-        <v>6368889.445528736</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6802,18 +6491,15 @@
         <v>2900</v>
       </c>
       <c r="G186" t="n">
-        <v>6371789.445528736</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6835,18 +6521,15 @@
         <v>90</v>
       </c>
       <c r="G187" t="n">
-        <v>6371789.445528736</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6868,18 +6551,15 @@
         <v>100</v>
       </c>
       <c r="G188" t="n">
-        <v>6371889.445528736</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6901,18 +6581,15 @@
         <v>3944.8356</v>
       </c>
       <c r="G189" t="n">
-        <v>6367944.609928736</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6934,18 +6611,15 @@
         <v>37632.0811</v>
       </c>
       <c r="G190" t="n">
-        <v>6405576.691028737</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6967,18 +6641,15 @@
         <v>4510</v>
       </c>
       <c r="G191" t="n">
-        <v>6401066.691028737</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7000,18 +6671,15 @@
         <v>22070.4729</v>
       </c>
       <c r="G192" t="n">
-        <v>6423137.163928737</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7033,18 +6701,15 @@
         <v>100000</v>
       </c>
       <c r="G193" t="n">
-        <v>6323137.163928737</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7066,18 +6731,15 @@
         <v>40164.043</v>
       </c>
       <c r="G194" t="n">
-        <v>6323137.163928737</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7099,18 +6761,15 @@
         <v>83</v>
       </c>
       <c r="G195" t="n">
-        <v>6323220.163928737</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7132,18 +6791,15 @@
         <v>40072.2516</v>
       </c>
       <c r="G196" t="n">
-        <v>6283147.912328737</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7165,18 +6821,15 @@
         <v>369516.0811</v>
       </c>
       <c r="G197" t="n">
-        <v>5913631.831228737</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7198,18 +6851,15 @@
         <v>600</v>
       </c>
       <c r="G198" t="n">
-        <v>5913031.831228737</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7231,18 +6881,15 @@
         <v>330</v>
       </c>
       <c r="G199" t="n">
-        <v>5913031.831228737</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7264,18 +6911,15 @@
         <v>100</v>
       </c>
       <c r="G200" t="n">
-        <v>5913131.831228737</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7297,18 +6941,15 @@
         <v>100</v>
       </c>
       <c r="G201" t="n">
-        <v>5913031.831228737</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7330,18 +6971,15 @@
         <v>200</v>
       </c>
       <c r="G202" t="n">
-        <v>5913231.831228737</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7363,18 +7001,15 @@
         <v>4016.7521</v>
       </c>
       <c r="G203" t="n">
-        <v>5909215.079128737</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7396,18 +7031,15 @@
         <v>3059.122</v>
       </c>
       <c r="G204" t="n">
-        <v>5906155.957128736</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7429,18 +7061,15 @@
         <v>44978.2322</v>
       </c>
       <c r="G205" t="n">
-        <v>5951134.189328737</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7462,18 +7091,15 @@
         <v>48650.0729</v>
       </c>
       <c r="G206" t="n">
-        <v>5902484.116428737</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7495,18 +7121,15 @@
         <v>100</v>
       </c>
       <c r="G207" t="n">
-        <v>5902584.116428737</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7528,18 +7151,15 @@
         <v>11149</v>
       </c>
       <c r="G208" t="n">
-        <v>5891435.116428737</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7561,18 +7181,15 @@
         <v>401</v>
       </c>
       <c r="G209" t="n">
-        <v>5891034.116428737</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7594,18 +7211,15 @@
         <v>34250.0908</v>
       </c>
       <c r="G210" t="n">
-        <v>5856784.025628736</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7627,18 +7241,15 @@
         <v>130067.6995</v>
       </c>
       <c r="G211" t="n">
-        <v>5986851.725128736</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7660,18 +7271,15 @@
         <v>40365.2864</v>
       </c>
       <c r="G212" t="n">
-        <v>5946486.438728737</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7693,18 +7301,15 @@
         <v>51142.9379</v>
       </c>
       <c r="G213" t="n">
-        <v>5946486.438728737</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7726,18 +7331,15 @@
         <v>18857.062</v>
       </c>
       <c r="G214" t="n">
-        <v>5946486.438728737</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7759,18 +7361,15 @@
         <v>14697.5075</v>
       </c>
       <c r="G215" t="n">
-        <v>5931788.931228736</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7792,18 +7391,15 @@
         <v>8583.603300000001</v>
       </c>
       <c r="G216" t="n">
-        <v>5931788.931228736</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7825,18 +7421,15 @@
         <v>6462.478</v>
       </c>
       <c r="G217" t="n">
-        <v>5925326.453228736</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7858,18 +7451,15 @@
         <v>8224.9722</v>
       </c>
       <c r="G218" t="n">
-        <v>5925326.453228736</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7891,18 +7481,15 @@
         <v>23271.0536</v>
       </c>
       <c r="G219" t="n">
-        <v>5902055.399628736</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7924,18 +7511,15 @@
         <v>59787.9385</v>
       </c>
       <c r="G220" t="n">
-        <v>5961843.338128736</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7957,18 +7541,15 @@
         <v>100</v>
       </c>
       <c r="G221" t="n">
-        <v>5961943.338128736</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7990,18 +7571,15 @@
         <v>40365.2864</v>
       </c>
       <c r="G222" t="n">
-        <v>5921578.051728737</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8023,18 +7601,15 @@
         <v>126029.1617</v>
       </c>
       <c r="G223" t="n">
-        <v>6047607.213428737</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8056,18 +7631,15 @@
         <v>41868</v>
       </c>
       <c r="G224" t="n">
-        <v>6089475.213428737</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8089,18 +7661,15 @@
         <v>23492.7067</v>
       </c>
       <c r="G225" t="n">
-        <v>6112967.920128737</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8122,18 +7691,15 @@
         <v>1758.0872</v>
       </c>
       <c r="G226" t="n">
-        <v>6114726.007328737</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8155,18 +7721,15 @@
         <v>27973.3825</v>
       </c>
       <c r="G227" t="n">
-        <v>6142699.389828737</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8188,18 +7751,15 @@
         <v>72026.61749999999</v>
       </c>
       <c r="G228" t="n">
-        <v>6142699.389828737</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8221,18 +7781,15 @@
         <v>85</v>
       </c>
       <c r="G229" t="n">
-        <v>6142784.389828737</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8254,18 +7811,15 @@
         <v>25068.917</v>
       </c>
       <c r="G230" t="n">
-        <v>6117715.472828737</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8287,18 +7841,15 @@
         <v>85</v>
       </c>
       <c r="G231" t="n">
-        <v>6117800.472828737</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8320,18 +7871,15 @@
         <v>24983.917</v>
       </c>
       <c r="G232" t="n">
-        <v>6117800.472828737</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8353,18 +7901,15 @@
         <v>194025.7021</v>
       </c>
       <c r="G233" t="n">
-        <v>6311826.174928737</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8386,18 +7931,15 @@
         <v>28942.7114</v>
       </c>
       <c r="G234" t="n">
-        <v>6340768.886328737</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8419,18 +7961,15 @@
         <v>2181.3479</v>
       </c>
       <c r="G235" t="n">
-        <v>6338587.538428737</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8452,18 +7991,15 @@
         <v>141.6787</v>
       </c>
       <c r="G236" t="n">
-        <v>6338729.217128737</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8485,18 +8021,15 @@
         <v>20000</v>
       </c>
       <c r="G237" t="n">
-        <v>6318729.217128737</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8518,18 +8051,15 @@
         <v>3377.2423</v>
       </c>
       <c r="G238" t="n">
-        <v>6315351.974828737</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8551,18 +8081,15 @@
         <v>122181.348</v>
       </c>
       <c r="G239" t="n">
-        <v>6437533.322828737</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8584,18 +8111,15 @@
         <v>22000</v>
       </c>
       <c r="G240" t="n">
-        <v>6415533.322828737</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8617,18 +8141,15 @@
         <v>69163.4791</v>
       </c>
       <c r="G241" t="n">
-        <v>6346369.843728737</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8650,18 +8171,15 @@
         <v>1010.8175</v>
       </c>
       <c r="G242" t="n">
-        <v>6346369.843728737</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8683,18 +8201,15 @@
         <v>10533.3538</v>
       </c>
       <c r="G243" t="n">
-        <v>6335836.489928737</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8716,18 +8231,15 @@
         <v>95.82859999999999</v>
       </c>
       <c r="G244" t="n">
-        <v>6335932.318528737</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
